--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,14 +780,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 63804-2023</t>
+          <t>A 17535-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45278</v>
+        <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,13 +799,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -814,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -832,128 +827,133 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Bergjohannesört
+Krusfrö</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 17535-2024 artfynd.xlsx", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 17535-2024 karta.png", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 17535-2024 FSC-klagomål.docx", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 17535-2024 FSC-klagomål mail.docx", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 17535-2024 tillsynsbegäran.docx", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 17535-2024 tillsynsbegäran mail.docx", "A 17535-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 63804-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe
 Svinrot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 63804-2023 artfynd.xlsx", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 63804-2023 karta.png", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 63804-2023 FSC-klagomål.docx", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 63804-2023 FSC-klagomål mail.docx", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 63804-2023 tillsynsbegäran.docx", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 63804-2023 tillsynsbegäran mail.docx", "A 63804-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 17535-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45415.61755787037</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Bergjohannesört
-Krusfrö</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 17535-2024 artfynd.xlsx", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 17535-2024 karta.png", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 17535-2024 FSC-klagomål.docx", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 17535-2024 FSC-klagomål mail.docx", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 17535-2024 tillsynsbegäran.docx", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 17535-2024 tillsynsbegäran mail.docx", "A 17535-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,14 +1127,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 59493-2024</t>
+          <t>A 38064-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45637</v>
+        <v>45159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1186,31 +1186,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>45812</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45635.57728009259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1392,14 +1392,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 12413-2023</t>
+          <t>A 55118-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44999.52065972222</v>
+        <v>45967</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1412,17 +1412,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1446,31 +1446,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
         <v/>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
         <v>45601.58664351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,14 +1562,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55118-2025</t>
+          <t>A 12413-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45967</v>
+        <v>44999.52065972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1616,45 +1616,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 38064-2023</t>
+          <t>A 59493-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45159</v>
+        <v>45637</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1672,17 +1672,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1706,31 +1706,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,14 +1908,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45855-2021</t>
+          <t>A 58883-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44441</v>
+        <v>44489.65511574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58883-2021</t>
+          <t>A 45855-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44489.65511574074</v>
+        <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44571</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3167,14 +3167,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7627-2021</t>
+          <t>A 32520-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44242</v>
+        <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3224,14 +3224,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38566-2021</t>
+          <t>A 7627-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44407.70712962963</v>
+        <v>44242</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3281,14 +3281,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 32520-2021</t>
+          <t>A 38566-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44374.78251157407</v>
+        <v>44407.70712962963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3338,14 +3338,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55581-2021</t>
+          <t>A 69666-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44475.84278935185</v>
+        <v>44532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3395,14 +3395,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 69666-2021</t>
+          <t>A 55581-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44532</v>
+        <v>44475.84278935185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>44498</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44505</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3737,14 +3737,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 48433-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45247</v>
+        <v>44858.64818287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3794,14 +3794,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48433-2022</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44858.64818287037</v>
+        <v>45534</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3813,8 +3813,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3851,14 +3856,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 21324-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>44705.59672453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3871,7 +3876,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3908,14 +3913,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 57720-2023</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45246</v>
+        <v>45504</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3928,7 +3933,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3965,14 +3970,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45045</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3985,7 +3990,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4022,14 +4027,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45716</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4041,13 +4046,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4084,14 +4084,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45050</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4141,14 +4141,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41013-2023</t>
+          <t>A 51067-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45169</v>
+        <v>44868.36377314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4198,14 +4198,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45239</v>
+        <v>44974</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4255,14 +4255,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45113</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4312,14 +4312,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30981-2023</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45113.51041666666</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4369,14 +4369,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>44977</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8.300000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4426,14 +4426,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4483,14 +4483,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 21106-2025</t>
+          <t>A 49090-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45777.67112268518</v>
+        <v>45204</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,8 +4502,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4540,14 +4545,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 57720-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>45246</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4560,7 +4565,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4597,14 +4602,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 31337-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>45504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4617,7 +4622,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4654,14 +4659,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 33221-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44749</v>
+        <v>45518.55730324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4674,7 +4679,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4711,14 +4716,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45889</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,13 +4735,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4773,14 +4773,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44531</v>
+        <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45884</v>
+        <v>45247</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,13 +4849,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4892,14 +4887,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45504</v>
+        <v>44418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4911,8 +4906,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4949,14 +4949,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5006,14 +5006,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44866</v>
+        <v>45350</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,8 +5025,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5063,14 +5068,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44476</v>
+        <v>45309</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5083,7 +5088,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5120,14 +5125,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44876</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5140,7 +5145,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5177,14 +5182,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>45126</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5197,7 +5202,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5234,14 +5239,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44603</v>
+        <v>44498</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5254,7 +5259,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5291,14 +5296,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>45567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5311,7 +5316,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5348,14 +5353,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45894</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5368,7 +5373,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5405,14 +5410,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>45800</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5425,7 +5430,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5462,14 +5467,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49090-2023</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45204</v>
+        <v>45659</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5492,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5524,14 +5529,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45893</v>
+        <v>45800</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5549,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5581,14 +5586,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>45716</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,8 +5605,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5638,14 +5648,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 39534-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45895.386875</v>
+        <v>45551</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5668,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5695,14 +5705,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5725,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5752,14 +5762,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5782,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.1</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5809,14 +5819,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44498</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5829,7 +5839,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5866,14 +5876,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17391-2024</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45414.68023148148</v>
+        <v>45300</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5885,8 +5895,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5923,14 +5938,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51067-2022</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44868.36377314815</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5958,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5980,14 +5995,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6015,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6037,14 +6052,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6072,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6094,14 +6109,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44901</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6129,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6151,14 +6166,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 21106-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45777.67112268518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6186,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6208,14 +6223,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6243,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6265,14 +6280,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>45045</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6300,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.1</v>
+        <v>11.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6322,14 +6337,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6342,7 +6357,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6379,14 +6394,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45902</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6398,13 +6413,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6441,14 +6451,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 12322-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>44999</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,13 +6470,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>5.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6503,14 +6508,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6522,13 +6527,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>11.2</v>
+        <v>4.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6565,14 +6565,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35154-2022</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44797</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6622,14 +6622,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6679,14 +6679,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6736,14 +6736,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 8479-2021</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44245</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6793,14 +6793,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45988</v>
+        <v>45884</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,8 +6812,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6850,14 +6855,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11916-2024</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45376</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,13 +6874,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6912,14 +6912,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>45889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6931,8 +6931,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6969,14 +6974,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42026-2025</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45903</v>
+        <v>45450</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6994,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7026,14 +7031,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43833-2025</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45912.63038194444</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7051,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7083,14 +7088,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>45329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7102,8 +7107,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7140,14 +7150,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>45895.386875</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7170,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7197,14 +7207,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>45894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7227,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7254,14 +7264,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28813-2025</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45820</v>
+        <v>45893</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7284,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7311,14 +7321,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>45029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7330,8 +7340,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7368,14 +7383,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7403,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7425,14 +7440,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7460,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7482,14 +7497,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44575</v>
+        <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7517,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7539,14 +7554,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46038</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7558,13 +7573,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>8.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7601,14 +7611,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45925</v>
+        <v>45819</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7620,13 +7630,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>9.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7663,14 +7668,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33221-2024</t>
+          <t>A 17373-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45518.55730324074</v>
+        <v>45756.86658564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7683,7 +7688,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7720,14 +7725,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 28786-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44487</v>
+        <v>45820.46232638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7740,7 +7745,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7777,14 +7782,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>45902</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7796,8 +7801,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7834,14 +7844,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 1954-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>45671</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7853,8 +7863,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7891,14 +7906,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>44603</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7911,7 +7926,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7948,14 +7963,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45329</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7967,13 +7982,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8010,14 +8020,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45932</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,8 +8039,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8067,14 +8082,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45932</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8087,7 +8102,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8124,14 +8139,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45932</v>
+        <v>45824</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8144,7 +8159,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8181,14 +8196,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45932</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8201,7 +8216,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8238,14 +8253,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>45826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8258,7 +8273,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8295,14 +8310,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 70345-2021</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44536</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8315,7 +8330,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8352,14 +8367,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8372,7 +8387,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8409,14 +8424,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8429,7 +8444,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8466,14 +8481,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 42026-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46006</v>
+        <v>45903</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,13 +8500,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>7.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8528,14 +8538,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 43833-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44974</v>
+        <v>45912.63038194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8548,7 +8558,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8585,14 +8595,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45939</v>
+        <v>45205</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8605,7 +8615,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8642,14 +8652,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>45826</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8662,7 +8672,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8699,14 +8709,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8719,7 +8729,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8756,14 +8766,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 28813-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46007</v>
+        <v>45820</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8775,13 +8785,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8818,14 +8823,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8838,7 +8843,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8875,14 +8880,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46007</v>
+        <v>44417</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8894,13 +8899,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8937,14 +8937,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50515-2025</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45945.45089120371</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8994,14 +8994,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9051,14 +9051,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>45925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9070,8 +9070,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9108,14 +9113,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 2440-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45674.41945601852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9133,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>9.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9165,14 +9170,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47699-2024</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45588.46224537037</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9185,7 +9190,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9222,14 +9227,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45229</v>
+        <v>44476</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9242,7 +9247,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9279,14 +9284,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>44749</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9299,7 +9304,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9336,14 +9341,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45939</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9356,7 +9361,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9393,14 +9398,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45939</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9413,7 +9418,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9450,14 +9455,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9470,7 +9475,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9507,14 +9512,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 17373-2025</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45756.86658564815</v>
+        <v>45932</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9527,7 +9532,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9564,14 +9569,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>45932</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9584,7 +9589,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9621,14 +9626,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44977</v>
+        <v>45932</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9641,7 +9646,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9678,14 +9683,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 12322-2023</t>
+          <t>A 46518-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44999</v>
+        <v>45582.62869212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9735,14 +9740,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9755,7 +9760,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9792,14 +9797,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 10811-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44270</v>
+        <v>45369.63376157408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9812,7 +9817,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9849,14 +9854,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 28703-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>44748.82637731481</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9869,7 +9874,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9906,14 +9911,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60382-2021</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44496.36440972222</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9926,7 +9931,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9963,14 +9968,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9983,7 +9988,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10020,14 +10025,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10811-2024</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45369.63376157408</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10040,7 +10045,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10077,14 +10082,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45967</v>
+        <v>45939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10097,7 +10102,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10134,14 +10139,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 50515-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>45945.45089120371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10154,7 +10159,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10191,14 +10196,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>45082.480625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10211,7 +10216,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10248,14 +10253,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>45280</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10267,8 +10272,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10305,14 +10315,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45019</v>
+        <v>45271</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10325,7 +10335,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10362,14 +10372,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45019</v>
+        <v>45939</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10382,7 +10392,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10419,14 +10429,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 21425-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>45782.50599537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10439,7 +10449,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10476,14 +10486,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46518-2024</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45582.62869212963</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10496,7 +10506,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10533,14 +10543,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>44866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10553,7 +10563,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10590,14 +10600,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45044</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10610,7 +10620,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10647,14 +10657,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10667,7 +10677,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10704,14 +10714,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 32719-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45567</v>
+        <v>45514</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10724,7 +10734,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>8.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10761,14 +10771,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 35779-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>45532.60379629629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10781,7 +10791,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10818,14 +10828,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44995</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10838,7 +10848,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10875,14 +10885,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>45112</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10895,7 +10905,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10932,14 +10942,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44418</v>
+        <v>45112</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10949,11 +10959,6 @@
       <c r="E175" t="inlineStr">
         <is>
           <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -10994,14 +10999,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11014,7 +11019,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11051,14 +11056,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45198</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11071,7 +11076,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11108,14 +11113,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45029</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11127,13 +11132,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11170,14 +11170,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 73273-2021</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44550.92103009259</v>
+        <v>45499</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11189,8 +11189,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11227,14 +11232,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11247,7 +11252,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11284,14 +11289,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>45019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11304,7 +11309,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11341,14 +11346,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>45239</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11361,7 +11366,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11398,14 +11403,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11418,7 +11423,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11455,14 +11460,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 11916-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>45376</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11474,8 +11479,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11512,14 +11522,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 40251-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>45554.61689814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11532,7 +11542,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11569,14 +11579,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 28688-2024</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45478.48899305556</v>
+        <v>45967</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11589,7 +11599,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11626,14 +11636,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11646,7 +11656,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.8</v>
+        <v>8.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11683,14 +11693,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11703,7 +11713,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11740,14 +11750,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11760,7 +11770,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11797,14 +11807,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>45113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11817,7 +11827,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11854,14 +11864,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 47699-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44819</v>
+        <v>45588.46224537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11874,7 +11884,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11911,14 +11921,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 8479-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44868</v>
+        <v>44245</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11931,7 +11941,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11968,14 +11978,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1954-2025</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45671</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11987,13 +11997,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>8.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12030,14 +12035,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 57298-2024</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45629.59912037037</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12050,7 +12055,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12087,14 +12092,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 40189-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45229</v>
+        <v>45554.56659722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12107,7 +12112,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12144,14 +12149,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 41013-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45098</v>
+        <v>45169</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12164,7 +12169,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12201,14 +12206,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12221,7 +12226,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12258,14 +12263,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 58097-2023</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45248.84173611111</v>
+        <v>45229</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12278,7 +12283,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12315,14 +12320,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 70345-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45516</v>
+        <v>44536</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12334,13 +12339,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12377,14 +12377,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 28703-2022</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44748.82637731481</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12396,8 +12396,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>3.3</v>
+        <v>11.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12434,14 +12439,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 17391-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>45414.68023148148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12454,7 +12459,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12491,14 +12496,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45450</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12511,7 +12516,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12548,14 +12553,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 28688-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>45478.48899305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12605,14 +12610,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45300</v>
+        <v>45988</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12624,13 +12629,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12667,14 +12667,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 58097-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45499</v>
+        <v>45248.84173611111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12686,13 +12686,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12729,14 +12724,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 73273-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>44550.92103009259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12749,7 +12744,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12786,14 +12781,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44866</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12806,7 +12801,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12843,14 +12838,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 37812-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45350</v>
+        <v>44402</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12862,13 +12857,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12905,14 +12895,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 28622-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45680</v>
+        <v>45478.44236111111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12925,7 +12915,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12962,14 +12952,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44879</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12982,7 +12972,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13019,14 +13009,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 35154-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>44797</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13039,7 +13029,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13076,14 +13066,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 48447-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>44858.65266203704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13096,7 +13086,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13133,14 +13123,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 60382-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45620</v>
+        <v>44496.36440972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13153,7 +13143,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13190,14 +13180,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 37812-2021</t>
+          <t>A 57298-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44402</v>
+        <v>45629.59912037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13210,7 +13200,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13247,14 +13237,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 30981-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44858</v>
+        <v>45113.51041666666</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13267,7 +13257,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13304,14 +13294,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 40251-2024</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45554.61689814815</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13324,7 +13314,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13361,14 +13351,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>46038</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13380,8 +13370,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13418,14 +13413,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13438,7 +13433,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13475,14 +13470,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44417</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13495,7 +13490,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13532,14 +13527,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13547,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13589,14 +13584,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 2440-2025</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45674.41945601852</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13604,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13646,14 +13641,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45065</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13661,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13703,14 +13698,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13718,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13760,14 +13755,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13817,14 +13812,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>46007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13836,8 +13831,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13874,14 +13874,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 28622-2024</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45478.44236111111</v>
+        <v>44487</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13931,14 +13931,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45370</v>
+        <v>45065</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13988,14 +13988,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45280</v>
+        <v>46006</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14050,14 +14050,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14107,14 +14107,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>46007</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14126,8 +14126,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14164,14 +14169,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 60148-2022</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44909</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14184,7 +14189,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14221,14 +14226,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45126</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14241,7 +14246,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14278,14 +14283,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21324-2022</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44705.59672453703</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14298,7 +14303,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14335,14 +14340,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14355,7 +14360,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14392,14 +14397,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45229</v>
+        <v>45050</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14449,14 +14454,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45236</v>
+        <v>45229</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14469,7 +14474,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14506,14 +14511,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45309</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14563,14 +14568,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14583,7 +14588,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14620,14 +14625,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 40189-2024</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45554.56659722222</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14640,7 +14645,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14677,14 +14682,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14697,7 +14702,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14734,14 +14739,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45205</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14754,7 +14759,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.1</v>
+        <v>5.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14791,14 +14796,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14811,7 +14816,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14848,14 +14853,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45534</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14867,13 +14872,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>11.2</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14910,14 +14910,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45527</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14967,14 +14967,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 60148-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45328</v>
+        <v>44909</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15024,14 +15024,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 48447-2022</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44858.65266203704</v>
+        <v>44901</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15081,14 +15081,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>44879</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15138,14 +15138,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45504</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15195,14 +15195,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>45671</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15214,8 +15214,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15252,14 +15257,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45551</v>
+        <v>45044</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15272,7 +15277,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15309,14 +15314,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15329,7 +15334,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15366,14 +15371,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45112</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15386,7 +15391,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>4</v>
+        <v>8.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15423,14 +15428,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45112</v>
+        <v>44866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15443,7 +15448,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15480,14 +15485,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45659</v>
+        <v>44876</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15499,13 +15504,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15542,14 +15542,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45671</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15561,13 +15561,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15604,14 +15599,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 32719-2024</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45514</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15624,7 +15619,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15661,14 +15656,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15681,7 +15676,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15718,14 +15713,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>44858</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15738,7 +15733,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15775,14 +15770,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>45450</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15795,7 +15790,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15832,14 +15827,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>45019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15852,7 +15847,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15889,14 +15884,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15909,7 +15904,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15946,14 +15941,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 40278-2024</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45554.65760416666</v>
+        <v>45229</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15966,7 +15961,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16003,14 +15998,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 22157-2021</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44325</v>
+        <v>44868</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16023,7 +16018,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16060,14 +16055,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 10800-2024</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45369.62201388889</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16080,7 +16075,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16117,14 +16112,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23226-2025</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45791.48756944444</v>
+        <v>45370</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16137,7 +16132,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16174,14 +16169,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16193,13 +16188,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16236,14 +16226,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 23240-2025</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45791.49888888889</v>
+        <v>44575</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16256,7 +16246,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16293,14 +16283,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45709</v>
+        <v>45236</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,13 +16302,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16355,14 +16340,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16375,7 +16360,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16412,14 +16397,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16432,7 +16417,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16469,14 +16454,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>45527</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16489,7 +16474,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16526,14 +16511,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>45516</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16545,8 +16530,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16583,14 +16573,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 23780-2025</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45793.50979166666</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16603,7 +16593,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16640,14 +16630,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 15691-2024</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45404.45090277777</v>
+        <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16660,7 +16650,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16697,14 +16687,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 23670-2025</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45792.94814814815</v>
+        <v>45620</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16717,7 +16707,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16754,14 +16744,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 3571-2025</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45680</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16774,7 +16764,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16811,14 +16801,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45800</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16831,7 +16821,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16868,14 +16858,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45800</v>
+        <v>44531</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16888,7 +16878,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16925,14 +16915,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16945,7 +16935,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16982,14 +16972,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17002,7 +16992,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17039,14 +17029,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>44995</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17059,7 +17049,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17096,14 +17086,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>45680</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17116,7 +17106,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17153,14 +17143,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>45198</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17173,7 +17163,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17210,14 +17200,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17230,7 +17220,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17267,14 +17257,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17287,7 +17277,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17324,14 +17314,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45450</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17344,7 +17334,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17381,14 +17371,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17401,7 +17391,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17438,14 +17428,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 21137-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>45778.63582175926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17458,7 +17448,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17495,14 +17485,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 40278-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>45554.65760416666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17515,7 +17505,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17552,14 +17542,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 28786-2025</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45820.46232638889</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17572,7 +17562,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.3</v>
+        <v>5.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17609,14 +17599,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45819</v>
+        <v>44325</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17629,7 +17619,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17666,14 +17656,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 23226-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45824</v>
+        <v>45791.48756944444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17686,7 +17676,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17723,14 +17713,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 23240-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45826</v>
+        <v>45791.49888888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17743,7 +17733,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17780,14 +17770,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17800,7 +17790,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17837,14 +17827,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45826</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17857,7 +17847,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17894,14 +17884,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17914,7 +17904,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17951,14 +17941,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17971,7 +17961,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18008,14 +17998,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18027,8 +18017,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18065,14 +18060,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>45709</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18084,8 +18079,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G299" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18122,14 +18122,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 23780-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>45793.50979166666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18179,14 +18179,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 15691-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45082.480625</v>
+        <v>45404.45090277777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18236,14 +18236,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 21425-2025</t>
+          <t>A 3571-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45782.50599537037</v>
+        <v>45680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.9</v>
+        <v>11.2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18293,14 +18293,14 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 23670-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45271</v>
+        <v>45792.94814814815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45278</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45812</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45635.57728009259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45967</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45601.58664351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44999.52065972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44489.65511574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44571</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44242</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44407.70712962963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44475.84278935185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44498</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44505</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44858.64818287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45534</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44705.59672453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45504</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45560.87462962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44958.45994212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45588.46540509259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44868.36377314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44974</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>45191.71241898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45642.40743055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44977</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45119.54206018519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45204</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45246</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45518.55730324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44995.46620370371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>45247</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45369.79299768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>45350</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45309</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45629.59741898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45126</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44498</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>45567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>45109.62675925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>45800</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>45659</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>45800</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>45716</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45551</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44897.5384375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45804.42990740741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45804.43519675926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45300</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45624.96618055556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45804.43789351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45804.4325462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44917.57796296296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45777.67112268518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45803.6643287037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>45045</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>45707.67640046297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>45707.67461805556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44999</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>45586.41668981482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45825.40863425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>45811.35607638889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45811.35936342592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45811.36456018518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45884</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>45793.51618055555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>45889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>45450</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>45674.45380787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>45329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45895.386875</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45893</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45099.48545138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45660.67505787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45594.7358912037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45819</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45756.86658564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45820.46232638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45902</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>45671</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44603</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45825.30631944445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45903.75858796296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>45629.60421296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>45824</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45910.76835648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45751.38976851852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45915.49810185185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45826.60033564815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45903</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45912.63038194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>45205</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>45826</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44890.45704861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>45820</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>45768.92784722222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44417</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44536.46303240741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>45918.67821759259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45674.41945601852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45111.96506944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44476</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44749</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45693.46712962963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45839.64229166666</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>45932</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>45932</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>45932</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>45582.62869212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>45938.63424768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>45369.63376157408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>44748.82637731481</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45845.6409375</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45845.6490162037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45055.43131944445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>45939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45945.45089120371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45082.480625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>45280</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45271</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45939</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45782.50599537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45953.42795138889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45952.57109953704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>45514</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45532.60379629629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44749.50611111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>45112</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>45112</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>45873.38961805555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45098.5687962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>45358.6052662037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>45499</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>45303.02372685185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>45019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>45239</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>45960.37158564815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45376</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45554.61689814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45967</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45140.41236111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44749.51043981482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44993.4881712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45588.46224537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44245</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45979.43319444444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45979.42400462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45554.56659722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45169</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44442.39613425926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>45229</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44536</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45986.60277777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>45414.68023148148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45986.48127314815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>45478.48899305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>45988</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>45248.84173611111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44550.92103009259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>46034.58842592593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44402</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>45478.44236111111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>46034.59358796296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44797</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44858.65266203704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44496.36440972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45629.59912037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45113.51041666666</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45012.65436342593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>46038</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44813.45697916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>45042.70158564814</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>45616.63821759259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>46000.46776620371</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45588.45356481482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45588.45899305555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44582.53597222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>46007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44487</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45065</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>46006</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>46007.47361111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>46007</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>46008.69332175926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45427.46386574074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>45706.54957175926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>46009.44938657407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45050</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45229</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45113.50747685185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45336.48494212963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45245.56895833334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44845.71525462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>45771.61266203703</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45554.63262731482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45013.91371527778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>45621.66334490741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44909</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44901</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44879</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>45042.69927083333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45671</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45044</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45109.63346064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45539.63673611111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44876</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45589.66851851852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45140.43631944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45525.49019675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44858</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45450</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45575.58041666666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45229</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44868</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45495.38644675926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45370</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45098.5433912037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44575</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45236</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44651.6403587963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45224.64361111111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45527</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45516</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45609.41439814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45620</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44890.46577546297</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45588.45613425926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44531</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45616.63513888889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44995</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45680</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45198</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44858.6446412037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45777.51334490741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45777.52100694444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45777.52616898148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45778.63582175926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45554.65760416666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45369.62201388889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44325</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45791.48756944444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45791.49888888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>45791.38806712963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>45791.47444444444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>45743.49012731481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>45791.38410879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>45713.87643518519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45709</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45793.50979166666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45404.45090277777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45792.94814814815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45278</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45812</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45635.57728009259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45967</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45601.58664351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44999.52065972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44489.65511574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44571</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44242</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44407.70712962963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44475.84278935185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44498</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44505</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44858.64818287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>45534</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44705.59672453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45504</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45560.87462962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44958.45994212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45588.46540509259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44868.36377314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>44974</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>45191.71241898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45642.40743055556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>44977</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45119.54206018519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45204</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45246</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45504</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45518.55730324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44995.46620370371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>45247</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45369.79299768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>45350</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45309</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45629.59741898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45126</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44498</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>45567</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>45109.62675925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>45800</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>45659</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>45800</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>45716</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45551</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44897.5384375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45804.42990740741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45804.43519675926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45300</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45624.96618055556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45804.43789351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45804.4325462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44917.57796296296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45777.67112268518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45803.6643287037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>45045</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>45707.67640046297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>45707.67461805556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44999</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>45586.41668981482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45825.40863425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>45811.35607638889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45811.35936342592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45811.36456018518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45884</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>45793.51618055555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>45889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>45450</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>45674.45380787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>45329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45895.386875</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45893</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45029</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45099.48545138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45660.67505787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45594.7358912037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45819</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45756.86658564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45820.46232638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45902</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>45671</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44603</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45825.30631944445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>45903.75858796296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>45629.60421296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>45824</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45910.76835648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>45751.38976851852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45915.49810185185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45826.60033564815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45903</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45912.63038194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>45205</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>45826</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44890.45704861111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>45820</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>45768.92784722222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44417</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44536.46303240741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>45918.67821759259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45674.41945601852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45111.96506944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>44476</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>44749</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45693.46712962963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45839.64229166666</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>45932</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>45932</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>45932</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>45582.62869212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>45938.63424768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>45369.63376157408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9861,7 +9861,7 @@
         <v>44748.82637731481</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>45845.6409375</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>45845.6490162037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45055.43131944445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>45939</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>45945.45089120371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>45082.480625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>45280</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>45271</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45939</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45782.50599537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>45953.42795138889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>45952.57109953704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>45514</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>45532.60379629629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>44749.50611111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>45112</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>45112</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>45873.38961805555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>45098.5687962963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>45358.6052662037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>45499</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>45303.02372685185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>45019</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>45239</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>45960.37158564815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45376</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45554.61689814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45967</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45140.41236111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44749.51043981482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44993.4881712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>45588.46224537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44245</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>45979.43319444444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>45979.42400462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45554.56659722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45169</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         <v>44442.39613425926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>45229</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44536</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45986.60277777778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>45414.68023148148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45986.48127314815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>45478.48899305556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>45988</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>45248.84173611111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44550.92103009259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>46034.58842592593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44402</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>45478.44236111111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>46034.59358796296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44797</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44858.65266203704</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44496.36440972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45629.59912037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>45113.51041666666</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>45012.65436342593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>46038</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44813.45697916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>45042.70158564814</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>45616.63821759259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>46000.46776620371</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45588.45356481482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>45588.45899305555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44582.53597222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         <v>46007</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44487</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>45065</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>46006</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>46007.47361111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>46007</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>46008.69332175926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45427.46386574074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>45706.54957175926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>46009.44938657407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45050</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>45229</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45113.50747685185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45336.48494212963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>45245.56895833334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44845.71525462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>45771.61266203703</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45554.63262731482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45013.91371527778</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>45621.66334490741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44909</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44901</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44879</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>45042.69927083333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45671</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45044</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45109.63346064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45539.63673611111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44866</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44876</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45589.66851851852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45140.43631944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45525.49019675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44858</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45450</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45575.58041666666</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45229</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44868</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45495.38644675926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45370</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45098.5433912037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44575</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45236</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44651.6403587963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45224.64361111111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45527</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45516</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45609.41439814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44819</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45620</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44890.46577546297</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45588.45613425926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44531</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45616.63513888889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44995</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45680</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45198</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44858.6446412037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45777.51334490741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45777.52100694444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45777.52616898148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45778.63582175926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45554.65760416666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>45369.62201388889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44325</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>45791.48756944444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>45791.49888888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>45791.38806712963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>45791.47444444444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>45743.49012731481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>45791.38410879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>45713.87643518519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45709</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45793.50979166666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45404.45090277777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45792.94814814815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,14 +780,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 17535-2024</t>
+          <t>A 63804-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45415.61755787037</v>
+        <v>45278</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,8 +799,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -809,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -827,133 +832,128 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 63804-2023 artfynd.xlsx", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 63804-2023 karta.png", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 63804-2023 FSC-klagomål.docx", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 63804-2023 FSC-klagomål mail.docx", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 63804-2023 tillsynsbegäran.docx", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 63804-2023 tillsynsbegäran mail.docx", "A 63804-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 17535-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45415.61755787037</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Bergjohannesört
 Krusfrö</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 17535-2024 artfynd.xlsx", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 17535-2024 karta.png", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 17535-2024 FSC-klagomål.docx", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 17535-2024 FSC-klagomål mail.docx", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 17535-2024 tillsynsbegäran.docx", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 17535-2024 tillsynsbegäran mail.docx", "A 17535-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 63804-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45278</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 63804-2023 artfynd.xlsx", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 63804-2023 karta.png", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 63804-2023 FSC-klagomål.docx", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 63804-2023 FSC-klagomål mail.docx", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 63804-2023 tillsynsbegäran.docx", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 63804-2023 tillsynsbegäran mail.docx", "A 63804-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,14 +1127,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 38064-2023</t>
+          <t>A 58632-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45159</v>
+        <v>45635.57728009259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1146,16 +1146,11 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1186,554 +1181,559 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 12413-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44999.52065972222</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 50546-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45601.58664351852</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Platt fjädermossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 27406-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 59493-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 55118-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Luddfingersvamp</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 38064-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 27406-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45812</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 58632-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45635.57728009259</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 55118-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Luddfingersvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 50546-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45601.58664351852</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Platt fjädermossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 12413-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44999.52065972222</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Bronshjon</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 59493-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45637</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skrovellav</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,14 +1908,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58883-2021</t>
+          <t>A 45855-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44489.65511574074</v>
+        <v>44441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 45855-2021</t>
+          <t>A 58883-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44441</v>
+        <v>44489.65511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44571</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44242</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44407.70712962963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44475.84278935185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44498</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44505</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44858.64818287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3794,14 +3794,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45534</v>
+        <v>44749</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3813,13 +3813,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>11.2</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3856,14 +3851,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21324-2022</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44705.59672453703</v>
+        <v>45716</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3873,6 +3868,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -3913,14 +3913,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45504</v>
+        <v>45050</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3970,14 +3970,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 49090-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>45204</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,8 +3989,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4027,14 +4032,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4052,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4084,14 +4089,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 17391-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>45414.68023148148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4109,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4148,7 +4153,7 @@
         <v>44868.36377314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4198,14 +4203,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44974</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4218,7 +4223,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4255,14 +4260,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4275,7 +4280,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4312,14 +4317,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4332,7 +4337,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4369,14 +4374,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 35154-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44977</v>
+        <v>44797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4389,7 +4394,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4426,14 +4431,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 11916-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>45376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,8 +4450,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4483,14 +4493,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49090-2023</t>
+          <t>A 8479-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45204</v>
+        <v>44245</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,13 +4512,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4545,14 +4550,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 57720-2023</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45246</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4570,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4602,14 +4607,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45504</v>
+        <v>44575</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4622,7 +4627,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4659,14 +4664,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33221-2024</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45518.55730324074</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4679,7 +4684,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4716,14 +4721,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4741,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4773,14 +4778,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4792,8 +4797,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4830,14 +4840,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 70345-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45247</v>
+        <v>44536</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4850,7 +4860,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4887,14 +4897,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44418</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,13 +4916,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4949,14 +4954,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>44974</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4969,7 +4974,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5006,14 +5011,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 28786-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45350</v>
+        <v>45820.46232638889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,13 +5030,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5068,14 +5068,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 33221-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45309</v>
+        <v>45518.55730324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>44487</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45126</v>
+        <v>45819</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44498</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45567</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5353,14 +5353,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>45824</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45800</v>
+        <v>45826</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5467,14 +5467,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45659</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5486,13 +5486,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5529,14 +5524,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45800</v>
+        <v>45826</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5544,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5586,14 +5581,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45716</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5605,13 +5600,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5648,14 +5638,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 47699-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45551</v>
+        <v>45588.46224537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5668,7 +5658,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5705,14 +5695,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>45229</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5725,7 +5715,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5762,14 +5752,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5782,7 +5772,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5819,14 +5809,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>45045</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5839,7 +5829,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>11.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5876,14 +5866,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 17373-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45300</v>
+        <v>45756.86658564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5895,13 +5885,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5938,14 +5923,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5958,7 +5943,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5995,14 +5980,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>44977</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6015,7 +6000,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6052,14 +6037,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6057,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6109,14 +6094,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6129,7 +6114,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6173,7 +6158,7 @@
         <v>45777.67112268518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6223,14 +6208,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6243,7 +6228,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6280,14 +6265,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45045</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6300,7 +6285,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>11.3</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6337,14 +6322,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>45889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6356,8 +6341,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6394,14 +6384,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45884</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,8 +6403,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6458,7 +6453,7 @@
         <v>44999</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6508,14 +6503,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>44270</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6523,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6565,14 +6560,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>45894</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6580,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6622,14 +6617,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6637,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6679,14 +6674,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6694,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6736,14 +6731,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6751,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6793,14 +6788,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45884</v>
+        <v>45893</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,13 +6807,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6855,14 +6845,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 60382-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>44496.36440972222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6865,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6912,14 +6902,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45889</v>
+        <v>45895.386875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6931,13 +6921,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6974,14 +6959,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45450</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6994,7 +6979,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7031,14 +7016,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7051,7 +7036,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7088,14 +7073,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45329</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7107,13 +7092,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7150,14 +7130,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45895.386875</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7170,7 +7150,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7207,14 +7187,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 10811-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45894</v>
+        <v>45369.63376157408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7227,7 +7207,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7264,14 +7244,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45893</v>
+        <v>45082.480625</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7284,7 +7264,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7321,14 +7301,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45029</v>
+        <v>45902</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7342,11 +7322,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7383,14 +7363,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7403,7 +7383,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7440,14 +7420,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7460,7 +7440,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7497,14 +7477,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44270</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,8 +7496,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7554,14 +7539,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>45019</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7574,7 +7559,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7611,14 +7596,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45819</v>
+        <v>45019</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7631,7 +7616,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7668,14 +7653,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17373-2025</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45756.86658564815</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7688,7 +7673,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7725,14 +7710,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28786-2025</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45820.46232638889</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7745,7 +7730,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7782,14 +7767,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45902</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,13 +7786,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7844,14 +7824,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 1954-2025</t>
+          <t>A 21425-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45671</v>
+        <v>45782.50599537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7863,13 +7843,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>8.800000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7906,14 +7881,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44603</v>
+        <v>45271</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7926,7 +7901,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7963,14 +7938,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7983,7 +7958,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8020,14 +7995,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8039,13 +8014,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8082,14 +8052,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 42026-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45903</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8072,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8139,14 +8109,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 43833-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45824</v>
+        <v>45912.63038194444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8129,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8196,14 +8166,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8216,7 +8186,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8253,14 +8223,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45826</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8273,7 +8243,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8310,14 +8280,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 28813-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>45820</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8330,7 +8300,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8367,14 +8337,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8387,7 +8357,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8424,14 +8394,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8444,7 +8414,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8481,14 +8451,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 42026-2025</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45903</v>
+        <v>45239</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8501,7 +8471,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8538,14 +8508,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43833-2025</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45912.63038194444</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8558,7 +8528,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8595,14 +8565,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45205</v>
+        <v>44418</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8614,8 +8584,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8652,14 +8627,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45826</v>
+        <v>45198</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8672,7 +8647,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8709,14 +8684,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8729,7 +8704,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8766,14 +8741,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 28813-2025</t>
+          <t>A 28688-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45820</v>
+        <v>45478.48899305556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8786,7 +8761,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8823,14 +8798,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8843,7 +8818,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8880,14 +8855,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44417</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8900,7 +8875,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8937,14 +8912,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>45925</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8956,8 +8931,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8994,14 +8974,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +8994,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9051,14 +9031,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45925</v>
+        <v>44819</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9070,13 +9050,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>9.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9113,14 +9088,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2440-2025</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45674.41945601852</v>
+        <v>44868</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9133,7 +9108,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>9.6</v>
+        <v>0.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9170,14 +9145,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>45932</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9165,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9227,14 +9202,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44476</v>
+        <v>45247</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9247,7 +9222,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9284,14 +9259,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44749</v>
+        <v>45932</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9304,7 +9279,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9341,14 +9316,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>45932</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9361,7 +9336,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9398,14 +9373,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45932</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9418,7 +9393,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9455,14 +9430,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 57720-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45932</v>
+        <v>45246</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9475,7 +9450,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9512,14 +9487,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 41013-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45932</v>
+        <v>45169</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9532,7 +9507,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9569,14 +9544,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 30981-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45932</v>
+        <v>45113.51041666666</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9589,7 +9564,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9626,14 +9601,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45932</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9646,7 +9621,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9683,14 +9658,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46518-2024</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45582.62869212963</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9703,7 +9678,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9740,14 +9715,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9760,7 +9735,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9797,14 +9772,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10811-2024</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45369.63376157408</v>
+        <v>45939</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9817,7 +9792,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9854,14 +9829,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28703-2022</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44748.82637731481</v>
+        <v>45504</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9874,7 +9849,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9911,14 +9886,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9931,7 +9906,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9968,14 +9943,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>44866</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9988,7 +9963,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10025,14 +10000,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>44476</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10045,7 +10020,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10082,14 +10057,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45939</v>
+        <v>44876</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10102,7 +10077,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10146,7 +10121,7 @@
         <v>45945.45089120371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10196,14 +10171,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45082.480625</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10216,7 +10191,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10253,14 +10228,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45280</v>
+        <v>44603</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10272,13 +10247,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10315,14 +10285,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45271</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10335,7 +10305,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10372,14 +10342,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45939</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10392,7 +10362,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10429,14 +10399,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 21425-2025</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45782.50599537037</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10449,7 +10419,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10486,14 +10456,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>45939</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10506,7 +10476,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10543,14 +10513,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44866</v>
+        <v>45939</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10563,7 +10533,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10600,14 +10570,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10620,7 +10590,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10657,14 +10627,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45939</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10677,7 +10647,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10714,14 +10684,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 32719-2024</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45514</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10734,7 +10704,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>8.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10771,14 +10741,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>44498</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10828,14 +10798,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>44901</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10848,7 +10818,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10885,14 +10855,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45112</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10905,7 +10875,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10942,14 +10912,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45112</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10999,14 +10969,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>45967</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11019,7 +10989,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11056,14 +11026,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11076,7 +11046,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11113,14 +11083,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 46518-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>45582.62869212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11133,7 +11103,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11170,14 +11140,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45499</v>
+        <v>45044</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11189,13 +11159,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11232,14 +11197,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>45567</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11252,7 +11217,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11289,14 +11254,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45019</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11309,7 +11274,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11346,14 +11311,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45239</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11366,7 +11331,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11403,14 +11368,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11423,7 +11388,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11460,14 +11425,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 11916-2024</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45376</v>
+        <v>44995</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11479,13 +11444,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>5.3</v>
+        <v>9.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11522,14 +11482,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 40251-2024</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45554.61689814815</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11541,8 +11501,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>11.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11579,14 +11544,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45967</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11599,7 +11564,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11636,14 +11601,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11656,7 +11621,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>8.1</v>
+        <v>1.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11693,14 +11658,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>45029</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11712,8 +11677,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11750,14 +11720,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 73273-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>44550.92103009259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11770,7 +11740,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11807,14 +11777,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45113</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11827,7 +11797,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11864,14 +11834,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 47699-2024</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45588.46224537037</v>
+        <v>45988</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11884,7 +11854,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11921,14 +11891,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 8479-2021</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44245</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11941,7 +11911,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11978,14 +11948,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11998,7 +11968,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12035,14 +12005,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12055,7 +12025,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12092,14 +12062,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 40189-2024</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45554.56659722222</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12112,7 +12082,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12149,14 +12119,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 41013-2023</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45169</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12169,7 +12139,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12206,14 +12176,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12226,7 +12196,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12263,14 +12233,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45229</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12283,7 +12253,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12320,14 +12290,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 70345-2021</t>
+          <t>A 1954-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44536</v>
+        <v>45671</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12339,8 +12309,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12377,14 +12352,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 57298-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>45629.59912037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12396,13 +12371,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>11.2</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12439,14 +12409,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 17391-2024</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45414.68023148148</v>
+        <v>46038</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12458,8 +12428,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12496,14 +12471,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45229</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12516,7 +12491,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12553,14 +12528,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28688-2024</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45478.48899305556</v>
+        <v>45098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12573,7 +12548,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12610,14 +12585,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45988</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12630,7 +12605,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12667,14 +12642,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58097-2023</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45248.84173611111</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12687,7 +12662,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12724,14 +12699,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 73273-2021</t>
+          <t>A 58097-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44550.92103009259</v>
+        <v>45248.84173611111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12744,7 +12719,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12781,14 +12756,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>45516</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12800,8 +12775,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12838,14 +12818,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37812-2021</t>
+          <t>A 28703-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44402</v>
+        <v>44748.82637731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12858,7 +12838,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12895,14 +12875,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 28622-2024</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45478.44236111111</v>
+        <v>46006</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12914,8 +12894,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12952,14 +12937,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>46007</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12971,8 +12956,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13009,14 +12999,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 35154-2022</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44797</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13029,7 +13019,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13066,14 +13056,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 48447-2022</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44858.65266203704</v>
+        <v>46007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13085,8 +13075,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.2</v>
+        <v>7.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13123,14 +13118,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 60382-2021</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44496.36440972222</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13143,7 +13138,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13180,14 +13175,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 57298-2024</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45629.59912037037</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13200,7 +13195,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13237,14 +13232,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 30981-2023</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45113.51041666666</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13257,7 +13252,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13294,14 +13289,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>45450</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13314,7 +13309,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13351,14 +13346,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46038</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13370,13 +13365,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13413,14 +13403,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>45300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13432,8 +13422,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13470,14 +13465,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>45499</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13489,8 +13484,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13527,14 +13527,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13584,14 +13584,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>44866</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13641,14 +13641,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>45350</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13660,8 +13660,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13698,14 +13703,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>45680</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13718,7 +13723,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13755,14 +13760,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>44879</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13775,7 +13780,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13812,14 +13817,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46007</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13831,13 +13836,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13874,14 +13874,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44487</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13931,14 +13931,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45065</v>
+        <v>45620</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13988,14 +13988,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 37812-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46006</v>
+        <v>44402</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14007,13 +14007,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14050,14 +14045,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14070,7 +14065,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14107,14 +14102,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 40251-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46007</v>
+        <v>45554.61689814815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14126,13 +14121,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>7.9</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14169,14 +14159,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14189,7 +14179,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14226,14 +14216,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14246,7 +14236,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14283,14 +14273,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14303,7 +14293,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14340,14 +14330,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14360,7 +14350,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14397,14 +14387,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 2440-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45050</v>
+        <v>45674.41945601852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14417,7 +14407,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14454,14 +14444,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45229</v>
+        <v>45065</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14474,7 +14464,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14511,14 +14501,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14531,7 +14521,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14568,14 +14558,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14588,7 +14578,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14625,14 +14615,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14645,7 +14635,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14682,14 +14672,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 28622-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>45478.44236111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14702,7 +14692,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14739,14 +14729,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>45370</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14759,7 +14749,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14796,14 +14786,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>45280</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14815,8 +14805,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14853,14 +14848,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14873,7 +14868,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14910,14 +14905,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14930,7 +14925,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14974,7 +14969,7 @@
         <v>44909</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15024,14 +15019,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44901</v>
+        <v>45126</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15044,7 +15039,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15081,14 +15076,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 21324-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44879</v>
+        <v>44705.59672453703</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15101,7 +15096,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15138,14 +15133,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15158,7 +15153,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.8</v>
+        <v>8.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15195,14 +15190,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45671</v>
+        <v>45229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15214,13 +15209,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15257,14 +15247,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45044</v>
+        <v>45236</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15277,7 +15267,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15314,14 +15304,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45309</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15334,7 +15324,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15371,14 +15361,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15391,7 +15381,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15428,14 +15418,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 40189-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44866</v>
+        <v>45554.56659722222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15448,7 +15438,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15485,14 +15475,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44876</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15505,7 +15495,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15542,14 +15532,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>45205</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15562,7 +15552,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15599,14 +15589,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15619,7 +15609,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15656,14 +15646,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>45534</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15675,8 +15665,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>5.8</v>
+        <v>11.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15713,14 +15708,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44858</v>
+        <v>45527</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15733,7 +15728,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15770,14 +15765,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45450</v>
+        <v>45328</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15790,7 +15785,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15827,14 +15822,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 48447-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45019</v>
+        <v>44858.65266203704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15847,7 +15842,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15884,14 +15879,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15904,7 +15899,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15941,14 +15936,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 31337-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45229</v>
+        <v>45504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15961,7 +15956,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15998,14 +15993,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 35779-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44868</v>
+        <v>45532.60379629629</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16018,7 +16013,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16055,14 +16050,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 39534-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>45551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16075,7 +16070,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16112,14 +16107,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45370</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16132,7 +16127,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16169,14 +16164,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>45112</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16189,7 +16184,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16226,14 +16221,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44575</v>
+        <v>45112</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16246,7 +16241,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16283,14 +16278,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45236</v>
+        <v>45659</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16302,8 +16297,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16340,14 +16340,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>45671</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16359,8 +16359,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16397,14 +16402,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 32719-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>45514</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16417,7 +16422,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16454,14 +16459,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45527</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16474,7 +16479,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16511,14 +16516,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45516</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16530,13 +16535,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16573,14 +16573,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16630,14 +16630,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44819</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16687,14 +16687,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 21137-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45620</v>
+        <v>45778.63582175926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16744,14 +16744,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 40278-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>45554.65760416666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16801,14 +16801,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>44325</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16858,14 +16858,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44531</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16915,14 +16915,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 23226-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45098</v>
+        <v>45791.48756944444</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16972,14 +16972,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16991,8 +16991,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17029,14 +17034,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 23240-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44995</v>
+        <v>45791.49888888889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17049,7 +17054,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>9.4</v>
+        <v>1.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17086,14 +17091,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45680</v>
+        <v>45709</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17105,8 +17110,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17143,14 +17153,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45198</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17163,7 +17173,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17200,14 +17210,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17220,7 +17230,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17257,14 +17267,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17277,7 +17287,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17314,14 +17324,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17334,7 +17344,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17371,14 +17381,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 23780-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>45793.50979166666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17391,7 +17401,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>6.8</v>
+        <v>2.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17428,14 +17438,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 15691-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>45404.45090277777</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17448,7 +17458,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17485,14 +17495,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 40278-2024</t>
+          <t>A 23670-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45554.65760416666</v>
+        <v>45792.94814814815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17505,7 +17515,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17542,14 +17552,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 10800-2024</t>
+          <t>A 3571-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45369.62201388889</v>
+        <v>45680</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17562,7 +17572,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>5.2</v>
+        <v>11.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17599,14 +17609,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 22157-2021</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44325</v>
+        <v>45800</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17619,7 +17629,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17656,14 +17666,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 23226-2025</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45791.48756944444</v>
+        <v>45800</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17676,7 +17686,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17713,14 +17723,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 23240-2025</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45791.49888888889</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17733,7 +17743,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17770,14 +17780,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17790,7 +17800,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17827,14 +17837,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17847,7 +17857,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17884,14 +17894,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17904,7 +17914,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17941,14 +17951,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17961,7 +17971,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17998,14 +18008,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,13 +18027,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18060,14 +18065,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45709</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,13 +18084,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G299" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18122,14 +18122,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 23780-2025</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45793.50979166666</v>
+        <v>45450</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18179,14 +18179,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 15691-2024</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45404.45090277777</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18236,14 +18236,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 3571-2025</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45680</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18293,14 +18293,14 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 23670-2025</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45792.94814814815</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,14 +780,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 63804-2023</t>
+          <t>A 17535-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45278</v>
+        <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,13 +799,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -814,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -832,128 +827,133 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Bergjohannesört
+Krusfrö</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 17535-2024 artfynd.xlsx", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 17535-2024 karta.png", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 17535-2024 FSC-klagomål.docx", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 17535-2024 FSC-klagomål mail.docx", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 17535-2024 tillsynsbegäran.docx", "A 17535-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 17535-2024 tillsynsbegäran mail.docx", "A 17535-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 63804-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Slåttergubbe
 Svinrot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 63804-2023 artfynd.xlsx", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 63804-2023 karta.png", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 63804-2023 FSC-klagomål.docx", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 63804-2023 FSC-klagomål mail.docx", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 63804-2023 tillsynsbegäran.docx", "A 63804-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 63804-2023 tillsynsbegäran mail.docx", "A 63804-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 17535-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45415.61755787037</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Bergjohannesört
-Krusfrö</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 17535-2024 artfynd.xlsx", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 17535-2024 karta.png", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 17535-2024 FSC-klagomål.docx", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 17535-2024 FSC-klagomål mail.docx", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 17535-2024 tillsynsbegäran.docx", "A 17535-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 17535-2024 tillsynsbegäran mail.docx", "A 17535-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,14 +1127,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 58632-2024</t>
+          <t>A 59493-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45635.57728009259</v>
+        <v>45637</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1146,32 +1146,37 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1181,384 +1186,384 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 27406-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 38064-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 58632-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45635.57728009259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 12413-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44999.52065972222</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 50546-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45601.58664351852</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Bronshjon</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 50546-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45601.58664351852</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Platt fjädermossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 27406-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45812</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 59493-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45637</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Skrovellav</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1569,7 +1574,7 @@
         <v>45967</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,14 +1652,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 38064-2023</t>
+          <t>A 12413-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45159</v>
+        <v>44999.52065972222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1666,13 +1671,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1706,31 +1706,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
         <v/>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44489.65511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2084,14 +2084,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33123-2021</t>
+          <t>A 909-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44376</v>
+        <v>44571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 909-2022</t>
+          <t>A 33123-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44571</v>
+        <v>44376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44061-2022</t>
+          <t>A 68194-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44839.31863425926</v>
+        <v>44526.51045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3110,14 +3110,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 68194-2021</t>
+          <t>A 44061-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44526.51045138889</v>
+        <v>44839.31863425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44242</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44407.70712962963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44475.84278935185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44498</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44505</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44858.64818287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3794,14 +3794,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44749</v>
+        <v>45895.386875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3851,14 +3851,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45716</v>
+        <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3870,13 +3870,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3913,14 +3908,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45050</v>
+        <v>45894</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3928,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3970,14 +3965,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49090-2023</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45204</v>
+        <v>45893</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,13 +3984,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4032,14 +4022,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>45527</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4052,7 +4042,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4089,14 +4079,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17391-2024</t>
+          <t>A 21324-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45414.68023148148</v>
+        <v>44705.59672453703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4109,7 +4099,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4146,14 +4136,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51067-2022</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44868.36377314815</v>
+        <v>45534</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,8 +4155,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>11.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4203,14 +4198,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45504</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4223,7 +4218,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4260,14 +4255,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>45516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4279,8 +4274,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4317,14 +4317,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4374,14 +4374,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 35154-2022</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44797</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4431,14 +4431,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11916-2024</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45376</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4450,13 +4450,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4493,14 +4488,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8479-2021</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44245</v>
+        <v>44974</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4513,7 +4508,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4550,14 +4545,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 51067-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>44868.36377314815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4570,7 +4565,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4607,14 +4602,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44575</v>
+        <v>44819</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4627,7 +4622,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4664,14 +4659,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4684,7 +4679,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4721,14 +4716,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>45620</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4741,7 +4736,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4778,14 +4773,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45329</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4797,13 +4792,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4840,14 +4830,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 70345-2021</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44536</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4860,7 +4850,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4897,14 +4887,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4917,7 +4907,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4954,14 +4944,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44974</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4974,7 +4964,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5011,14 +5001,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28786-2025</t>
+          <t>A 21106-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45820.46232638889</v>
+        <v>45777.67112268518</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5031,7 +5021,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5068,14 +5058,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33221-2024</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45518.55730324074</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5088,7 +5078,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5125,14 +5115,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44487</v>
+        <v>45045</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5145,7 +5135,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.6</v>
+        <v>11.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5182,14 +5172,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45819</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5192,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5239,14 +5229,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5249,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5296,14 +5286,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>45884</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5315,8 +5305,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5353,14 +5348,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45824</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5368,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5410,14 +5405,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45826</v>
+        <v>45889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,8 +5424,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5467,14 +5467,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>44977</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5524,14 +5524,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45826</v>
+        <v>44531</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5581,14 +5581,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>45098</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5638,14 +5638,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47699-2024</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45588.46224537037</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5695,14 +5695,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45229</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5752,14 +5752,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>44995</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>9.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5809,14 +5809,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45045</v>
+        <v>45902</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5828,8 +5828,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5866,14 +5871,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17373-2025</t>
+          <t>A 49090-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45756.86658564815</v>
+        <v>45204</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5885,8 +5890,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5923,14 +5933,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 57720-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>45246</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5953,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5980,14 +5990,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44977</v>
+        <v>45680</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6010,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6037,14 +6047,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45113</v>
+        <v>45198</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6067,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6094,14 +6104,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6114,7 +6124,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6151,14 +6161,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21106-2025</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45777.67112268518</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6181,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6208,14 +6218,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6227,8 +6237,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6265,14 +6280,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 31337-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>45504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6285,7 +6300,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6322,14 +6337,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 33221-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45889</v>
+        <v>45518.55730324074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6341,13 +6356,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6384,14 +6394,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45884</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,13 +6413,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6446,14 +6451,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12322-2023</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44999</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6466,7 +6471,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6503,14 +6508,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44270</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6523,7 +6528,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6560,14 +6565,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 21137-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45894</v>
+        <v>45778.63582175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6580,7 +6585,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6617,14 +6622,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 40278-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>45554.65760416666</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6637,7 +6642,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6674,14 +6679,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6694,7 +6699,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6731,14 +6736,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6751,7 +6756,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6788,14 +6793,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45893</v>
+        <v>45328</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6808,7 +6813,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6845,14 +6850,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60382-2021</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44496.36440972222</v>
+        <v>45247</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6865,7 +6870,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6902,14 +6907,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45895.386875</v>
+        <v>44418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6921,8 +6926,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6959,14 +6969,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6979,7 +6989,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7016,14 +7026,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>44325</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7036,7 +7046,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7073,14 +7083,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>45350</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7092,8 +7102,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7130,14 +7145,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>45309</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7150,7 +7165,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7187,14 +7202,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 10811-2024</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45369.63376157408</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7207,7 +7222,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7244,14 +7259,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45082.480625</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7264,7 +7279,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7301,14 +7316,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45902</v>
+        <v>45126</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7320,13 +7335,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7363,14 +7373,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 23226-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>45791.48756944444</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7383,7 +7393,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7420,14 +7430,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 23240-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>45791.49888888889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7440,7 +7450,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7477,14 +7487,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7496,13 +7506,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7539,14 +7544,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45019</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7564,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7596,14 +7601,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45019</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7621,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7653,14 +7658,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7678,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7710,14 +7715,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7729,8 +7734,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7767,14 +7777,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>45709</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7786,8 +7796,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7824,14 +7839,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21425-2025</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45782.50599537037</v>
+        <v>44498</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7859,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7881,14 +7896,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45271</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7916,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7938,14 +7953,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>45567</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7973,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7995,14 +8010,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 23780-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>45793.50979166666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8030,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8059,7 +8074,7 @@
         <v>45903</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8116,7 +8131,7 @@
         <v>45912.63038194444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8166,14 +8181,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8201,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>7.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8223,14 +8238,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>45659</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8242,8 +8257,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8287,7 +8307,7 @@
         <v>45820</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8337,14 +8357,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8357,7 +8377,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8394,14 +8414,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>45716</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8413,8 +8433,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8451,14 +8476,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 39534-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45239</v>
+        <v>45551</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8471,7 +8496,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8508,14 +8533,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8528,7 +8553,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8565,14 +8590,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44418</v>
+        <v>45300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8586,11 +8611,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8627,14 +8652,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 15691-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45198</v>
+        <v>45404.45090277777</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8672,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8684,14 +8709,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 3571-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>45680</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8704,7 +8729,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8741,14 +8766,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 28688-2024</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45478.48899305556</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8761,7 +8786,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8798,14 +8823,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 23670-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>45792.94814814815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8818,7 +8843,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8855,14 +8880,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8875,7 +8900,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8912,14 +8937,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 12322-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45925</v>
+        <v>44999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8931,13 +8956,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>9.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8974,14 +8994,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,7 +9014,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9031,14 +9051,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44819</v>
+        <v>45800</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,7 +9071,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9088,14 +9108,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44868</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9108,7 +9128,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9145,14 +9165,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45932</v>
+        <v>45329</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9164,8 +9184,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9202,14 +9227,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45247</v>
+        <v>45800</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9222,7 +9247,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9259,14 +9284,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45932</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9279,7 +9304,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9316,14 +9341,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45932</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9336,7 +9361,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9373,14 +9398,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45932</v>
+        <v>45029</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9392,8 +9417,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9430,14 +9460,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 57720-2023</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45246</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9450,7 +9480,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9487,14 +9517,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 41013-2023</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45169</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9507,7 +9537,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9544,14 +9574,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 30981-2023</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45113.51041666666</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9564,7 +9594,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9601,14 +9631,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9621,7 +9651,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9658,14 +9688,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9678,7 +9708,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9715,14 +9745,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44531</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9735,7 +9765,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9772,14 +9802,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45939</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9792,7 +9822,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9829,14 +9859,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45504</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9849,7 +9879,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9886,14 +9916,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>44270</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9906,7 +9936,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9943,14 +9973,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44866</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9963,7 +9993,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10000,14 +10030,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44476</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10020,7 +10050,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10057,14 +10087,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 17373-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44876</v>
+        <v>45756.86658564815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10077,7 +10107,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10114,14 +10144,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 50515-2025</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45945.45089120371</v>
+        <v>45450</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10134,7 +10164,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10171,14 +10201,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>45925</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10190,8 +10220,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>5.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10228,14 +10263,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 1954-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44603</v>
+        <v>45671</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10247,8 +10282,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10285,14 +10325,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>44603</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10305,7 +10345,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10342,14 +10382,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45819</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10362,7 +10402,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10399,14 +10439,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10419,7 +10459,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10456,14 +10496,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 28786-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45939</v>
+        <v>45820.46232638889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10476,7 +10516,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10513,14 +10553,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45939</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10533,7 +10573,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10570,14 +10610,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>45205</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10590,7 +10630,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.1</v>
+        <v>0.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10627,14 +10667,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10647,7 +10687,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10684,14 +10724,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>45824</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10704,7 +10744,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10741,14 +10781,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44498</v>
+        <v>44417</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10761,7 +10801,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10798,14 +10838,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44901</v>
+        <v>45826</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10818,7 +10858,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10855,14 +10895,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10875,7 +10915,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10912,14 +10952,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10932,7 +10972,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10969,14 +11009,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45967</v>
+        <v>45826</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10989,7 +11029,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11026,14 +11066,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>45932</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11046,7 +11086,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11083,14 +11123,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 46518-2024</t>
+          <t>A 2440-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45582.62869212963</v>
+        <v>45674.41945601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11103,7 +11143,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.2</v>
+        <v>9.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11140,14 +11180,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45044</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11160,7 +11200,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11197,14 +11237,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45567</v>
+        <v>45932</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11217,7 +11257,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11254,14 +11294,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11274,7 +11314,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11311,14 +11351,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>44476</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11331,7 +11371,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11368,14 +11408,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11388,7 +11428,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11425,14 +11465,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44995</v>
+        <v>45932</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11445,7 +11485,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>9.4</v>
+        <v>1.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11482,14 +11522,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>45932</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11501,13 +11541,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>11.2</v>
+        <v>2.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11544,14 +11579,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>44749</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11564,7 +11599,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11601,14 +11636,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11621,7 +11656,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11658,14 +11693,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45029</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11677,13 +11712,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11720,14 +11750,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 73273-2021</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44550.92103009259</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11740,7 +11770,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11777,14 +11807,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 46518-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>45582.62869212963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11797,7 +11827,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11834,14 +11864,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 10811-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45988</v>
+        <v>45369.63376157408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11854,7 +11884,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11891,14 +11921,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 28703-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>44748.82637731481</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11911,7 +11941,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11948,14 +11978,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>45082.480625</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11968,7 +11998,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12005,14 +12035,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12025,7 +12055,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12062,14 +12092,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>45271</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12082,7 +12112,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12119,14 +12149,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 21425-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>45782.50599537037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12139,7 +12169,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12176,14 +12206,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>45939</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12226,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12233,14 +12263,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>45280</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12252,8 +12282,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>8.1</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12290,14 +12325,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 1954-2025</t>
+          <t>A 50515-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45671</v>
+        <v>45945.45089120371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12309,13 +12344,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>8.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12352,14 +12382,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 57298-2024</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45629.59912037037</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12372,7 +12402,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12409,14 +12439,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46038</v>
+        <v>44866</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12428,13 +12458,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12471,14 +12496,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 32719-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45229</v>
+        <v>45514</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12491,7 +12516,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12528,14 +12553,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 35779-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45098</v>
+        <v>45532.60379629629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12548,7 +12573,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12585,14 +12610,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12605,7 +12630,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12642,14 +12667,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>45112</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12662,7 +12687,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12699,14 +12724,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58097-2023</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45248.84173611111</v>
+        <v>45112</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12719,7 +12744,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12756,14 +12781,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45516</v>
+        <v>45239</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12775,13 +12800,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12818,14 +12838,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 28703-2022</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44748.82637731481</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12838,7 +12858,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12875,14 +12895,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46006</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,13 +12914,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12937,14 +12952,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46007</v>
+        <v>45499</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12958,11 +12973,11 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12999,14 +13014,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13019,7 +13034,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13056,14 +13071,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46007</v>
+        <v>45019</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13075,13 +13090,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>7.9</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13118,14 +13128,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>45939</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13138,7 +13148,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13175,14 +13185,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 11916-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>45376</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13194,8 +13204,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13232,14 +13247,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13252,7 +13267,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13289,14 +13304,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45450</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13309,7 +13324,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13346,14 +13361,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>45939</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13366,7 +13381,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13403,14 +13418,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 40251-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45300</v>
+        <v>45554.61689814815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13422,13 +13437,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13465,14 +13475,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45499</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13484,13 +13494,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13527,14 +13532,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13547,7 +13552,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13584,14 +13589,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44866</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13604,7 +13609,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13641,14 +13646,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45350</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13660,13 +13665,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13703,14 +13703,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 47699-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45680</v>
+        <v>45588.46224537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13760,14 +13760,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 8479-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44879</v>
+        <v>44245</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13817,14 +13817,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 40189-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>45554.56659722222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13874,14 +13874,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 41013-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>45169</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13931,14 +13931,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45620</v>
+        <v>45967</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13988,14 +13988,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 37812-2021</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44402</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14045,14 +14045,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44858</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14102,14 +14102,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 40251-2024</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45554.61689814815</v>
+        <v>45229</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14159,14 +14159,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 70345-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>44536</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14216,14 +14216,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14273,14 +14273,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 17391-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44417</v>
+        <v>45414.68023148148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14330,14 +14330,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 28688-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45478.48899305556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14387,14 +14387,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 2440-2025</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45674.41945601852</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14406,8 +14406,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>9.6</v>
+        <v>11.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14444,14 +14449,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 58097-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45065</v>
+        <v>45248.84173611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14464,7 +14469,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14501,14 +14506,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 73273-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>44550.92103009259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14521,7 +14526,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14558,14 +14563,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14578,7 +14583,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14615,14 +14620,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 37812-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>44402</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14635,7 +14640,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14679,7 +14684,7 @@
         <v>45478.44236111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14729,14 +14734,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45370</v>
+        <v>45988</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14749,7 +14754,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14786,14 +14791,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 35154-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45280</v>
+        <v>44797</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,13 +14810,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14848,14 +14848,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14905,14 +14905,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 48447-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>44858.65266203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14962,14 +14962,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 60148-2022</t>
+          <t>A 60382-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44909</v>
+        <v>44496.36440972222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15019,14 +15019,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 57298-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45126</v>
+        <v>45629.59912037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15076,14 +15076,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 21324-2022</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44705.59672453703</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15133,14 +15133,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 30981-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>45113.51041666666</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>8.1</v>
+        <v>0.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15190,14 +15190,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45229</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15247,14 +15247,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45236</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15304,14 +15304,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45309</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15361,14 +15361,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>46038</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15380,8 +15380,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15418,14 +15423,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 40189-2024</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45554.56659722222</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15438,7 +15443,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15475,14 +15480,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15495,7 +15500,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15532,14 +15537,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45205</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15552,7 +15557,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15589,14 +15594,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15609,7 +15614,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15646,14 +15651,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45534</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15665,13 +15670,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15708,14 +15708,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45527</v>
+        <v>44487</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15765,14 +15765,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45328</v>
+        <v>45065</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15822,14 +15822,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 48447-2022</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44858.65266203704</v>
+        <v>46007</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15841,8 +15841,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15879,14 +15884,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>46006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15898,8 +15903,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15936,14 +15946,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45504</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15956,7 +15966,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15993,14 +16003,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16013,7 +16023,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16050,14 +16060,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45551</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16107,14 +16117,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>45050</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16127,7 +16137,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16164,14 +16174,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45112</v>
+        <v>46007</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16183,8 +16193,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>4</v>
+        <v>7.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16221,14 +16236,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45112</v>
+        <v>45229</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16241,7 +16256,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16278,14 +16293,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45659</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16297,13 +16312,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16340,14 +16350,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45671</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16359,13 +16369,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16402,14 +16407,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 32719-2024</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45514</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16422,7 +16427,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16459,14 +16464,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16516,14 +16521,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16536,7 +16541,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16573,14 +16578,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16593,7 +16598,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16630,14 +16635,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16650,7 +16655,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16687,14 +16692,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16707,7 +16712,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16744,14 +16749,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 40278-2024</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45554.65760416666</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16764,7 +16769,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16801,14 +16806,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 22157-2021</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44325</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16821,7 +16826,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16858,14 +16863,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 10800-2024</t>
+          <t>A 60148-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45369.62201388889</v>
+        <v>44909</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16878,7 +16883,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16915,14 +16920,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 23226-2025</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45791.48756944444</v>
+        <v>44901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16935,7 +16940,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16972,14 +16977,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16991,13 +16996,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17034,14 +17034,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 23240-2025</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45791.49888888889</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17091,14 +17091,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45709</v>
+        <v>45671</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17153,14 +17153,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>45044</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17210,14 +17210,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17267,14 +17267,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.8</v>
+        <v>8.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17324,14 +17324,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>44866</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17381,14 +17381,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 23780-2025</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45793.50979166666</v>
+        <v>44876</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17438,14 +17438,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 15691-2024</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45404.45090277777</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17495,14 +17495,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 23670-2025</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45792.94814814815</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17552,14 +17552,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 3571-2025</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45680</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>11.2</v>
+        <v>5.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17609,14 +17609,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45800</v>
+        <v>44858</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17666,14 +17666,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45800</v>
+        <v>45450</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17723,14 +17723,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45019</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17780,14 +17780,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17837,14 +17837,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>45229</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17894,14 +17894,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>44868</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17951,14 +17951,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18008,14 +18008,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>45370</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18065,14 +18065,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18122,14 +18122,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45450</v>
+        <v>44575</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18179,14 +18179,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45236</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18236,14 +18236,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18293,14 +18293,14 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45278</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45637</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,14 +1217,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 27406-2025</t>
+          <t>A 58632-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45812</v>
+        <v>45635.57728009259</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,16 +1236,11 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1276,45 +1271,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 38064-2023</t>
+          <t>A 12413-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45159</v>
+        <v>44999.52065972222</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,13 +1321,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1366,119 +1356,124 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 38064-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 58632-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45635.57728009259</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1489,7 +1484,7 @@
         <v>45601.58664351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,14 +1562,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55118-2025</t>
+          <t>A 27406-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45967</v>
+        <v>45812</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1586,17 +1581,22 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1621,119 +1621,119 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 55118-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Luddfingersvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 12413-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44999.52065972222</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Bronshjon</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,14 +1908,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45855-2021</t>
+          <t>A 58883-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44441</v>
+        <v>44489.65511574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58883-2021</t>
+          <t>A 45855-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44489.65511574074</v>
+        <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33123-2021</t>
+          <t>A 64999-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44376</v>
+        <v>44514</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64999-2021</t>
+          <t>A 70363-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44514</v>
+        <v>44535</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 70363-2021</t>
+          <t>A 33123-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44535</v>
+        <v>44376</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2654,14 +2654,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 39842-2021</t>
+          <t>A 61207-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44417.63443287037</v>
+        <v>44498</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2711,14 +2711,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6190-2022</t>
+          <t>A 63214-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44600</v>
+        <v>44505</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2768,14 +2768,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 37804-2021</t>
+          <t>A 39842-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44402</v>
+        <v>44417.63443287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2825,14 +2825,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 37813-2021</t>
+          <t>A 6190-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44402</v>
+        <v>44600</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2882,14 +2882,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 37814-2021</t>
+          <t>A 69666-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44402</v>
+        <v>44532</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2939,14 +2939,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 37787-2021</t>
+          <t>A 37804-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2996,14 +2996,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 21052-2021</t>
+          <t>A 37813-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44319</v>
+        <v>44402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3053,14 +3053,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 68194-2021</t>
+          <t>A 37814-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44526.51045138889</v>
+        <v>44402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3110,14 +3110,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44061-2022</t>
+          <t>A 55581-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44839.31863425926</v>
+        <v>44475.84278935185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3167,14 +3167,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 32520-2021</t>
+          <t>A 37787-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44374.78251157407</v>
+        <v>44401</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3224,14 +3224,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7627-2021</t>
+          <t>A 59809-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44242</v>
+        <v>44494.53561342593</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3281,14 +3281,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38566-2021</t>
+          <t>A 22156-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44407.70712962963</v>
+        <v>44325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3338,14 +3338,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 69666-2021</t>
+          <t>A 38565-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44532</v>
+        <v>44407.70063657407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,14 +3395,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 55581-2021</t>
+          <t>A 21052-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44475.84278935185</v>
+        <v>44319</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3452,14 +3452,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61207-2021</t>
+          <t>A 48433-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44498</v>
+        <v>44858.64818287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3509,14 +3509,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 63214-2021</t>
+          <t>A 44061-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44505</v>
+        <v>44839.31863425926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3566,14 +3566,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59809-2021</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44494.53561342593</v>
+        <v>45504</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3623,14 +3623,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22156-2021</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44325</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3680,14 +3680,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38565-2021</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44407.70063657407</v>
+        <v>44866</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3737,14 +3737,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 48433-2022</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44858.64818287037</v>
+        <v>44476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3794,14 +3794,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 68194-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45895.386875</v>
+        <v>44526.51045138889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3851,14 +3851,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45113</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3908,14 +3908,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45894</v>
+        <v>44876</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3965,14 +3965,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45893</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4022,14 +4022,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45527</v>
+        <v>45716</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4041,8 +4041,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4079,14 +4084,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 21324-2022</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44705.59672453703</v>
+        <v>45050</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4099,7 +4104,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4136,14 +4141,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45534</v>
+        <v>44603</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4155,13 +4160,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>11.2</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4198,14 +4198,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45504</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4255,14 +4255,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45516</v>
+        <v>44749</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,13 +4274,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4317,14 +4312,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4337,7 +4332,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4374,14 +4369,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4394,7 +4389,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4431,14 +4426,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 32520-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>44374.78251157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4451,7 +4446,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4488,14 +4483,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 49090-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44974</v>
+        <v>45204</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4507,8 +4502,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4545,14 +4545,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51067-2022</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44868.36377314815</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4602,14 +4602,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 33221-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44819</v>
+        <v>45518.55730324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4659,14 +4659,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>44487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4716,14 +4716,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45620</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>8.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4773,14 +4773,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>44498</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 7627-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>44242</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4887,14 +4887,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4944,14 +4944,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>44901</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5001,14 +5001,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 21106-2025</t>
+          <t>A 17391-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45777.67112268518</v>
+        <v>45414.68023148148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5058,14 +5058,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5115,14 +5115,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 51067-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45045</v>
+        <v>44868.36377314815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>11.3</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5172,14 +5172,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5229,14 +5229,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 38566-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>44407.70712962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5286,14 +5286,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45884</v>
+        <v>45329</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5348,14 +5348,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5405,14 +5405,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45889</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,13 +5424,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5467,14 +5462,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44977</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5482,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5524,14 +5519,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 70345-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5539,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5581,14 +5576,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45098</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5601,7 +5596,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5638,14 +5633,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5653,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5695,14 +5690,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 35154-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>44797</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5710,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5752,14 +5747,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 8479-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44995</v>
+        <v>44245</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5767,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>9.4</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5809,14 +5804,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45902</v>
+        <v>44974</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5828,13 +5823,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5871,14 +5861,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49090-2023</t>
+          <t>A 11916-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45204</v>
+        <v>45376</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5896,7 +5886,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5933,14 +5923,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57720-2023</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45246</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5953,7 +5943,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5990,14 +5980,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45680</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6010,7 +6000,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6047,14 +6037,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45198</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6057,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6104,14 +6094,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6114,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6161,14 +6151,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 40251-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>45554.61689814815</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6171,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6218,14 +6208,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6237,13 +6227,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6280,14 +6265,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45504</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6300,7 +6285,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6337,14 +6322,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 33221-2024</t>
+          <t>A 46518-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45518.55730324074</v>
+        <v>45582.62869212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6342,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6394,14 +6379,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>45044</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6399,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6451,14 +6436,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6456,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6508,14 +6493,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6513,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6565,14 +6550,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 47699-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>45588.46224537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6570,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6622,14 +6607,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40278-2024</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45554.65760416666</v>
+        <v>45450</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6627,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6679,14 +6664,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6684,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6736,14 +6721,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6741,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6793,14 +6778,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45328</v>
+        <v>45229</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,7 +6798,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6850,14 +6835,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45247</v>
+        <v>45567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6855,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6907,14 +6892,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44418</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,13 +6911,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6969,14 +6949,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10800-2024</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45369.62201388889</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6969,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7026,14 +7006,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 22157-2021</t>
+          <t>A 17373-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44325</v>
+        <v>45756.86658564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7026,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7083,14 +7063,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45350</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7102,13 +7082,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7145,14 +7120,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45309</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7165,7 +7140,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7202,14 +7177,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>44977</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7222,7 +7197,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7259,14 +7234,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7279,7 +7254,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>9.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7316,14 +7291,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 12322-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45126</v>
+        <v>44999</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7336,7 +7311,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7373,14 +7348,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23226-2025</t>
+          <t>A 28786-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45791.48756944444</v>
+        <v>45820.46232638889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7393,7 +7368,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7430,14 +7405,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 23240-2025</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45791.49888888889</v>
+        <v>45819</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7450,7 +7425,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7487,14 +7462,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>44270</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7507,7 +7482,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7544,14 +7519,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7564,7 +7539,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7601,14 +7576,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 60382-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>44496.36440972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7621,7 +7596,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7658,14 +7633,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45824</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7678,7 +7653,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7715,14 +7690,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7734,13 +7709,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7777,14 +7747,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45709</v>
+        <v>45029</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7802,7 +7772,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7839,14 +7809,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44498</v>
+        <v>45826</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7859,7 +7829,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7896,14 +7866,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 73273-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>44550.92103009259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7916,7 +7886,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7953,14 +7923,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45567</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7973,7 +7943,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>8.699999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8010,14 +7980,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 23780-2025</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45793.50979166666</v>
+        <v>45826</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8030,7 +8000,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8067,14 +8037,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42026-2025</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45903</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8087,7 +8057,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8124,14 +8094,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 43833-2025</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45912.63038194444</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8144,7 +8114,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8181,14 +8151,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8201,7 +8171,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.4</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8238,14 +8208,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45659</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,13 +8227,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8300,14 +8265,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28813-2025</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45820</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8320,7 +8285,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8357,14 +8322,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8377,7 +8342,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8414,14 +8379,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 10811-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45716</v>
+        <v>45369.63376157408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8433,13 +8398,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8476,14 +8436,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45551</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8496,7 +8456,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8533,14 +8493,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8553,7 +8513,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8590,14 +8550,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45300</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8609,13 +8569,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8652,14 +8607,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 15691-2024</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45404.45090277777</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8672,7 +8627,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8709,14 +8664,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 3571-2025</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45680</v>
+        <v>45019</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8729,7 +8684,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>11.2</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8766,14 +8721,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8786,7 +8741,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8823,14 +8778,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 23670-2025</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45792.94814814815</v>
+        <v>45019</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8843,7 +8798,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8880,14 +8835,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8900,7 +8855,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8937,14 +8892,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12322-2023</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44999</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8912,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8994,14 +8949,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>44417</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +8969,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9051,14 +9006,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45800</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9026,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9108,14 +9063,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 1954-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>45671</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9127,8 +9082,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9165,14 +9125,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45329</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9184,13 +9144,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9227,14 +9182,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45800</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9247,7 +9202,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9284,14 +9239,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9304,7 +9259,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9341,14 +9296,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 57298-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>45629.59912037037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9361,7 +9316,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9398,14 +9353,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45029</v>
+        <v>45229</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9417,13 +9372,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9460,14 +9410,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 2440-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>45674.41945601852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9430,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>9.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9517,14 +9467,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>45065</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9487,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9574,14 +9524,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9544,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9631,14 +9581,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9601,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9688,14 +9638,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9658,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9745,14 +9695,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9715,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9802,14 +9752,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9772,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9859,14 +9809,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 58097-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>45248.84173611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9829,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9916,14 +9866,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44270</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9886,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9973,14 +9923,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9993,7 +9943,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10030,14 +9980,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10050,7 +10000,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10087,14 +10037,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 17373-2025</t>
+          <t>A 28622-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45756.86658564815</v>
+        <v>45478.44236111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10107,7 +10057,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10144,14 +10094,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45450</v>
+        <v>45370</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10164,7 +10114,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10201,14 +10151,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45925</v>
+        <v>45280</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10176,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>9.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10263,14 +10213,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 1954-2025</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45671</v>
+        <v>45082.480625</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10282,13 +10232,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>8.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10325,14 +10270,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44603</v>
+        <v>45516</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10344,8 +10289,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10382,14 +10332,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 28703-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45819</v>
+        <v>44748.82637731481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10352,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10439,14 +10389,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 21425-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>45782.50599537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10409,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10496,14 +10446,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 28786-2025</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45820.46232638889</v>
+        <v>45271</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10466,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10553,14 +10503,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10523,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10610,14 +10560,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45205</v>
+        <v>44418</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10629,8 +10579,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10667,14 +10622,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45198</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10642,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10724,14 +10679,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45824</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10699,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10781,14 +10736,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 28688-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44417</v>
+        <v>45478.48899305556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10756,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10838,14 +10793,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45826</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10813,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10895,14 +10850,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10870,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10952,14 +10907,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10927,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11009,14 +10964,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45826</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +10984,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11066,14 +11021,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45932</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11041,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11123,14 +11078,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 2440-2025</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45674.41945601852</v>
+        <v>44819</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11098,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>9.6</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11180,14 +11135,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>44868</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11200,7 +11155,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.5</v>
+        <v>0.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11237,14 +11192,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45932</v>
+        <v>45239</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11257,7 +11212,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11294,14 +11249,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>45247</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11314,7 +11269,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11351,14 +11306,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44476</v>
+        <v>45450</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11371,7 +11326,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11408,14 +11363,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 57720-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45246</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11428,7 +11383,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11465,14 +11420,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45932</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11485,7 +11440,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11522,14 +11477,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45932</v>
+        <v>45300</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11541,8 +11496,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11579,14 +11539,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 41013-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44749</v>
+        <v>45169</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11599,7 +11559,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11636,14 +11596,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11656,7 +11616,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11693,14 +11653,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 30981-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>45113.51041666666</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11713,7 +11673,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11750,14 +11710,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>45499</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11769,8 +11729,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11807,14 +11772,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46518-2024</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45582.62869212963</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11827,7 +11792,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11864,14 +11829,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 10811-2024</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45369.63376157408</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11884,7 +11849,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11921,14 +11886,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 28703-2022</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44748.82637731481</v>
+        <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11941,7 +11906,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11978,14 +11943,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45082.480625</v>
+        <v>45350</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11997,8 +11962,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12035,14 +12005,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>45680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12055,7 +12025,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12092,14 +12062,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45271</v>
+        <v>44879</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12112,7 +12082,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12149,14 +12119,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 21425-2025</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45782.50599537037</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12169,7 +12139,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12206,14 +12176,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45939</v>
+        <v>44531</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12226,7 +12196,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12263,14 +12233,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45280</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12282,13 +12252,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12325,14 +12290,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50515-2025</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45945.45089120371</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12345,7 +12310,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12382,14 +12347,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>45620</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12402,7 +12367,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12439,14 +12404,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44866</v>
+        <v>45045</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12459,7 +12424,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>11.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12496,14 +12461,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 32719-2024</t>
+          <t>A 60148-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45514</v>
+        <v>44909</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12516,7 +12481,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12553,14 +12518,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>45126</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12573,7 +12538,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12610,14 +12575,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>45113</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12630,7 +12595,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12667,14 +12632,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 37812-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45112</v>
+        <v>44402</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12687,7 +12652,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12724,14 +12689,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 21324-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45112</v>
+        <v>44705.59672453703</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12744,7 +12709,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12781,14 +12746,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45239</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12801,7 +12766,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12838,14 +12803,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 21106-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>45777.67112268518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12858,7 +12823,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12895,14 +12860,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12915,7 +12880,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12952,14 +12917,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45499</v>
+        <v>44858</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12971,13 +12936,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13014,14 +12974,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13034,7 +12994,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13071,14 +13031,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45019</v>
+        <v>45889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13090,8 +13050,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13128,14 +13093,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45939</v>
+        <v>45884</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13147,8 +13112,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13185,14 +13155,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 11916-2024</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45376</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13204,13 +13174,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>5.3</v>
+        <v>8.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13247,14 +13212,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>45894</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13267,7 +13232,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13304,14 +13269,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45229</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13324,7 +13289,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13361,14 +13326,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45939</v>
+        <v>45236</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13381,7 +13346,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13418,14 +13383,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 40251-2024</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45554.61689814815</v>
+        <v>45893</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13438,7 +13403,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13475,14 +13440,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>45309</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13495,7 +13460,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>8.1</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13532,14 +13497,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>45895.386875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13552,7 +13517,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13589,14 +13554,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13609,7 +13574,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13646,14 +13611,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 40189-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>45554.56659722222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13666,7 +13631,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13703,14 +13668,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 47699-2024</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45588.46224537037</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13723,7 +13688,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13760,14 +13725,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 8479-2021</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44245</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13780,7 +13745,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13817,14 +13782,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 40189-2024</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45554.56659722222</v>
+        <v>45205</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13837,7 +13802,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13874,14 +13839,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 41013-2023</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45169</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13894,7 +13859,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13931,14 +13896,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45967</v>
+        <v>45534</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13950,8 +13915,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>11.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13988,14 +13958,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>45902</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14007,8 +13977,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14045,14 +14020,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>45527</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14065,7 +14040,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14102,14 +14077,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45229</v>
+        <v>45328</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14122,7 +14097,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14159,14 +14134,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 70345-2021</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44536</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14178,8 +14153,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14216,14 +14196,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 48447-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>44858.65266203704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14236,7 +14216,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14273,14 +14253,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 17391-2024</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45414.68023148148</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14293,7 +14273,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14330,14 +14310,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 28688-2024</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45478.48899305556</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14350,7 +14330,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14387,14 +14367,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 31337-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>45504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14406,13 +14386,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>11.2</v>
+        <v>6.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14449,14 +14424,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 58097-2023</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45248.84173611111</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14469,7 +14444,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14506,14 +14481,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 73273-2021</t>
+          <t>A 42026-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44550.92103009259</v>
+        <v>45903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14526,7 +14501,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.7</v>
+        <v>7.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14563,14 +14538,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 35779-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45532.60379629629</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14583,7 +14558,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14620,14 +14595,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 37812-2021</t>
+          <t>A 43833-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44402</v>
+        <v>45912.63038194444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14640,7 +14615,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14677,14 +14652,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 28622-2024</t>
+          <t>A 39534-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45478.44236111111</v>
+        <v>45551</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14697,7 +14672,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14734,14 +14709,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45988</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14754,7 +14729,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14791,14 +14766,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 35154-2022</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44797</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14811,7 +14786,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14848,14 +14823,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 28813-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>45820</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14868,7 +14843,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14905,14 +14880,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 48447-2022</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44858.65266203704</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14925,7 +14900,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14962,14 +14937,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 60382-2021</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44496.36440972222</v>
+        <v>45112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14982,7 +14957,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15019,14 +14994,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 57298-2024</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45629.59912037037</v>
+        <v>45112</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15039,7 +15014,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15076,14 +15051,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>45659</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15095,8 +15070,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15133,14 +15113,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 30981-2023</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45113.51041666666</v>
+        <v>45671</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15152,8 +15132,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15190,14 +15175,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15210,7 +15195,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15247,14 +15232,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 32719-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>45514</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15267,7 +15252,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15304,14 +15289,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15324,7 +15309,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15361,14 +15346,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46038</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15380,13 +15365,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15423,14 +15403,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15480,14 +15460,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15500,7 +15480,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15537,14 +15517,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 21137-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>45778.63582175926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15557,7 +15537,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15594,14 +15574,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>45925</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15613,8 +15593,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15651,14 +15636,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 40278-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>45554.65760416666</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15671,7 +15656,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15708,14 +15693,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44487</v>
+        <v>45932</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15728,7 +15713,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15765,14 +15750,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45065</v>
+        <v>45932</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15785,7 +15770,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15822,14 +15807,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46007</v>
+        <v>45932</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15841,13 +15826,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15884,14 +15864,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>46006</v>
+        <v>45932</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15903,13 +15883,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15946,14 +15921,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>44325</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15966,7 +15941,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16003,14 +15978,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16023,7 +15998,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16060,14 +16035,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16080,7 +16055,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16117,14 +16092,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45050</v>
+        <v>45939</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16137,7 +16112,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16174,14 +16149,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 23226-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46007</v>
+        <v>45791.48756944444</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16193,13 +16168,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>7.9</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16236,14 +16206,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45229</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,8 +16225,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16293,14 +16268,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 23240-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>45791.49888888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16313,7 +16288,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16350,14 +16325,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>45709</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,8 +16344,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16407,14 +16387,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16427,7 +16407,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16464,14 +16444,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16484,7 +16464,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16521,14 +16501,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16541,7 +16521,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16578,14 +16558,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 50515-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>45945.45089120371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16598,7 +16578,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16635,14 +16615,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16655,7 +16635,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16692,14 +16672,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16712,7 +16692,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16749,14 +16729,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 23780-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>45793.50979166666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16769,7 +16749,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16806,14 +16786,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>45939</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16826,7 +16806,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16863,14 +16843,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 60148-2022</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44909</v>
+        <v>45939</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16883,7 +16863,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16920,14 +16900,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 15691-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44901</v>
+        <v>45404.45090277777</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16940,7 +16920,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16977,14 +16957,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44879</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16997,7 +16977,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17034,14 +17014,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 23670-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>45792.94814814815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17054,7 +17034,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17091,14 +17071,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 3571-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45671</v>
+        <v>45680</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,13 +17090,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>3.3</v>
+        <v>11.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17153,14 +17128,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45044</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17173,7 +17148,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17210,14 +17185,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45800</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17230,7 +17205,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17267,14 +17242,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>45800</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17287,7 +17262,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>8.1</v>
+        <v>3.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17324,14 +17299,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44866</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17344,7 +17319,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17381,14 +17356,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44876</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17401,7 +17376,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17438,14 +17413,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>45967</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17458,7 +17433,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17495,14 +17470,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17515,7 +17490,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17552,14 +17527,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17572,7 +17547,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17609,14 +17584,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44858</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17628,8 +17603,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G291" t="n">
-        <v>1.8</v>
+        <v>11.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17666,14 +17646,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45450</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17686,7 +17666,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17723,14 +17703,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45019</v>
+        <v>45988</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17743,7 +17723,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17780,14 +17760,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17800,7 +17780,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17837,14 +17817,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45229</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17857,7 +17837,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17894,14 +17874,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44868</v>
+        <v>46038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17913,8 +17893,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G296" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17951,14 +17936,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17971,7 +17956,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18008,14 +17993,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45370</v>
+        <v>46006</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18027,8 +18012,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18065,14 +18055,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>46007</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18084,8 +18074,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G299" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18122,14 +18117,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44575</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18142,7 +18137,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18179,14 +18174,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45236</v>
+        <v>46007</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18198,8 +18193,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G301" t="n">
-        <v>3.4</v>
+        <v>7.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18236,14 +18236,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18293,14 +18293,14 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45278</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,14 +1127,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 59493-2024</t>
+          <t>A 38064-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45637</v>
+        <v>45159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1186,554 +1186,554 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 27406-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 58632-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45635.57728009259</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 50546-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45601.58664351852</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Platt fjädermossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 55118-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Luddfingersvamp</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 12413-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44999.52065972222</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 59493-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Skrovellav</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 58632-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45635.57728009259</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 12413-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44999.52065972222</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Bronshjon</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 38064-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45159</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Vedticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 50546-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45601.58664351852</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Platt fjädermossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 27406-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45812</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 55118-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Luddfingersvamp</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,14 +1908,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58883-2021</t>
+          <t>A 45855-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44489.65511574074</v>
+        <v>44441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 45855-2021</t>
+          <t>A 58883-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44441</v>
+        <v>44489.65511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2084,14 +2084,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 909-2022</t>
+          <t>A 33123-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44571</v>
+        <v>44376</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64999-2021</t>
+          <t>A 909-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44514</v>
+        <v>44571</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 70363-2021</t>
+          <t>A 64999-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44535</v>
+        <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33123-2021</t>
+          <t>A 70363-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44376</v>
+        <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2654,14 +2654,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 61207-2021</t>
+          <t>A 39842-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44498</v>
+        <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2711,14 +2711,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63214-2021</t>
+          <t>A 6190-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44505</v>
+        <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2768,14 +2768,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 39842-2021</t>
+          <t>A 37804-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44417.63443287037</v>
+        <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2825,14 +2825,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 6190-2022</t>
+          <t>A 37813-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44600</v>
+        <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2882,14 +2882,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 69666-2021</t>
+          <t>A 37814-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44532</v>
+        <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2939,14 +2939,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 37804-2021</t>
+          <t>A 37787-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2996,14 +2996,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 37813-2021</t>
+          <t>A 21052-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44402</v>
+        <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3053,14 +3053,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 37814-2021</t>
+          <t>A 44061-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44402</v>
+        <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3110,14 +3110,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 55581-2021</t>
+          <t>A 68194-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44475.84278935185</v>
+        <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3167,14 +3167,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 37787-2021</t>
+          <t>A 32520-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44401</v>
+        <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3224,14 +3224,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 59809-2021</t>
+          <t>A 7627-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44494.53561342593</v>
+        <v>44242</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3281,14 +3281,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22156-2021</t>
+          <t>A 38566-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44325</v>
+        <v>44407.70712962963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3338,14 +3338,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38565-2021</t>
+          <t>A 69666-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44407.70063657407</v>
+        <v>44532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,14 +3395,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 21052-2021</t>
+          <t>A 55581-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44319</v>
+        <v>44475.84278935185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3452,14 +3452,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48433-2022</t>
+          <t>A 61207-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44858.64818287037</v>
+        <v>44498</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3509,14 +3509,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 44061-2022</t>
+          <t>A 63214-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44839.31863425926</v>
+        <v>44505</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3566,14 +3566,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 59809-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45504</v>
+        <v>44494.53561342593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3623,14 +3623,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 22156-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>44325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3680,14 +3680,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 38565-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44866</v>
+        <v>44407.70063657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3737,14 +3737,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 48433-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44476</v>
+        <v>44858.64818287037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3794,14 +3794,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 68194-2021</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44526.51045138889</v>
+        <v>45534</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3813,8 +3813,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>11.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3851,14 +3856,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 21324-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>44705.59672453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3871,7 +3876,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3908,14 +3913,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44876</v>
+        <v>45504</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3928,7 +3933,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3965,14 +3970,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3985,7 +3990,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4022,14 +4027,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45716</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4041,13 +4046,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4084,14 +4084,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 51067-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45050</v>
+        <v>44868.36377314815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4141,14 +4141,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44603</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4198,14 +4198,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>44974</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4255,14 +4255,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44749</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4312,14 +4312,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44575</v>
+        <v>44977</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4369,14 +4369,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4426,14 +4426,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 32520-2021</t>
+          <t>A 49090-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44374.78251157407</v>
+        <v>45204</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,8 +4445,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4483,14 +4488,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49090-2023</t>
+          <t>A 57720-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45204</v>
+        <v>45246</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,13 +4507,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4545,14 +4545,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 31337-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>45504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>45518.55730324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4659,14 +4659,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44487</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4716,14 +4716,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4773,14 +4773,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44498</v>
+        <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7627-2021</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44242</v>
+        <v>45247</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4887,14 +4887,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4944,14 +4944,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44901</v>
+        <v>44418</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,8 +4963,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5001,14 +5006,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17391-2024</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45414.68023148148</v>
+        <v>45350</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,8 +5025,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5058,14 +5068,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>45309</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5078,7 +5088,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5115,14 +5125,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51067-2022</t>
+          <t>A 15691-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44868.36377314815</v>
+        <v>45404.45090277777</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5135,7 +5145,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5172,14 +5182,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 3571-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>45680</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5192,7 +5202,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>11.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5229,14 +5239,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38566-2021</t>
+          <t>A 23670-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44407.70712962963</v>
+        <v>45792.94814814815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5249,7 +5259,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5286,14 +5296,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45329</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5305,13 +5315,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5348,14 +5353,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45126</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5368,7 +5373,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5405,14 +5410,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>45800</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5425,7 +5430,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5462,14 +5467,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>44498</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5482,7 +5487,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5519,14 +5524,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 70345-2021</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44536</v>
+        <v>45567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5539,7 +5544,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5576,14 +5581,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>45800</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5596,7 +5601,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5633,14 +5638,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5653,7 +5658,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5690,14 +5695,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 35154-2022</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44797</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5710,7 +5715,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5747,14 +5752,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8479-2021</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44245</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5767,7 +5772,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5804,14 +5809,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44974</v>
+        <v>45659</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,8 +5828,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5861,14 +5871,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11916-2024</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45376</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,13 +5890,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5923,14 +5928,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 21106-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>45777.67112268518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5948,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5980,14 +5985,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6005,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6037,14 +6042,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>45716</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,8 +6061,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6094,14 +6104,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6151,14 +6161,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40251-2024</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45554.61689814815</v>
+        <v>45045</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6181,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>11.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6208,14 +6218,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6228,7 +6238,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6265,14 +6275,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6322,14 +6332,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46518-2024</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45582.62869212963</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6342,7 +6352,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6379,14 +6389,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 39534-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45044</v>
+        <v>45551</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6399,7 +6409,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6436,14 +6446,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6456,7 +6466,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6493,14 +6503,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6513,7 +6523,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6550,14 +6560,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47699-2024</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45588.46224537037</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6570,7 +6580,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6607,14 +6617,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45450</v>
+        <v>45300</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6626,8 +6636,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6664,14 +6679,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6684,7 +6699,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6721,14 +6736,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6741,7 +6756,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6778,14 +6793,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45229</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6798,7 +6813,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6835,14 +6850,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45567</v>
+        <v>45450</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6855,7 +6870,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6892,14 +6907,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 12322-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>44999</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6912,7 +6927,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6949,14 +6964,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6969,7 +6984,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7006,14 +7021,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 17373-2025</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45756.86658564815</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7026,7 +7041,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7063,14 +7078,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>45329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7082,8 +7097,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7120,14 +7140,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>45884</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7139,8 +7159,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>4.4</v>
+        <v>7.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7177,14 +7202,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44977</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7197,7 +7222,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7234,14 +7259,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44995</v>
+        <v>45889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7253,8 +7278,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>9.4</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7291,14 +7321,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12322-2023</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44999</v>
+        <v>45819</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7311,7 +7341,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7355,7 +7385,7 @@
         <v>45820.46232638889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7405,14 +7435,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45819</v>
+        <v>45029</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7424,8 +7454,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7462,14 +7497,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44270</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7482,7 +7517,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7519,14 +7554,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7539,7 +7574,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7576,14 +7611,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60382-2021</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44496.36440972222</v>
+        <v>45824</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7633,14 +7668,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7653,7 +7688,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7690,14 +7725,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>44270</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7710,7 +7745,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7747,14 +7782,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45029</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7766,13 +7801,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>3.5</v>
+        <v>8.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7809,14 +7839,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45826</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7829,7 +7859,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7866,14 +7896,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 73273-2021</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44550.92103009259</v>
+        <v>45826</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7886,7 +7916,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7923,14 +7953,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 17373-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>45756.86658564815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7943,7 +7973,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7980,14 +8010,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45826</v>
+        <v>45895.386875</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8000,7 +8030,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8037,14 +8067,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>45894</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8057,7 +8087,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8094,14 +8124,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 1954-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>45671</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8113,8 +8143,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8151,14 +8186,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>44603</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8171,7 +8206,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8208,14 +8243,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>45893</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8228,7 +8263,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8265,14 +8300,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8285,7 +8320,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8322,14 +8357,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,7 +8377,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8379,14 +8414,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10811-2024</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45369.63376157408</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,7 +8434,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8436,14 +8471,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>45205</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8456,7 +8491,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8493,14 +8528,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8513,7 +8548,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8550,14 +8585,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8570,7 +8605,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8607,14 +8642,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8627,7 +8662,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8664,14 +8699,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45019</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8684,7 +8719,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8721,14 +8756,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>44417</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8741,7 +8776,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8778,14 +8813,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45019</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8798,7 +8833,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8835,14 +8870,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>45082.480625</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8890,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8892,14 +8927,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>45902</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8911,8 +8946,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>8.1</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8949,14 +8989,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 2440-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44417</v>
+        <v>45674.41945601852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +9009,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>9.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9006,14 +9046,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9066,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9063,14 +9103,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1954-2025</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45671</v>
+        <v>44476</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9082,13 +9122,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>8.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9125,14 +9160,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>45271</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9145,7 +9180,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9182,14 +9217,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>44749</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9202,7 +9237,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9239,14 +9274,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 21425-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45782.50599537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9259,7 +9294,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9296,14 +9331,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 57298-2024</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45629.59912037037</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9315,8 +9350,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9353,14 +9393,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45229</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9373,7 +9413,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9410,14 +9450,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2440-2025</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45674.41945601852</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9430,7 +9470,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9467,14 +9507,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 46518-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45065</v>
+        <v>45582.62869212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9487,7 +9527,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9524,14 +9564,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 10811-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>45369.63376157408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9544,7 +9584,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9581,14 +9621,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 28703-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>44748.82637731481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9601,7 +9641,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9638,14 +9678,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45098</v>
+        <v>45239</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9658,7 +9698,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9695,14 +9735,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9715,7 +9755,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9752,14 +9792,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9772,7 +9812,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9809,14 +9849,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58097-2023</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45248.84173611111</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9829,7 +9869,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9866,14 +9906,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 42026-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>45903</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9886,7 +9926,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9923,14 +9963,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 43833-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>45912.63038194444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9943,7 +9983,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9980,14 +10020,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>45280</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9999,8 +10039,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10037,14 +10082,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 28622-2024</t>
+          <t>A 28813-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45478.44236111111</v>
+        <v>45820</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10057,7 +10102,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10094,14 +10139,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45370</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10114,7 +10159,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10151,14 +10196,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45280</v>
+        <v>44866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10170,13 +10215,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10213,14 +10253,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45082.480625</v>
+        <v>45113</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10233,7 +10273,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10270,14 +10310,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45516</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10289,13 +10329,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10332,14 +10367,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 28703-2022</t>
+          <t>A 32719-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44748.82637731481</v>
+        <v>45514</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10352,7 +10387,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10389,14 +10424,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 21425-2025</t>
+          <t>A 35779-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45782.50599537037</v>
+        <v>45532.60379629629</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10409,7 +10444,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10446,14 +10481,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45271</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10466,7 +10501,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10503,14 +10538,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>45112</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,7 +10558,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10560,14 +10595,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44418</v>
+        <v>45112</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10577,11 +10612,6 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -10622,14 +10652,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45198</v>
+        <v>45925</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10641,8 +10671,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10679,14 +10714,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10699,7 +10734,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10736,14 +10771,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 28688-2024</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45478.48899305556</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10756,7 +10791,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10793,14 +10828,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>45499</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10812,8 +10847,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10850,14 +10890,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10870,7 +10910,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10907,14 +10947,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>45019</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10927,7 +10967,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10964,14 +11004,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 11916-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>45376</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10983,8 +11023,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11021,14 +11066,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>45932</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11041,7 +11086,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11078,14 +11123,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44819</v>
+        <v>45932</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11098,7 +11143,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11135,14 +11180,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44868</v>
+        <v>45932</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11155,7 +11200,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11192,14 +11237,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45239</v>
+        <v>45932</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11212,7 +11257,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11249,14 +11294,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 40251-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45247</v>
+        <v>45554.61689814815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11269,7 +11314,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11306,14 +11351,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45450</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11326,7 +11371,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11363,14 +11408,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 57720-2023</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45246</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11383,7 +11428,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.6</v>
+        <v>8.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11420,14 +11465,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,7 +11485,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11477,14 +11522,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45300</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11496,13 +11541,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11539,14 +11579,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 41013-2023</t>
+          <t>A 47699-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45169</v>
+        <v>45588.46224537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11559,7 +11599,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11596,14 +11636,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 8479-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>44245</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11616,7 +11656,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11653,14 +11693,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 30981-2023</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45113.51041666666</v>
+        <v>45939</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11673,7 +11713,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11710,14 +11750,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 50515-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45499</v>
+        <v>45945.45089120371</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11729,13 +11769,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11772,14 +11807,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 40189-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>45554.56659722222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11792,7 +11827,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11829,14 +11864,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 41013-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>45169</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11849,7 +11884,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11886,14 +11921,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44866</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11906,7 +11941,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11943,14 +11978,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45350</v>
+        <v>45229</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11962,13 +11997,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12005,14 +12035,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 70345-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45680</v>
+        <v>44536</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12025,7 +12055,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12062,14 +12092,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44879</v>
+        <v>45939</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12082,7 +12112,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12119,14 +12149,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 17391-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>45414.68023148148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12139,7 +12169,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12176,14 +12206,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44531</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12196,7 +12226,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12233,14 +12263,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12253,7 +12283,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12290,14 +12320,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>45939</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12310,7 +12340,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12347,14 +12377,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 28688-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45620</v>
+        <v>45478.48899305556</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12367,7 +12397,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12404,14 +12434,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 58097-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45045</v>
+        <v>45248.84173611111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12424,7 +12454,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>11.3</v>
+        <v>0.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12461,14 +12491,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 60148-2022</t>
+          <t>A 73273-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44909</v>
+        <v>44550.92103009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12481,7 +12511,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12518,14 +12548,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 37812-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45126</v>
+        <v>44402</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12538,7 +12568,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12575,14 +12605,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 28622-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45113</v>
+        <v>45478.44236111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12595,7 +12625,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12632,14 +12662,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 37812-2021</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44402</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12652,7 +12682,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12689,14 +12719,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 21324-2022</t>
+          <t>A 35154-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44705.59672453703</v>
+        <v>44797</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12709,7 +12739,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12746,14 +12776,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 48447-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>44858.65266203704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12766,7 +12796,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>8.300000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12803,14 +12833,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21106-2025</t>
+          <t>A 60382-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45777.67112268518</v>
+        <v>44496.36440972222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12823,7 +12853,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12860,14 +12890,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 57298-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>45629.59912037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12917,14 +12947,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 30981-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44858</v>
+        <v>45113.51041666666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12937,7 +12967,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12974,14 +13004,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>45967</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12994,7 +13024,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13031,14 +13061,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45889</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13050,13 +13080,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13093,14 +13118,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45884</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13112,13 +13137,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13155,14 +13175,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13175,7 +13195,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13212,14 +13232,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45894</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13232,7 +13252,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13269,14 +13289,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45229</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13289,7 +13309,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13326,14 +13346,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45236</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13346,7 +13366,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13383,14 +13403,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45893</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13403,7 +13423,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13440,14 +13460,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45309</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13460,7 +13480,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13497,14 +13517,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45895.386875</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13517,7 +13537,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13554,14 +13574,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>44487</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13574,7 +13594,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13611,14 +13631,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 40189-2024</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45554.56659722222</v>
+        <v>45065</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13631,7 +13651,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13668,14 +13688,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,8 +13707,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1.4</v>
+        <v>11.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13725,14 +13750,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13745,7 +13770,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13782,14 +13807,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45205</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13802,7 +13827,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13839,14 +13864,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13859,7 +13884,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13896,14 +13921,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45534</v>
+        <v>45050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13915,13 +13940,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13958,14 +13978,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45902</v>
+        <v>45229</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,13 +13997,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14020,14 +14035,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45527</v>
+        <v>45988</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14040,7 +14055,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14077,14 +14092,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45328</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14134,14 +14149,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,13 +14168,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14196,14 +14206,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 48447-2022</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44858.65266203704</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14226,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14253,14 +14263,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14283,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14310,14 +14320,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14340,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14367,14 +14377,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45504</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14397,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14424,14 +14434,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14454,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14481,14 +14491,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 42026-2025</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45903</v>
+        <v>46038</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14500,8 +14510,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14538,14 +14553,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14573,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14595,14 +14610,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 43833-2025</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45912.63038194444</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14630,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14652,14 +14667,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45551</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14687,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14709,14 +14724,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>46007</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14728,8 +14743,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14766,14 +14786,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>46006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14785,8 +14805,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14823,14 +14848,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 28813-2025</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45820</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14843,7 +14868,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14880,14 +14905,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14900,7 +14925,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14937,14 +14962,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45112</v>
+        <v>46007</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,8 +14981,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>4</v>
+        <v>7.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14994,14 +15024,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45112</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15014,7 +15044,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15051,14 +15081,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45659</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15070,13 +15100,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15113,14 +15138,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 60148-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45671</v>
+        <v>44909</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,13 +15157,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15175,14 +15195,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>44901</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15195,7 +15215,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15232,14 +15252,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 32719-2024</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45514</v>
+        <v>44879</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15252,7 +15272,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15289,14 +15309,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15309,7 +15329,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15346,14 +15366,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>45671</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15365,8 +15385,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15403,14 +15428,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>45044</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15423,7 +15448,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15460,14 +15485,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15480,7 +15505,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15517,14 +15542,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15537,7 +15562,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.5</v>
+        <v>8.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15574,14 +15599,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45925</v>
+        <v>44866</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,13 +15618,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>9.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15636,14 +15656,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 40278-2024</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45554.65760416666</v>
+        <v>44876</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15656,7 +15676,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15693,14 +15713,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45932</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15713,7 +15733,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15750,14 +15770,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45932</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15770,7 +15790,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15807,14 +15827,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45932</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15827,7 +15847,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15864,14 +15884,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45932</v>
+        <v>44858</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15884,7 +15904,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15921,14 +15941,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 22157-2021</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44325</v>
+        <v>45450</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15941,7 +15961,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15978,14 +15998,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 10800-2024</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45369.62201388889</v>
+        <v>45019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15998,7 +16018,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16035,14 +16055,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16055,7 +16075,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16092,14 +16112,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45939</v>
+        <v>45229</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16112,7 +16132,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16149,14 +16169,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23226-2025</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45791.48756944444</v>
+        <v>44868</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16169,7 +16189,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16206,14 +16226,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,13 +16245,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16268,14 +16283,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 23240-2025</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45791.49888888889</v>
+        <v>45370</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16288,7 +16303,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16325,14 +16340,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45709</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,13 +16359,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16387,14 +16397,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>44575</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16407,7 +16417,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16444,14 +16454,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16464,7 +16474,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16501,14 +16511,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16521,7 +16531,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16558,14 +16568,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 50515-2025</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45945.45089120371</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16578,7 +16588,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16615,14 +16625,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>45527</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16635,7 +16645,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16672,14 +16682,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45516</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16691,8 +16701,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16729,14 +16744,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 23780-2025</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45793.50979166666</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16749,7 +16764,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16786,14 +16801,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45939</v>
+        <v>44819</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16806,7 +16821,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16843,14 +16858,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45939</v>
+        <v>45620</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16863,7 +16878,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16900,14 +16915,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 15691-2024</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45404.45090277777</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16920,7 +16935,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16957,14 +16972,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16977,7 +16992,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17014,14 +17029,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 23670-2025</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45792.94814814815</v>
+        <v>44531</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17034,7 +17049,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17071,14 +17086,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 3571-2025</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45680</v>
+        <v>45098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17091,7 +17106,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>11.2</v>
+        <v>1.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17128,14 +17143,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17148,7 +17163,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17185,14 +17200,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45800</v>
+        <v>44995</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17205,7 +17220,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4</v>
+        <v>9.4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17242,14 +17257,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45800</v>
+        <v>45680</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17262,7 +17277,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17299,14 +17314,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45198</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17319,7 +17334,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17356,14 +17371,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17376,7 +17391,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17413,14 +17428,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45967</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17433,7 +17448,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17470,14 +17485,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17490,7 +17505,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17527,14 +17542,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17547,7 +17562,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17584,14 +17599,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 21137-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>45778.63582175926</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17603,13 +17618,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G291" t="n">
-        <v>11.2</v>
+        <v>4.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17646,14 +17656,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 40278-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45554.65760416666</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17666,7 +17676,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17703,14 +17713,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45988</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17723,7 +17733,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17760,14 +17770,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>44325</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17780,7 +17790,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17817,14 +17827,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 23226-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>45791.48756944444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17837,7 +17847,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17874,14 +17884,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 23240-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>46038</v>
+        <v>45791.49888888889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17893,13 +17903,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G296" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17936,14 +17941,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17993,14 +17998,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>46006</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18012,13 +18017,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18055,14 +18055,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46007</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,13 +18074,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G299" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18117,14 +18112,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18137,7 +18132,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18174,14 +18169,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>46007</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18195,11 +18190,11 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G301" t="n">
-        <v>7.9</v>
+        <v>1.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18236,14 +18231,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>45709</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18255,8 +18250,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18293,14 +18293,14 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 23780-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>45793.50979166666</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45278</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45812</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1307,14 +1307,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 58632-2024</t>
+          <t>A 55118-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45635.57728009259</v>
+        <v>45967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1327,31 +1327,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1361,204 +1361,204 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Luddfingersvamp</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 58632-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45635.57728009259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 50546-2024</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45601.58664351852</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>10.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Platt fjädermossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 55118-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Luddfingersvamp</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44999.52065972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,14 +1908,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45855-2021</t>
+          <t>A 58883-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44441</v>
+        <v>44489.65511574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58883-2021</t>
+          <t>A 45855-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44489.65511574074</v>
+        <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2084,14 +2084,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33123-2021</t>
+          <t>A 909-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44376</v>
+        <v>44571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 909-2022</t>
+          <t>A 64999-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44571</v>
+        <v>44514</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64999-2021</t>
+          <t>A 70363-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44514</v>
+        <v>44535</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 70363-2021</t>
+          <t>A 25830-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44535</v>
+        <v>44733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2312,14 +2312,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 25830-2022</t>
+          <t>A 33123-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44733</v>
+        <v>44376</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3224,14 +3224,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7627-2021</t>
+          <t>A 38566-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44242</v>
+        <v>44407.70712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3281,14 +3281,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38566-2021</t>
+          <t>A 69666-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44407.70712962963</v>
+        <v>44532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3338,14 +3338,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 69666-2021</t>
+          <t>A 55581-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44532</v>
+        <v>44475.84278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3395,14 +3395,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 55581-2021</t>
+          <t>A 61207-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44475.84278935185</v>
+        <v>44498</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3452,14 +3452,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61207-2021</t>
+          <t>A 63214-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3509,14 +3509,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 63214-2021</t>
+          <t>A 59809-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44505</v>
+        <v>44494.53561342593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3566,14 +3566,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59809-2021</t>
+          <t>A 22156-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44494.53561342593</v>
+        <v>44325</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3623,14 +3623,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22156-2021</t>
+          <t>A 38565-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44325</v>
+        <v>44407.70063657407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3680,14 +3680,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38565-2021</t>
+          <t>A 48433-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44407.70063657407</v>
+        <v>44858.64818287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3737,14 +3737,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 48433-2022</t>
+          <t>A 21324-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44858.64818287037</v>
+        <v>44705.59672453703</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3794,14 +3794,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45534</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3813,13 +3813,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>11.2</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3856,14 +3851,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21324-2022</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44705.59672453703</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3871,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3913,14 +3908,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45504</v>
+        <v>44974</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3928,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3970,14 +3965,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 51067-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>44868.36377314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3985,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4027,14 +4022,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4042,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4084,14 +4079,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51067-2022</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44868.36377314815</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4104,7 +4099,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4141,14 +4136,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4161,7 +4156,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4198,14 +4193,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4218,7 +4213,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4255,14 +4250,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4275,7 +4270,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4312,14 +4307,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44977</v>
+        <v>45534</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,8 +4326,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>11.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4369,14 +4369,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>45504</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>45204</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45246</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4545,14 +4545,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 23226-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45504</v>
+        <v>45791.48756944444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4602,14 +4602,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33221-2024</t>
+          <t>A 23240-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45518.55730324074</v>
+        <v>45791.49888888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4659,14 +4659,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4716,14 +4716,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4773,14 +4773,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45328</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45247</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4887,14 +4887,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,8 +4906,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4944,14 +4949,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 31337-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44418</v>
+        <v>45504</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,13 +4968,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5006,14 +5006,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 33221-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45350</v>
+        <v>45518.55730324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,13 +5025,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5068,14 +5063,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45309</v>
+        <v>45709</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5087,8 +5082,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15691-2024</t>
+          <t>A 23780-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45404.45090277777</v>
+        <v>45793.50979166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3571-2025</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45680</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23670-2025</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45792.94814814815</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>45328</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5353,14 +5353,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45126</v>
+        <v>45247</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 21106-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45800</v>
+        <v>45777.67112268518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5467,14 +5467,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44498</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5524,14 +5524,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45567</v>
+        <v>45045</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5581,14 +5581,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45800</v>
+        <v>44418</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,8 +5600,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5638,14 +5643,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5658,7 +5663,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5695,14 +5700,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 15691-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45404.45090277777</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5715,7 +5720,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5752,14 +5757,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 3571-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>45680</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5777,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>11.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5809,14 +5814,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 23670-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45659</v>
+        <v>45792.94814814815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5828,13 +5833,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5871,14 +5871,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>45350</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5888,6 +5888,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -5928,14 +5933,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21106-2025</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45777.67112268518</v>
+        <v>45309</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5953,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5985,14 +5990,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>45884</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6004,8 +6009,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6042,14 +6052,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45716</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6061,13 +6071,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6104,14 +6109,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>45889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6123,8 +6128,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6161,14 +6171,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45045</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6191,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6218,14 +6228,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>45800</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6248,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6275,14 +6285,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45895.386875</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6305,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6332,14 +6342,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>45894</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6362,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6389,14 +6399,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45551</v>
+        <v>45800</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6409,7 +6419,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6446,14 +6456,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>45126</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6466,7 +6476,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6503,14 +6513,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45893</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6523,7 +6533,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6560,14 +6570,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6580,7 +6590,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6617,14 +6627,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45300</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,13 +6646,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6679,14 +6684,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6699,7 +6704,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6736,14 +6741,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>44498</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6756,7 +6761,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6793,14 +6798,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,7 +6818,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6850,14 +6855,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45450</v>
+        <v>45567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6870,7 +6875,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6907,14 +6912,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12322-2023</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44999</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6927,7 +6932,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6964,14 +6969,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6984,7 +6989,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7021,14 +7026,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7041,7 +7046,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7078,14 +7083,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45329</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,13 +7102,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7140,14 +7140,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45884</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,13 +7159,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7202,14 +7197,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7222,7 +7217,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7259,14 +7254,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45889</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7278,13 +7273,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7321,14 +7311,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45819</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7341,7 +7331,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7378,14 +7368,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28786-2025</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45820.46232638889</v>
+        <v>45659</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7397,8 +7387,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7435,14 +7430,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45029</v>
+        <v>45450</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7454,13 +7449,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7497,14 +7487,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>46007</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,8 +7506,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7554,14 +7549,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>45716</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,8 +7568,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7611,14 +7611,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45824</v>
+        <v>45902</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,8 +7630,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7668,14 +7673,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 39534-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45826</v>
+        <v>45551</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7688,7 +7693,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7725,14 +7730,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44270</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7745,7 +7750,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7782,14 +7787,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>45300</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,8 +7806,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7839,14 +7849,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7859,7 +7869,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7896,14 +7906,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45826</v>
+        <v>46006</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,8 +7925,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7953,14 +7968,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 17373-2025</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45756.86658564815</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7973,7 +7988,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8010,14 +8025,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45895.386875</v>
+        <v>45819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8030,7 +8045,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8067,14 +8082,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 12322-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45894</v>
+        <v>44999</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8087,7 +8102,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8124,14 +8139,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1954-2025</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45671</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8145,11 +8160,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>8.800000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8186,14 +8201,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 28786-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44603</v>
+        <v>45820.46232638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8206,7 +8221,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8243,14 +8258,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45893</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8263,7 +8278,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8300,14 +8315,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8320,7 +8335,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8357,14 +8372,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8377,7 +8392,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8414,14 +8429,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45329</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8433,8 +8448,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8471,14 +8491,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45205</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8491,7 +8511,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8528,14 +8548,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45824</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8548,7 +8568,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8585,14 +8605,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8605,7 +8625,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8642,14 +8662,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>46007</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8661,8 +8681,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>7.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8699,14 +8724,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>45826</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8719,7 +8744,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>5.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8756,14 +8781,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44417</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8776,7 +8801,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8813,14 +8838,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8833,7 +8858,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8870,14 +8895,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 42026-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45082.480625</v>
+        <v>45903</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8890,7 +8915,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.9</v>
+        <v>7.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8927,14 +8952,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45902</v>
+        <v>45826</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8946,13 +8971,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8989,14 +9009,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 2440-2025</t>
+          <t>A 43833-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45674.41945601852</v>
+        <v>45912.63038194444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9009,7 +9029,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9046,14 +9066,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>45029</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9065,8 +9085,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9103,14 +9128,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44476</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9123,7 +9148,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9160,14 +9185,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45271</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9180,7 +9205,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9217,14 +9242,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 28813-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44749</v>
+        <v>45820</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9237,7 +9262,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9274,14 +9299,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 21425-2025</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45782.50599537037</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9294,7 +9319,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9331,14 +9356,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>44270</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9350,13 +9375,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9393,14 +9413,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9413,7 +9433,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9450,14 +9470,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9470,7 +9490,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9507,14 +9527,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46518-2024</t>
+          <t>A 17373-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45582.62869212963</v>
+        <v>45756.86658564815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9527,7 +9547,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9564,14 +9584,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10811-2024</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45369.63376157408</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9584,7 +9604,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9621,14 +9641,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 28703-2022</t>
+          <t>A 1954-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44748.82637731481</v>
+        <v>45671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9640,8 +9660,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>3.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9678,14 +9703,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45239</v>
+        <v>44603</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9698,7 +9723,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9735,14 +9760,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9755,7 +9780,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9792,14 +9817,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9812,7 +9837,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9849,14 +9874,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>45925</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9868,8 +9893,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9906,14 +9936,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 42026-2025</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45903</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9926,7 +9956,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.8</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9963,14 +9993,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 43833-2025</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45912.63038194444</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9983,7 +10013,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10020,14 +10050,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45280</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10039,13 +10069,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10082,14 +10107,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 28813-2025</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45820</v>
+        <v>45205</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10102,7 +10127,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10139,14 +10164,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10159,7 +10184,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10196,14 +10221,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44866</v>
+        <v>45082.480625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10216,7 +10241,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10253,14 +10278,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45113</v>
+        <v>44417</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10273,7 +10298,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10310,14 +10335,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>45932</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10330,7 +10355,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10367,14 +10392,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32719-2024</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45514</v>
+        <v>45932</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10387,7 +10412,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10424,14 +10449,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10444,7 +10469,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10481,14 +10506,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>45932</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10501,7 +10526,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10538,14 +10563,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45112</v>
+        <v>45932</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10558,7 +10583,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10595,14 +10620,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45112</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10615,7 +10640,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10652,14 +10677,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45925</v>
+        <v>45271</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10671,13 +10696,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>9.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10714,14 +10734,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 21425-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>45782.50599537037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10734,7 +10754,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10771,14 +10791,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 2440-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>45674.41945601852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10791,7 +10811,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.1</v>
+        <v>9.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10828,14 +10848,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45499</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10847,13 +10867,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10890,14 +10905,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>45939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10925,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10947,14 +10962,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45019</v>
+        <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10982,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11004,14 +11019,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11916-2024</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45376</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11023,13 +11038,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11066,14 +11076,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 50515-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45932</v>
+        <v>45945.45089120371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11096,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11123,14 +11133,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45932</v>
+        <v>44749</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11153,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11180,14 +11190,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45932</v>
+        <v>45239</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11200,7 +11210,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11237,14 +11247,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45932</v>
+        <v>45939</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11257,7 +11267,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11294,14 +11304,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 40251-2024</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45554.61689814815</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11314,7 +11324,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11351,14 +11361,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11371,7 +11381,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11408,14 +11418,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>45939</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11428,7 +11438,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.1</v>
+        <v>3.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11465,14 +11475,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 46518-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>45582.62869212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11485,7 +11495,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11522,14 +11532,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 10811-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>45369.63376157408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11542,7 +11552,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11579,14 +11589,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 47699-2024</t>
+          <t>A 28703-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45588.46224537037</v>
+        <v>44748.82637731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11599,7 +11609,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11636,14 +11646,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8479-2021</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44245</v>
+        <v>45113</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11656,7 +11666,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11693,14 +11703,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45939</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11713,7 +11723,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11750,14 +11760,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 50515-2025</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45945.45089120371</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11770,7 +11780,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11807,14 +11817,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 40189-2024</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45554.56659722222</v>
+        <v>45967</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11827,7 +11837,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11864,14 +11874,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 41013-2023</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45169</v>
+        <v>45280</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11883,8 +11893,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11921,14 +11936,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>44866</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11941,7 +11956,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11978,14 +11993,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45229</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11998,7 +12013,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12035,14 +12050,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 70345-2021</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44536</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12055,7 +12070,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12092,14 +12107,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 32719-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45939</v>
+        <v>45514</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12112,7 +12127,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12149,14 +12164,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17391-2024</t>
+          <t>A 35779-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45414.68023148148</v>
+        <v>45532.60379629629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12169,7 +12184,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12206,14 +12221,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12226,7 +12241,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12263,14 +12278,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45112</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12283,7 +12298,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12320,14 +12335,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45939</v>
+        <v>45112</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12340,7 +12355,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12377,14 +12392,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 28688-2024</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45478.48899305556</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12397,7 +12412,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12434,14 +12449,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58097-2023</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45248.84173611111</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12454,7 +12469,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12491,14 +12506,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 73273-2021</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44550.92103009259</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12510,8 +12525,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>11.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12548,14 +12568,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37812-2021</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44402</v>
+        <v>45499</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12567,8 +12587,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12605,14 +12630,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 28622-2024</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45478.44236111111</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12625,7 +12650,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12662,14 +12687,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12682,7 +12707,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12719,14 +12744,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 35154-2022</t>
+          <t>A 8838-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44797</v>
+        <v>46066</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12739,7 +12764,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>21.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12776,14 +12801,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 48447-2022</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44858.65266203704</v>
+        <v>45019</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12796,7 +12821,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12833,14 +12858,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 60382-2021</t>
+          <t>A 11916-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44496.36440972222</v>
+        <v>45376</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12852,8 +12877,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12890,14 +12920,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 57298-2024</t>
+          <t>A 40251-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45629.59912037037</v>
+        <v>45554.61689814815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12910,7 +12940,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12947,14 +12977,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 30981-2023</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45113.51041666666</v>
+        <v>45988</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12967,7 +12997,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13004,14 +13034,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45967</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13024,7 +13054,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13061,14 +13091,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13081,7 +13111,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>8.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13118,14 +13148,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13138,7 +13168,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13175,14 +13205,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13195,7 +13225,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13232,14 +13262,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13252,7 +13282,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13289,14 +13319,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 47699-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>45588.46224537037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13309,7 +13339,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13346,14 +13376,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 8479-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>44245</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13366,7 +13396,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13403,14 +13433,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 40189-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>45554.56659722222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13423,7 +13453,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13460,14 +13490,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 41013-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>45169</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13480,7 +13510,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13517,14 +13547,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>46038</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13536,8 +13566,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13574,14 +13609,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44487</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13594,7 +13629,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13631,14 +13666,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45065</v>
+        <v>45229</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13651,7 +13686,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13688,14 +13723,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13707,13 +13742,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>11.2</v>
+        <v>1.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13750,14 +13780,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 70345-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>44536</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13770,7 +13800,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13807,14 +13837,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 17391-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>45414.68023148148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13827,7 +13857,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13864,14 +13894,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 28688-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45478.48899305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13884,7 +13914,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13921,14 +13951,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 58097-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45050</v>
+        <v>45248.84173611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13941,7 +13971,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13978,14 +14008,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 73273-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45229</v>
+        <v>44550.92103009259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13998,7 +14028,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14035,14 +14065,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 37812-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45988</v>
+        <v>44402</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14055,7 +14085,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14092,14 +14122,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 28622-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>45478.44236111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14112,7 +14142,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14149,14 +14179,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 35154-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>44797</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14169,7 +14199,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14206,14 +14236,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 48447-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>44858.65266203704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14226,7 +14256,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14263,14 +14293,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 60382-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>44496.36440972222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14283,7 +14313,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14320,14 +14350,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 57298-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>45629.59912037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14340,7 +14370,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14377,14 +14407,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 30981-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>45113.51041666666</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14397,7 +14427,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14434,14 +14464,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14454,7 +14484,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14491,14 +14521,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46038</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14510,13 +14540,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14553,14 +14578,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14573,7 +14598,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14610,14 +14635,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14630,7 +14655,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14667,14 +14692,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14687,7 +14712,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14724,14 +14749,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46007</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14743,13 +14768,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14786,14 +14806,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46006</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14805,13 +14825,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14848,14 +14863,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>44487</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14868,7 +14883,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14905,14 +14920,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>45065</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14925,7 +14940,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14962,14 +14977,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46007</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14981,13 +14996,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15024,14 +15034,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15044,7 +15054,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15081,14 +15091,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>45050</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15101,7 +15111,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15138,14 +15148,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 60148-2022</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44909</v>
+        <v>45229</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15158,7 +15168,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15195,14 +15205,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44901</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15215,7 +15225,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15252,14 +15262,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44879</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15272,7 +15282,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15309,14 +15319,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15329,7 +15339,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15366,14 +15376,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45671</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15385,13 +15395,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15428,14 +15433,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45044</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15448,7 +15453,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15485,14 +15490,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15505,7 +15510,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15542,14 +15547,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15562,7 +15567,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>8.1</v>
+        <v>1.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15599,14 +15604,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44866</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15619,7 +15624,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15656,14 +15661,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 60148-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44876</v>
+        <v>44909</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15676,7 +15681,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15713,14 +15718,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>44901</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15733,7 +15738,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15770,14 +15775,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>44879</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15790,7 +15795,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15827,14 +15832,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15847,7 +15852,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15884,14 +15889,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44858</v>
+        <v>45671</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15903,8 +15908,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15941,14 +15951,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45450</v>
+        <v>45044</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15961,7 +15971,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15998,14 +16008,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45019</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16018,7 +16028,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16055,14 +16065,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16075,7 +16085,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.5</v>
+        <v>8.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16112,14 +16122,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45229</v>
+        <v>44866</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16132,7 +16142,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16169,14 +16179,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44868</v>
+        <v>44876</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16189,7 +16199,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.1</v>
+        <v>4.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16226,14 +16236,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16246,7 +16256,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16283,14 +16293,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45370</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16303,7 +16313,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16340,14 +16350,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16360,7 +16370,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16397,14 +16407,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44575</v>
+        <v>44858</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16417,7 +16427,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16454,14 +16464,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45236</v>
+        <v>45450</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16474,7 +16484,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16511,14 +16521,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>45019</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16531,7 +16541,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16568,14 +16578,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16588,7 +16598,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16625,14 +16635,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45527</v>
+        <v>45229</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16645,7 +16655,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16682,14 +16692,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45516</v>
+        <v>44868</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16701,13 +16711,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16744,14 +16749,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16764,7 +16769,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16801,14 +16806,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44819</v>
+        <v>45370</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16821,7 +16826,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16858,14 +16863,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45620</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16915,14 +16920,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>44575</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16935,7 +16940,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16972,14 +16977,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>45236</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16992,7 +16997,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17029,14 +17034,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44531</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17049,7 +17054,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17086,14 +17091,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45098</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17106,7 +17111,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17143,14 +17148,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>45527</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17163,7 +17168,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17200,14 +17205,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44995</v>
+        <v>45516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17219,8 +17224,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>9.4</v>
+        <v>3.9</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17257,14 +17267,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45680</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17277,7 +17287,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17314,14 +17324,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45198</v>
+        <v>44819</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17334,7 +17344,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17371,14 +17381,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>45620</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17391,7 +17401,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17428,14 +17438,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17448,7 +17458,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17485,14 +17495,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17505,7 +17515,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17542,14 +17552,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>44531</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17562,7 +17572,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17599,14 +17609,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>45098</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17619,7 +17629,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17656,14 +17666,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 40278-2024</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45554.65760416666</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17676,7 +17686,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17713,14 +17723,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 10800-2024</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45369.62201388889</v>
+        <v>44995</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17733,7 +17743,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>5.2</v>
+        <v>9.4</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17770,14 +17780,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 22157-2021</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44325</v>
+        <v>45680</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17790,7 +17800,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17827,14 +17837,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 23226-2025</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45791.48756944444</v>
+        <v>45198</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17847,7 +17857,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17884,14 +17894,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 23240-2025</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45791.49888888889</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17904,7 +17914,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17941,14 +17951,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17961,7 +17971,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17998,14 +18008,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18018,7 +18028,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18055,14 +18065,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18075,7 +18085,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18112,14 +18122,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 21137-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45778.63582175926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18132,7 +18142,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18169,14 +18179,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 40278-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>45554.65760416666</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,13 +18198,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18231,14 +18236,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45709</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,13 +18255,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G302" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18293,14 +18293,14 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 23780-2025</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45793.50979166666</v>
+        <v>44325</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z303"/>
+  <dimension ref="A1:Z302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45278</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45159</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45812</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45967</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45635.57728009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45601.58664351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44999.52065972222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,14 +1908,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58883-2021</t>
+          <t>A 45855-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44489.65511574074</v>
+        <v>44441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 45855-2021</t>
+          <t>A 58883-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44441</v>
+        <v>44489.65511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2141,14 +2141,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64999-2021</t>
+          <t>A 33123-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44514</v>
+        <v>44376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 70363-2021</t>
+          <t>A 64999-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44535</v>
+        <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 25830-2022</t>
+          <t>A 70363-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44733</v>
+        <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2312,14 +2312,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33123-2021</t>
+          <t>A 25830-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44376</v>
+        <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44061-2022</t>
+          <t>A 68194-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44839.31863425926</v>
+        <v>44526.51045138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3110,14 +3110,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 68194-2021</t>
+          <t>A 44061-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44526.51045138889</v>
+        <v>44839.31863425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44407.70712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44475.84278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,14 +3395,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61207-2021</t>
+          <t>A 63214-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3452,14 +3452,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 63214-2021</t>
+          <t>A 61207-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44505</v>
+        <v>44498</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44325</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44858.64818287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44705.59672453703</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3794,14 +3794,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>45534</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3813,8 +3813,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>11.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3851,14 +3856,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3871,7 +3876,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3908,14 +3913,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44974</v>
+        <v>45504</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3928,7 +3933,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3965,14 +3970,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51067-2022</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44868.36377314815</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3985,7 +3990,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4022,14 +4027,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 51067-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>44868.36377314815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4042,7 +4047,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4079,14 +4084,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>44974</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4099,7 +4104,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4136,14 +4141,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4156,7 +4161,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4193,14 +4198,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44977</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4213,7 +4218,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4250,14 +4255,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4270,7 +4275,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4307,14 +4312,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45534</v>
+        <v>44325</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4326,13 +4331,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>11.2</v>
+        <v>4.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4369,14 +4369,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45504</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4426,14 +4426,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49090-2023</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45204</v>
+        <v>44977</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,13 +4445,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4488,14 +4483,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57720-2023</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45246</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4508,7 +4503,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4552,7 +4547,7 @@
         <v>45791.48756944444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4609,7 +4604,7 @@
         <v>45791.49888888889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4659,14 +4654,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 49090-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>45204</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4678,8 +4673,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4716,14 +4716,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4773,14 +4773,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4830,14 +4830,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4887,14 +4887,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,13 +4906,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4949,14 +4944,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45504</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4968,8 +4963,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5006,14 +5006,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33221-2024</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45518.55730324074</v>
+        <v>45709</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,8 +5025,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5063,14 +5068,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 57720-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45709</v>
+        <v>45246</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5082,13 +5087,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>45793.50979166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5182,14 +5182,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 21106-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>45777.67112268518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45328</v>
+        <v>45045</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>11.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5353,14 +5353,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45247</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 21106-2025</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45777.67112268518</v>
+        <v>45884</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,8 +5429,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5467,14 +5472,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5492,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5524,14 +5529,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45045</v>
+        <v>45889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5543,8 +5548,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>11.3</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5581,14 +5591,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 31337-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44418</v>
+        <v>45504</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5600,13 +5610,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5643,14 +5648,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 33221-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>45518.55730324074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5668,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5707,7 +5712,7 @@
         <v>45404.45090277777</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5764,7 +5769,7 @@
         <v>45680</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5821,7 +5826,7 @@
         <v>45792.94814814815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5871,14 +5876,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45350</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5890,13 +5895,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5933,14 +5933,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45309</v>
+        <v>45895.386875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5990,14 +5990,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45884</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6009,13 +6009,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6052,14 +6047,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>45894</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6072,7 +6067,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6109,14 +6104,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45889</v>
+        <v>45328</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6128,13 +6123,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6171,14 +6161,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>45247</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6191,7 +6181,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6228,14 +6218,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45800</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6248,7 +6238,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6285,14 +6275,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45895.386875</v>
+        <v>45893</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6342,14 +6332,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45894</v>
+        <v>44418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6361,8 +6351,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6399,14 +6394,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45800</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6419,7 +6414,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6456,14 +6451,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45126</v>
+        <v>45800</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6471,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6513,14 +6508,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45893</v>
+        <v>45350</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6532,8 +6527,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6570,14 +6570,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45309</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6627,14 +6627,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>45800</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6684,14 +6684,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6741,14 +6741,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44498</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6798,14 +6798,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6855,14 +6855,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45567</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6912,14 +6912,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6969,14 +6969,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7026,14 +7026,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>45126</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7083,14 +7083,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>45902</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7102,8 +7102,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7140,14 +7145,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7165,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7197,14 +7202,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7222,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7254,14 +7259,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7279,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7311,14 +7316,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>44498</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7336,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7368,14 +7373,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45659</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7387,13 +7392,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7430,14 +7430,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45450</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7487,14 +7487,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46007</v>
+        <v>45567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7506,13 +7506,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7549,14 +7544,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45716</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7568,13 +7563,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7611,14 +7601,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45902</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7632,11 +7622,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7673,14 +7663,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45551</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7693,7 +7683,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>7.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7730,14 +7720,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>45450</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7750,7 +7740,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7787,14 +7777,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45300</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7806,13 +7796,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7849,14 +7834,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>45659</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7868,8 +7853,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7906,14 +7896,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46006</v>
+        <v>45716</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7921,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7968,14 +7958,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7978,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8025,14 +8015,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 39534-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45819</v>
+        <v>45551</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8035,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8082,14 +8072,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 12322-2023</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44999</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8092,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8139,14 +8129,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8158,13 +8148,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8201,14 +8186,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28786-2025</t>
+          <t>A 42026-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45820.46232638889</v>
+        <v>45903</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8206,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.3</v>
+        <v>7.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8258,14 +8243,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 43833-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>45912.63038194444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8278,7 +8263,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8315,14 +8300,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45300</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8334,8 +8319,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8372,14 +8362,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8392,7 +8382,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8429,14 +8419,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45329</v>
+        <v>45819</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8448,13 +8438,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8491,14 +8476,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 28813-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>45820</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8511,7 +8496,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8548,14 +8533,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45824</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8568,7 +8553,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8605,14 +8590,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8625,7 +8610,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8662,14 +8647,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 12322-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46007</v>
+        <v>44999</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,13 +8666,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>7.9</v>
+        <v>5.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8724,14 +8704,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 28786-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45826</v>
+        <v>45820.46232638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8744,7 +8724,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.9</v>
+        <v>0.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8781,14 +8761,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8801,7 +8781,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8838,14 +8818,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8838,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8895,14 +8875,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 42026-2025</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45903</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8915,7 +8895,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8952,14 +8932,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45826</v>
+        <v>45329</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8969,6 +8949,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -9009,14 +8994,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43833-2025</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45912.63038194444</v>
+        <v>45824</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9029,7 +9014,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9066,14 +9051,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45029</v>
+        <v>45826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9085,13 +9070,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9128,14 +9108,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>45925</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,8 +9127,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9185,14 +9170,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9205,7 +9190,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9242,14 +9227,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 28813-2025</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9262,7 +9247,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9299,14 +9284,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>45029</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9318,8 +9303,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9356,14 +9346,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44270</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9376,7 +9366,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9413,14 +9403,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>44270</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9433,7 +9423,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9470,14 +9460,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9490,7 +9480,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>8.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9534,7 +9524,7 @@
         <v>45756.86658564815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9584,14 +9574,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9603,8 +9593,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>11.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9648,7 +9643,7 @@
         <v>45671</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9703,14 +9698,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44603</v>
+        <v>45932</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9760,14 +9755,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>44603</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9780,7 +9775,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9817,14 +9812,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45932</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9837,7 +9832,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9874,14 +9869,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,13 +9888,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>9.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9936,14 +9926,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>45932</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9993,14 +9983,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10013,7 +10003,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10050,14 +10040,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10070,7 +10060,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10107,14 +10097,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45205</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10127,7 +10117,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10164,14 +10154,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10184,7 +10174,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10221,14 +10211,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45082.480625</v>
+        <v>45205</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10241,7 +10231,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10278,14 +10268,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44417</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10298,7 +10288,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10335,14 +10325,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45932</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10355,7 +10345,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10392,14 +10382,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45932</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10412,7 +10402,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10449,14 +10439,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>44417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10469,7 +10459,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10506,14 +10496,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45932</v>
+        <v>45939</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10526,7 +10516,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10563,14 +10553,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45932</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10583,7 +10573,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10620,14 +10610,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 50515-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>45945.45089120371</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10640,7 +10630,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10677,14 +10667,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45271</v>
+        <v>45082.480625</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10697,7 +10687,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10734,14 +10724,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 21425-2025</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45782.50599537037</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10754,7 +10744,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10798,7 +10788,7 @@
         <v>45674.41945601852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10848,14 +10838,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>45939</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,7 +10858,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10905,14 +10895,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45939</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,7 +10915,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10962,14 +10952,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44476</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,7 +10972,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11019,14 +11009,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>45271</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11039,7 +11029,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11076,14 +11066,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 50515-2025</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45945.45089120371</v>
+        <v>44476</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,7 +11086,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11133,14 +11123,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44749</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11153,7 +11143,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11190,14 +11180,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45239</v>
+        <v>45939</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11200,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11247,14 +11237,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 21425-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45939</v>
+        <v>45782.50599537037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11267,7 +11257,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11304,14 +11294,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>44749</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11324,7 +11314,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11361,14 +11351,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11381,7 +11371,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11418,14 +11408,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45939</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11438,7 +11428,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11482,7 +11472,7 @@
         <v>45582.62869212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11539,7 +11529,7 @@
         <v>45369.63376157408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11596,7 +11586,7 @@
         <v>44748.82637731481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11646,14 +11636,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45113</v>
+        <v>45239</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11666,7 +11656,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11703,14 +11693,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>45988</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,7 +11713,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11760,14 +11750,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>45967</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11780,7 +11770,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11817,14 +11807,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45967</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11837,7 +11827,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11874,14 +11864,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45280</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11893,13 +11883,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11936,14 +11921,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44866</v>
+        <v>45280</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11955,8 +11940,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11993,14 +11983,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12013,7 +12003,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12050,14 +12040,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>44866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12070,7 +12060,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12114,7 +12104,7 @@
         <v>45514</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12164,14 +12154,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>45113</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12184,7 +12174,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12221,14 +12211,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 35779-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>45532.60379629629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12241,7 +12231,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12278,14 +12268,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45112</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12298,7 +12288,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12335,14 +12325,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
         <v>45112</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12355,7 +12345,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12392,14 +12382,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>45112</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12412,7 +12402,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12449,14 +12439,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12469,7 +12459,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12506,14 +12496,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12525,13 +12515,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>11.2</v>
+        <v>6.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12568,14 +12553,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45499</v>
+        <v>46038</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12589,11 +12574,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12630,14 +12615,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>45499</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12649,8 +12634,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12687,14 +12677,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12697,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12744,14 +12734,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 8838-2026</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46066</v>
+        <v>45019</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12754,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>21.4</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12801,14 +12791,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45019</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12811,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12865,7 +12855,7 @@
         <v>45376</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12927,7 +12917,7 @@
         <v>45554.61689814815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12977,14 +12967,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45988</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12997,7 +12987,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13034,14 +13024,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>46007</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13053,8 +13043,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13091,14 +13086,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13111,7 +13106,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13148,14 +13143,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13168,7 +13163,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13205,14 +13200,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>46006</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13224,8 +13219,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13262,14 +13262,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13326,7 +13326,7 @@
         <v>45588.46224537037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13376,14 +13376,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8479-2021</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44245</v>
+        <v>46007</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13395,8 +13395,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>3.7</v>
+        <v>7.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13440,7 +13445,7 @@
         <v>45554.56659722222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13497,7 +13502,7 @@
         <v>45169</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13547,14 +13552,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46038</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13566,13 +13571,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13609,14 +13609,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13666,14 +13666,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45229</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13723,14 +13723,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>45229</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44536</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>45414.68023148148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>45478.48899305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>45248.84173611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44550.92103009259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44402</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>45478.44236111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44797</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44858.65266203704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>44496.36440972222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45629.59912037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45113.51041666666</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14464,14 +14464,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 8838-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>46066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>21.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14521,14 +14521,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14578,14 +14578,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14635,14 +14635,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14692,14 +14692,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14749,14 +14749,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14806,14 +14806,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14863,14 +14863,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44487</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14920,14 +14920,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45065</v>
+        <v>44487</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14977,14 +14977,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>45065</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15034,14 +15034,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15091,14 +15091,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45050</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15148,14 +15148,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45229</v>
+        <v>45050</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15205,14 +15205,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>45229</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15262,14 +15262,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15319,14 +15319,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15376,14 +15376,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15433,14 +15433,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15490,14 +15490,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15547,14 +15547,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15604,14 +15604,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15661,14 +15661,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 60148-2022</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44909</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15718,14 +15718,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 60148-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44901</v>
+        <v>44909</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15775,14 +15775,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44879</v>
+        <v>44901</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15832,14 +15832,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>44879</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15889,14 +15889,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45671</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15908,13 +15908,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15951,14 +15946,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45044</v>
+        <v>45671</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,8 +15965,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16008,14 +16008,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45044</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16065,14 +16065,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16122,14 +16122,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44866</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.2</v>
+        <v>8.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16179,14 +16179,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44876</v>
+        <v>44866</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16236,14 +16236,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>44876</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16293,14 +16293,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16350,14 +16350,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16407,14 +16407,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44858</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16464,14 +16464,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45450</v>
+        <v>44858</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16521,14 +16521,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45019</v>
+        <v>45450</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16578,14 +16578,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>45019</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16635,14 +16635,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45229</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16692,14 +16692,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44868</v>
+        <v>45229</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16749,14 +16749,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16806,14 +16806,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45370</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16863,14 +16863,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>45370</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16920,14 +16920,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44575</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16977,14 +16977,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45236</v>
+        <v>44575</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17034,14 +17034,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>45236</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17091,14 +17091,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17148,14 +17148,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45527</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17205,14 +17205,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45516</v>
+        <v>45527</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,13 +17224,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G284" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17267,14 +17262,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>45516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17286,8 +17281,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17324,14 +17324,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44819</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17381,14 +17381,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45620</v>
+        <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17438,14 +17438,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>45620</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17495,14 +17495,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17552,14 +17552,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44531</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17609,14 +17609,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45098</v>
+        <v>44531</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17629,7 +17629,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17666,14 +17666,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>45098</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17723,14 +17723,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44995</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>9.4</v>
+        <v>4.4</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17780,14 +17780,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45680</v>
+        <v>44995</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.8</v>
+        <v>9.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17837,14 +17837,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45198</v>
+        <v>45680</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17894,14 +17894,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>45198</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17951,14 +17951,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18008,14 +18008,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18065,14 +18065,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18122,14 +18122,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18179,85 +18179,85 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
+          <t>A 21137-2025</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>45778.63582175926</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" s="2" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
           <t>A 40278-2024</t>
         </is>
       </c>
-      <c r="B301" s="1" t="n">
+      <c r="B302" s="1" t="n">
         <v>45554.65760416666</v>
       </c>
-      <c r="C301" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G301" t="n">
+      <c r="C302" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
         <v>1</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="n">
-        <v>0</v>
-      </c>
-      <c r="K301" t="n">
-        <v>0</v>
-      </c>
-      <c r="L301" t="n">
-        <v>0</v>
-      </c>
-      <c r="M301" t="n">
-        <v>0</v>
-      </c>
-      <c r="N301" t="n">
-        <v>0</v>
-      </c>
-      <c r="O301" t="n">
-        <v>0</v>
-      </c>
-      <c r="P301" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q301" t="n">
-        <v>0</v>
-      </c>
-      <c r="R301" s="2" t="inlineStr"/>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>A 10800-2024</t>
-        </is>
-      </c>
-      <c r="B302" s="1" t="n">
-        <v>45369.62201388889</v>
-      </c>
-      <c r="C302" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G302" t="n">
-        <v>5.2</v>
-      </c>
       <c r="H302" t="n">
         <v>0</v>
       </c>
@@ -18289,63 +18289,6 @@
         <v>0</v>
       </c>
       <c r="R302" s="2" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>A 22157-2021</t>
-        </is>
-      </c>
-      <c r="B303" s="1" t="n">
-        <v>44325</v>
-      </c>
-      <c r="C303" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G303" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="n">
-        <v>0</v>
-      </c>
-      <c r="K303" t="n">
-        <v>0</v>
-      </c>
-      <c r="L303" t="n">
-        <v>0</v>
-      </c>
-      <c r="M303" t="n">
-        <v>0</v>
-      </c>
-      <c r="N303" t="n">
-        <v>0</v>
-      </c>
-      <c r="O303" t="n">
-        <v>0</v>
-      </c>
-      <c r="P303" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q303" t="n">
-        <v>0</v>
-      </c>
-      <c r="R303" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z302"/>
+  <dimension ref="A1:Z305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45415.61755787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>45278</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1127,14 +1127,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 38064-2023</t>
+          <t>A 27406-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45159</v>
+        <v>45812</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1148,11 +1148,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,464 +1186,464 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Kambräken</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 58632-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45635.57728009259</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 12413-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44999.52065972222</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 55118-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Luddfingersvamp</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 38064-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 27406-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45812</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 50546-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45601.58664351852</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Kambräken</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 27406-2025 artfynd.xlsx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 27406-2025 karta.png", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 27406-2025 FSC-klagomål.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 27406-2025 FSC-klagomål mail.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 27406-2025 tillsynsbegäran.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 27406-2025 tillsynsbegäran mail.docx", "A 27406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 55118-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45967</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Luddfingersvamp</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 55118-2025 artfynd.xlsx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 55118-2025 karta.png", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 55118-2025 FSC-klagomål.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 55118-2025 FSC-klagomål mail.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 55118-2025 tillsynsbegäran.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 55118-2025 tillsynsbegäran mail.docx", "A 55118-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 58632-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45635.57728009259</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 58632-2024 artfynd.xlsx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 58632-2024 karta.png", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 58632-2024 FSC-klagomål.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 58632-2024 FSC-klagomål mail.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 58632-2024 tillsynsbegäran.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 58632-2024 tillsynsbegäran mail.docx", "A 58632-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 50546-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45601.58664351852</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Platt fjädermossa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 12413-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44999.52065972222</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Bronshjon</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44489.65511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2198,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64999-2021</t>
+          <t>A 70363-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44514</v>
+        <v>44535</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 70363-2021</t>
+          <t>A 64999-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44535</v>
+        <v>44514</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 68194-2021</t>
+          <t>A 44061-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44526.51045138889</v>
+        <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3110,14 +3110,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44061-2022</t>
+          <t>A 68194-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44839.31863425926</v>
+        <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44407.70712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44475.84278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3395,14 +3395,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 63214-2021</t>
+          <t>A 61207-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44505</v>
+        <v>44498</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3452,14 +3452,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61207-2021</t>
+          <t>A 63214-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44325</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44858.64818287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3737,14 +3737,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21324-2022</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44705.59672453703</v>
+        <v>44749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3794,14 +3794,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45534</v>
+        <v>45716</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>11.2</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3856,14 +3856,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>45050</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3913,14 +3913,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45504</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3970,14 +3970,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>45112</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4027,14 +4027,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51067-2022</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44868.36377314815</v>
+        <v>45112</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4084,14 +4084,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44974</v>
+        <v>45659</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,8 +4103,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4141,14 +4146,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>45671</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,8 +4165,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4198,14 +4208,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>45932</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4218,7 +4228,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4255,14 +4265,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10800-2024</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45369.62201388889</v>
+        <v>45932</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4275,7 +4285,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4312,14 +4322,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22157-2021</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44325</v>
+        <v>45932</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4332,7 +4342,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4369,14 +4379,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>45932</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4389,7 +4399,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4426,14 +4436,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 49090-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44977</v>
+        <v>45204</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,8 +4455,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4483,14 +4498,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 32719-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>45514</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4503,7 +4518,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4540,14 +4555,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23226-2025</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45791.48756944444</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4560,7 +4575,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4597,14 +4612,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23240-2025</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45791.49888888889</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4617,7 +4632,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4654,14 +4669,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49090-2023</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45204</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,13 +4688,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4716,14 +4726,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 17391-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>45414.68023148148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4736,7 +4746,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4773,14 +4783,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 51067-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>44868.36377314815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4793,7 +4803,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4830,14 +4840,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4850,7 +4860,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4887,14 +4897,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4907,7 +4917,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4944,14 +4954,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 21137-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>45778.63582175926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,13 +4973,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5006,14 +5011,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45709</v>
+        <v>45045</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5025,13 +5030,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>6.8</v>
+        <v>11.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5068,14 +5068,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57720-2023</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45246</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23780-2025</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45793.50979166666</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21106-2025</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45777.67112268518</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>45113</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45045</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>11.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5353,14 +5353,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 21106-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>45777.67112268518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45884</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,13 +5429,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>7.5</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5472,14 +5467,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 40278-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>45554.65760416666</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5487,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5529,14 +5524,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45889</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5548,13 +5543,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5591,14 +5581,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45504</v>
+        <v>45889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,8 +5600,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5648,14 +5643,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33221-2024</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45518.55730324074</v>
+        <v>45884</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,8 +5662,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5705,14 +5705,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 15691-2024</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45404.45090277777</v>
+        <v>44325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5762,14 +5762,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3571-2025</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45680</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>11.2</v>
+        <v>5.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5819,14 +5819,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23670-2025</t>
+          <t>A 35154-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45792.94814814815</v>
+        <v>44797</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5876,14 +5876,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>45894</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5933,14 +5933,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45895.386875</v>
+        <v>45893</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5990,14 +5990,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>45895.386875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6047,14 +6047,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45894</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6104,14 +6104,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45328</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6161,14 +6161,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 11916-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45247</v>
+        <v>45376</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6180,8 +6180,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6218,14 +6223,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 23226-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>45791.48756944444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6243,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6275,14 +6280,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45893</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6294,8 +6299,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6332,14 +6342,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 23240-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44418</v>
+        <v>45791.49888888889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6351,13 +6361,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6394,14 +6399,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>45709</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6413,8 +6418,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6451,14 +6461,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45800</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6481,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6508,14 +6518,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45350</v>
+        <v>45902</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6529,11 +6539,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6570,14 +6580,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45309</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6600,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6627,14 +6637,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45800</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6657,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6684,14 +6694,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6714,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6741,14 +6751,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 23780-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>45793.50979166666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6771,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6798,14 +6808,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6817,8 +6827,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6855,14 +6870,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 15691-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>45404.45090277777</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6890,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6912,14 +6927,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>45939</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6947,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6969,14 +6984,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +7004,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7026,14 +7041,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45126</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7061,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7083,14 +7098,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 23670-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45902</v>
+        <v>45792.94814814815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7102,13 +7117,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7145,14 +7155,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 50515-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>45945.45089120371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7165,7 +7175,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7202,14 +7212,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 3571-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45680</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7222,7 +7232,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>11.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7259,14 +7269,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7279,7 +7289,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7316,14 +7326,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44498</v>
+        <v>45939</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7336,7 +7346,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7373,14 +7383,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45939</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7393,7 +7403,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7430,14 +7440,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7450,7 +7460,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7487,14 +7497,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45567</v>
+        <v>44575</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7507,7 +7517,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7544,14 +7554,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>45800</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7564,7 +7574,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7601,14 +7611,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7620,13 +7630,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7663,14 +7668,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7683,7 +7688,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7720,14 +7725,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 42026-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45450</v>
+        <v>45903</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7740,7 +7745,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7777,14 +7782,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45800</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7797,7 +7802,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7834,14 +7839,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 43833-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45659</v>
+        <v>45912.63038194444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7853,13 +7858,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7896,14 +7896,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45716</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,13 +7915,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7958,14 +7953,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7978,7 +7973,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8015,14 +8010,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45551</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8035,7 +8030,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8072,14 +8067,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8092,7 +8087,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8129,14 +8124,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 28813-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>45820</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8149,7 +8144,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8186,14 +8181,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42026-2025</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45903</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8206,7 +8201,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8243,14 +8238,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43833-2025</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45912.63038194444</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8263,7 +8258,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8300,14 +8295,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 33221-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45300</v>
+        <v>45518.55730324074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8319,13 +8314,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8362,14 +8352,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>44487</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8382,7 +8372,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8419,14 +8409,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45819</v>
+        <v>45967</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8439,7 +8429,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8476,14 +8466,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28813-2025</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45820</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8496,7 +8486,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8533,14 +8523,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8553,7 +8543,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8590,14 +8580,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8610,7 +8600,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8647,14 +8637,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12322-2023</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44999</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8667,7 +8657,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8704,14 +8694,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28786-2025</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45820.46232638889</v>
+        <v>45329</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8723,8 +8713,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8761,14 +8756,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8781,7 +8776,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8818,14 +8813,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8838,7 +8833,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8875,14 +8870,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 70345-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>44536</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8895,7 +8890,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8932,14 +8927,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45329</v>
+        <v>45450</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8951,13 +8946,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8994,14 +8984,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45824</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9004,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9051,14 +9041,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45826</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9061,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9108,14 +9098,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45925</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9127,13 +9117,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>9.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9170,14 +9155,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>45925</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9189,8 +9174,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>4.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9227,14 +9217,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45826</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9247,7 +9237,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9284,14 +9274,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 28786-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45029</v>
+        <v>45820.46232638889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9303,13 +9293,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9346,14 +9331,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>45819</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9351,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9403,14 +9388,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44270</v>
+        <v>44974</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9408,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9460,14 +9445,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>45824</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9465,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9517,14 +9502,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 17373-2025</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45756.86658564815</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9522,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9574,14 +9559,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9593,13 +9578,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>11.2</v>
+        <v>9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9636,14 +9616,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 1954-2025</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45671</v>
+        <v>45826</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9655,13 +9635,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9698,14 +9673,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45932</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9718,7 +9693,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9755,14 +9730,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44603</v>
+        <v>45826</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9775,7 +9750,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9812,14 +9787,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45932</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,7 +9807,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9869,14 +9844,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45932</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9889,7 +9864,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9926,14 +9901,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45932</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9946,7 +9921,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9983,14 +9958,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 47699-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>45588.46224537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10003,7 +9978,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10040,14 +10015,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45229</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,7 +10035,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10097,14 +10072,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10117,7 +10092,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10154,14 +10129,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 17373-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>45756.86658564815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10174,7 +10149,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10211,14 +10186,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45205</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10231,7 +10206,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.1</v>
+        <v>5.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10268,14 +10243,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10287,8 +10262,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>11.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10325,14 +10305,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>44977</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,7 +10325,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10382,14 +10362,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,7 +10382,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10439,14 +10419,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44417</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,7 +10439,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10496,14 +10476,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45939</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10516,7 +10496,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10553,14 +10533,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 12322-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>44999</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,7 +10553,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10610,14 +10590,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50515-2025</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45945.45089120371</v>
+        <v>45988</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10630,7 +10610,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10667,14 +10647,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45082.480625</v>
+        <v>44270</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10687,7 +10667,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10724,14 +10704,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10744,7 +10724,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10781,14 +10761,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2440-2025</t>
+          <t>A 60382-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45674.41945601852</v>
+        <v>44496.36440972222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,7 +10781,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10838,14 +10818,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45939</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10858,7 +10838,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10895,14 +10875,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10915,7 +10895,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10952,14 +10932,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>45082.480625</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10972,7 +10952,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11009,14 +10989,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45271</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11029,7 +11009,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11066,14 +11046,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44476</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11066,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11123,14 +11103,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11143,7 +11123,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11180,14 +11160,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 10811-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45939</v>
+        <v>45369.63376157408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11200,7 +11180,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11244,7 +11224,7 @@
         <v>45782.50599537037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11294,14 +11274,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44749</v>
+        <v>45271</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11314,7 +11294,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11351,14 +11331,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11371,7 +11351,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11408,14 +11388,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11428,7 +11408,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11465,14 +11445,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46518-2024</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45582.62869212963</v>
+        <v>45019</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11485,7 +11465,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11522,14 +11502,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 10811-2024</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45369.63376157408</v>
+        <v>45019</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11542,7 +11522,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11579,14 +11559,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 28703-2022</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44748.82637731481</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11599,7 +11579,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11636,14 +11616,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45239</v>
+        <v>46038</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11655,8 +11635,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11693,14 +11678,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45988</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11713,7 +11698,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11750,14 +11735,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45967</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11770,7 +11755,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11807,14 +11792,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11827,7 +11812,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11864,14 +11849,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>45239</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11884,7 +11869,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11921,14 +11906,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45280</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11940,13 +11925,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11983,14 +11963,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12003,7 +11983,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12040,14 +12020,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44866</v>
+        <v>44418</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12059,8 +12039,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12097,14 +12082,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 32719-2024</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45514</v>
+        <v>45198</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12117,7 +12102,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12154,14 +12139,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45113</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12174,7 +12159,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12211,14 +12196,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 28688-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>45478.48899305556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12231,7 +12216,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12268,14 +12253,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12288,7 +12273,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12325,14 +12310,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45112</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12345,7 +12330,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12382,14 +12367,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45112</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12402,7 +12387,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12439,14 +12424,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>44819</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12459,7 +12444,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12496,14 +12481,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>46006</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12515,8 +12500,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12553,14 +12543,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46038</v>
+        <v>44868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12572,13 +12562,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12615,14 +12600,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45499</v>
+        <v>45247</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12634,13 +12619,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12677,14 +12657,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>46007</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12696,8 +12676,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12734,14 +12719,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45019</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12754,7 +12739,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12791,14 +12776,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>46007</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12810,8 +12795,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>7.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12848,14 +12838,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11916-2024</t>
+          <t>A 57720-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45376</v>
+        <v>45246</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12867,13 +12857,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12910,14 +12895,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 40251-2024</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45554.61689814815</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12930,7 +12915,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12967,14 +12952,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 41013-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>45169</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12987,7 +12972,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13024,14 +13009,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 30981-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46007</v>
+        <v>45113.51041666666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13043,13 +13028,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13086,14 +13066,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13086,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13143,14 +13123,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13143,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13200,14 +13180,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46006</v>
+        <v>44531</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,13 +13199,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13262,14 +13237,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>45504</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13257,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13319,14 +13294,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 47699-2024</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45588.46224537037</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13339,7 +13314,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13376,14 +13351,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46007</v>
+        <v>44866</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13395,13 +13370,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13438,14 +13408,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 40189-2024</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45554.56659722222</v>
+        <v>44476</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13495,14 +13465,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 41013-2023</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45169</v>
+        <v>44876</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13515,7 +13485,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13552,14 +13522,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13572,7 +13542,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13609,14 +13579,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>44603</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13629,7 +13599,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13666,14 +13636,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13686,7 +13656,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13723,14 +13693,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45229</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13743,7 +13713,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13780,14 +13750,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 70345-2021</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44536</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13800,7 +13770,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13837,14 +13807,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 17391-2024</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45414.68023148148</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13857,7 +13827,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13894,14 +13864,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 28688-2024</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45478.48899305556</v>
+        <v>44498</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13914,7 +13884,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13951,14 +13921,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58097-2023</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45248.84173611111</v>
+        <v>44901</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13971,7 +13941,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14008,14 +13978,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 73273-2021</t>
+          <t>A 8838-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44550.92103009259</v>
+        <v>46066</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14028,7 +13998,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.7</v>
+        <v>21.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14065,14 +14035,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 37812-2021</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44402</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14085,7 +14055,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14122,14 +14092,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 28622-2024</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45478.44236111111</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14142,7 +14112,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14179,14 +14149,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 35154-2022</t>
+          <t>A 9821-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44797</v>
+        <v>46072.64320601852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14199,7 +14169,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14236,14 +14206,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 48447-2022</t>
+          <t>A 9810-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44858.65266203704</v>
+        <v>46072.63025462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14256,7 +14226,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14293,14 +14263,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 60382-2021</t>
+          <t>A 46518-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44496.36440972222</v>
+        <v>45582.62869212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14313,7 +14283,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14350,14 +14320,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 57298-2024</t>
+          <t>A 9811-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45629.59912037037</v>
+        <v>46072.63173611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14370,7 +14340,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14407,14 +14377,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 30981-2023</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45113.51041666666</v>
+        <v>45044</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14427,7 +14397,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14464,14 +14434,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 8838-2026</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46066</v>
+        <v>45567</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14484,7 +14454,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>21.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14521,14 +14491,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14541,7 +14511,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14578,14 +14548,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>44995</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14598,7 +14568,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.1</v>
+        <v>9.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14635,14 +14605,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14655,7 +14625,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14692,14 +14662,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>45029</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14711,8 +14681,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14749,14 +14724,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 73273-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>44550.92103009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14769,7 +14744,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14806,14 +14781,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14826,7 +14801,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14863,14 +14838,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14883,7 +14858,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14920,14 +14895,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44487</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14940,7 +14915,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14977,14 +14952,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45065</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14997,7 +14972,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15034,14 +15009,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15054,7 +15029,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15091,14 +15066,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15111,7 +15086,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.7</v>
+        <v>8.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15148,14 +15123,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 1954-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45050</v>
+        <v>45671</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15167,8 +15142,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15205,14 +15185,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 57298-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45229</v>
+        <v>45629.59912037037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15262,14 +15242,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>45229</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15282,7 +15262,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15319,14 +15299,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>45098</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15339,7 +15319,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15376,14 +15356,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15396,7 +15376,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15433,14 +15413,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 58097-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>45248.84173611111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15453,7 +15433,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15490,14 +15470,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>45516</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15509,8 +15489,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15547,14 +15532,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 28703-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>44748.82637731481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15567,7 +15552,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15604,14 +15589,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15624,7 +15609,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15661,14 +15646,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>45450</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15681,7 +15666,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15718,14 +15703,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 60148-2022</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44909</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15738,7 +15723,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15775,14 +15760,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44901</v>
+        <v>45300</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15794,8 +15779,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15832,14 +15822,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44879</v>
+        <v>45499</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15851,8 +15841,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15889,14 +15884,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15909,7 +15904,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15946,14 +15941,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45671</v>
+        <v>44866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15965,13 +15960,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16008,14 +15998,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45044</v>
+        <v>45350</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,8 +16017,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16065,14 +16060,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45680</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16085,7 +16080,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16122,14 +16117,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>44879</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16142,7 +16137,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16179,14 +16174,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44866</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16199,7 +16194,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16236,14 +16231,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44876</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16256,7 +16251,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16293,14 +16288,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>45620</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16313,7 +16308,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16350,14 +16345,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 37812-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>44402</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16370,7 +16365,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16407,14 +16402,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>44858</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16427,7 +16422,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16464,14 +16459,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 40251-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44858</v>
+        <v>45554.61689814815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16484,7 +16479,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16521,14 +16516,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45450</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16541,7 +16536,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16578,14 +16573,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45019</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16598,7 +16593,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16635,14 +16630,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>44417</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16655,7 +16650,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16692,14 +16687,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45229</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16712,7 +16707,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16749,14 +16744,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 2440-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44868</v>
+        <v>45674.41945601852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16769,7 +16764,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.1</v>
+        <v>9.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16806,14 +16801,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>45065</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16826,7 +16821,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16863,14 +16858,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45370</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16883,7 +16878,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16920,14 +16915,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16940,7 +16935,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16977,14 +16972,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44575</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16997,7 +16992,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17034,14 +17029,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 28622-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45236</v>
+        <v>45478.44236111111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17054,7 +17049,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17091,14 +17086,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>45370</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17111,7 +17106,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17148,14 +17143,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>45280</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,8 +17162,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17205,14 +17205,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45527</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17262,14 +17262,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45516</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,13 +17281,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17324,14 +17319,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 60148-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>44909</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17344,7 +17339,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17381,14 +17376,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44819</v>
+        <v>45126</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17401,7 +17396,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17438,14 +17433,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 21324-2022</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45620</v>
+        <v>44705.59672453703</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17458,7 +17453,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17495,14 +17490,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17515,7 +17510,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>8.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17552,14 +17547,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>45229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17572,7 +17567,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17609,14 +17604,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44531</v>
+        <v>45236</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17629,7 +17624,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17666,14 +17661,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45098</v>
+        <v>45309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17686,7 +17681,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17723,14 +17718,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17743,7 +17738,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17780,14 +17775,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 40189-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44995</v>
+        <v>45554.56659722222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17800,7 +17795,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>9.4</v>
+        <v>0.7</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17837,14 +17832,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45680</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17857,7 +17852,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17894,14 +17889,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17914,7 +17909,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17951,14 +17946,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17971,7 +17966,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18008,14 +18003,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>45534</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18027,8 +18022,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>2.6</v>
+        <v>11.2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18065,14 +18065,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>45527</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18122,14 +18122,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>45328</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18179,14 +18179,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 48447-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>44858.65266203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18233,17 +18233,17 @@
       </c>
       <c r="R301" s="2" t="inlineStr"/>
     </row>
-    <row r="302">
+    <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 40278-2024</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45554.65760416666</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18289,6 +18289,177 @@
         <v>0</v>
       </c>
       <c r="R302" s="2" t="inlineStr"/>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>A 31337-2024</t>
+        </is>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C303" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" s="2" t="inlineStr"/>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>A 35779-2024</t>
+        </is>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>45532.60379629629</v>
+      </c>
+      <c r="C304" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" s="2" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>A 39534-2024</t>
+        </is>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="C305" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,14 +780,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 17535-2024</t>
+          <t>A 63804-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45415.61755787037</v>
+        <v>45278</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,8 +799,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -809,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -827,133 +832,128 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Slåttergubbe
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 63804-2023 artfynd.xlsx", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 63804-2023 karta.png", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 63804-2023 FSC-klagomål.docx", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 63804-2023 FSC-klagomål mail.docx", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 63804-2023 tillsynsbegäran.docx", "A 63804-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 63804-2023 tillsynsbegäran mail.docx", "A 63804-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 17535-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45415.61755787037</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Bergjohannesört
 Krusfrö</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 17535-2024 artfynd.xlsx", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 17535-2024 karta.png", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 17535-2024 FSC-klagomål.docx", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 17535-2024 FSC-klagomål mail.docx", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 17535-2024 tillsynsbegäran.docx", "A 17535-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 17535-2024 tillsynsbegäran mail.docx", "A 17535-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 63804-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45278</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Slåttergubbe
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 63804-2023 artfynd.xlsx", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 63804-2023 karta.png", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 63804-2023 FSC-klagomål.docx", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 63804-2023 FSC-klagomål mail.docx", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 63804-2023 tillsynsbegäran.docx", "A 63804-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 63804-2023 tillsynsbegäran mail.docx", "A 63804-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45812</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45635.57728009259</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,14 +1302,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 12413-2023</t>
+          <t>A 50546-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44999.52065972222</v>
+        <v>45601.58664351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>10.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,31 +1356,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
         <v/>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
         <v>45967</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1472,14 +1472,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 38064-2023</t>
+          <t>A 12413-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45159</v>
+        <v>44999.52065972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1491,13 +1491,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1531,209 +1526,214 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 12413-2023 artfynd.xlsx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 12413-2023 karta.png", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 12413-2023 FSC-klagomål.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 12413-2023 FSC-klagomål mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 12413-2023 tillsynsbegäran.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 12413-2023 tillsynsbegäran mail.docx", "A 12413-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 59493-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 38064-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Vedticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 38064-2023 artfynd.xlsx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 38064-2023 karta.png", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 38064-2023 FSC-klagomål.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 38064-2023 FSC-klagomål mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 38064-2023 tillsynsbegäran.docx", "A 38064-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 38064-2023 tillsynsbegäran mail.docx", "A 38064-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 50546-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45601.58664351852</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Platt fjädermossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 50546-2024 artfynd.xlsx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 50546-2024 karta.png", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 50546-2024 FSC-klagomål.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 50546-2024 FSC-klagomål mail.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 50546-2024 tillsynsbegäran.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 50546-2024 tillsynsbegäran mail.docx", "A 50546-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 59493-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45637</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ÅMÅL</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skrovellav</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/artfynd/A 59493-2024 artfynd.xlsx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/kartor/A 59493-2024 karta.png", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomål/A 59493-2024 FSC-klagomål.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/klagomålsmail/A 59493-2024 FSC-klagomål mail.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsyn/A 59493-2024 tillsynsbegäran.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1492/tillsynsmail/A 59493-2024 tillsynsbegäran mail.docx", "A 59493-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1908,14 +1908,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45855-2021</t>
+          <t>A 58883-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44441</v>
+        <v>44489.65511574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58883-2021</t>
+          <t>A 45855-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44489.65511574074</v>
+        <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2198,14 +2198,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 70363-2021</t>
+          <t>A 64999-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44535</v>
+        <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2255,14 +2255,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 64999-2021</t>
+          <t>A 70363-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44514</v>
+        <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44407.70712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44475.84278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44498</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44505</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44325</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44858.64818287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3737,14 +3737,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28880-2022</t>
+          <t>A 36289-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44749</v>
+        <v>45534</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3756,8 +3756,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>11.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3794,14 +3799,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9852-2025</t>
+          <t>A 31333-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45716</v>
+        <v>45504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3813,13 +3818,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3856,14 +3856,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 19471-2023</t>
+          <t>A 21324-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45050</v>
+        <v>44705.59672453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3913,14 +3913,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18939-2024</t>
+          <t>A 47702-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45427.46386574074</v>
+        <v>45588.46540509259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3970,14 +3970,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32887-2023</t>
+          <t>A 41726-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45112</v>
+        <v>45560.87462962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4027,14 +4027,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32889-2023</t>
+          <t>A 8176-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45112</v>
+        <v>44974</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4084,14 +4084,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 333-2025</t>
+          <t>A 51067-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45659</v>
+        <v>44868.36377314815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,13 +4103,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4146,14 +4141,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 1968-2025</t>
+          <t>A 4976-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45671</v>
+        <v>44958.45994212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4165,13 +4160,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4208,14 +4198,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48041-2025</t>
+          <t>A 45313-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45932</v>
+        <v>45191.71241898148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4228,7 +4218,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4265,14 +4255,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48085-2025</t>
+          <t>A 59998-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45932</v>
+        <v>45642.40743055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4285,7 +4275,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4322,14 +4312,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48084-2025</t>
+          <t>A 8535-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45932</v>
+        <v>44977</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4342,7 +4332,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4379,14 +4369,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48086-2025</t>
+          <t>A 32037-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45932</v>
+        <v>45119.54206018519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4399,7 +4389,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4443,7 +4433,7 @@
         <v>45204</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4498,14 +4488,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32719-2024</t>
+          <t>A 57720-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45514</v>
+        <v>45246</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4518,7 +4508,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4555,14 +4545,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59998-2024</t>
+          <t>A 31337-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45642.40743055556</v>
+        <v>45504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4575,7 +4565,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>6.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4612,14 +4602,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5966-2024</t>
+          <t>A 33221-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45336.48494212963</v>
+        <v>45518.55730324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4632,7 +4622,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4669,14 +4659,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21024-2025</t>
+          <t>A 11916-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45777.51334490741</v>
+        <v>44995.46620370371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4689,7 +4679,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4726,14 +4716,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17391-2024</t>
+          <t>A 10837-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45414.68023148148</v>
+        <v>45369.79299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4746,7 +4736,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4783,14 +4773,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51067-2022</t>
+          <t>A 4696-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44868.36377314815</v>
+        <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4803,7 +4793,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4840,14 +4830,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 21028-2025</t>
+          <t>A 57957-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45777.52100694444</v>
+        <v>45247</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4860,7 +4850,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4897,14 +4887,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 21032-2025</t>
+          <t>A 40161-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45777.52616898148</v>
+        <v>44418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4916,8 +4906,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4954,14 +4949,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21137-2025</t>
+          <t>A 8307-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45778.63582175926</v>
+        <v>45350</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4973,8 +4968,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5011,14 +5011,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 19002-2023</t>
+          <t>A 2199-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45045</v>
+        <v>45309</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>11.3</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5068,14 +5068,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56210-2022</t>
+          <t>A 57296-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44890.45704861111</v>
+        <v>45629.59741898148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56218-2022</t>
+          <t>A 34112-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44890.46577546297</v>
+        <v>45126</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38526-2022</t>
+          <t>A 61092-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44813.45697916667</v>
+        <v>44498</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30990-2023</t>
+          <t>A 43113-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45113</v>
+        <v>45567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29598-2025</t>
+          <t>A 29995-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45825.40863425926</v>
+        <v>45109.62675925926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5353,14 +5353,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21106-2025</t>
+          <t>A 9852-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45777.67112268518</v>
+        <v>45716</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5372,8 +5372,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5410,14 +5415,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23784-2025</t>
+          <t>A 333-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45793.51618055555</v>
+        <v>45659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5429,8 +5434,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5467,14 +5477,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40278-2024</t>
+          <t>A 39534-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45554.65760416666</v>
+        <v>45551</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5487,7 +5497,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5524,14 +5534,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25693-2025</t>
+          <t>A 57710-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45803.6643287037</v>
+        <v>44897.5384375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5544,7 +5554,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5581,14 +5591,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39448-2025</t>
+          <t>A 705-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45889</v>
+        <v>45300</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5602,11 +5612,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5643,14 +5653,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38878-2025</t>
+          <t>A 56357-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45884</v>
+        <v>45624.96618055556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5662,13 +5672,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5705,14 +5710,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 22157-2021</t>
+          <t>A 61814-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44325</v>
+        <v>44917.57796296296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5725,7 +5730,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5762,14 +5767,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10800-2024</t>
+          <t>A 12322-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45369.62201388889</v>
+        <v>44999</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5819,14 +5824,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35154-2022</t>
+          <t>A 2457-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44797</v>
+        <v>45674.45380787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5839,7 +5844,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5876,14 +5881,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40227-2025</t>
+          <t>A 4862-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45894</v>
+        <v>45329</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5895,8 +5900,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5933,14 +5943,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40043-2025</t>
+          <t>A 16830-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45893</v>
+        <v>45029</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5952,8 +5962,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5990,14 +6005,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40293-2025</t>
+          <t>A 28647-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45895.386875</v>
+        <v>45819</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6010,7 +6025,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6047,14 +6062,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 49373-2025</t>
+          <t>A 28143-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45938.63424768519</v>
+        <v>45099.48545138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6067,7 +6082,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6104,14 +6119,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 335-2025</t>
+          <t>A 28786-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45660.67505787037</v>
+        <v>45820.46232638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6124,7 +6139,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6161,14 +6176,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11916-2024</t>
+          <t>A 12628-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45376</v>
+        <v>44270</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6180,13 +6195,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6223,14 +6233,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23226-2025</t>
+          <t>A 49146-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45791.48756944444</v>
+        <v>45594.7358912037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6243,7 +6253,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6280,14 +6290,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9123-2025</t>
+          <t>A 21106-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45713.87643518519</v>
+        <v>45777.67112268518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6299,13 +6309,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6342,14 +6347,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 23240-2025</t>
+          <t>A 25693-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45791.49888888889</v>
+        <v>45803.6643287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6362,7 +6367,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6399,14 +6404,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8470-2025</t>
+          <t>A 19002-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45709</v>
+        <v>45045</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6418,13 +6423,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>6.8</v>
+        <v>11.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6461,14 +6461,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 23215-2025</t>
+          <t>A 29509-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45791.47444444444</v>
+        <v>45825.30631944445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6518,14 +6518,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41814-2025</t>
+          <t>A 17373-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45902</v>
+        <v>45756.86658564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6537,13 +6537,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6580,14 +6575,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 23125-2025</t>
+          <t>A 29598-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45791.38410879629</v>
+        <v>45825.40863425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6600,7 +6595,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6637,14 +6632,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14904-2025</t>
+          <t>A 38878-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45743.49012731481</v>
+        <v>45884</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6656,8 +6651,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6694,14 +6694,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23133-2025</t>
+          <t>A 29428-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45791.38806712963</v>
+        <v>45824</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6751,14 +6751,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 23780-2025</t>
+          <t>A 23784-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45793.50979166666</v>
+        <v>45793.51618055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6808,14 +6808,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42098-2025</t>
+          <t>A 39448-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45903.75858796296</v>
+        <v>45889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6829,11 +6829,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6870,14 +6870,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 15691-2024</t>
+          <t>A 1954-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45404.45090277777</v>
+        <v>45671</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6889,8 +6889,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6927,14 +6932,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49500-2025</t>
+          <t>A 7086-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45939</v>
+        <v>44603</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6947,7 +6952,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6984,14 +6989,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57305-2024</t>
+          <t>A 29979-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45629.60421296296</v>
+        <v>45826</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7004,7 +7009,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7041,14 +7046,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45667-2022</t>
+          <t>A 30054-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44845.71525462963</v>
+        <v>45826.60033564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7061,7 +7066,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7098,14 +7103,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23670-2025</t>
+          <t>A 40293-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45792.94814814815</v>
+        <v>45895.386875</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7118,7 +7123,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7155,14 +7160,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50515-2025</t>
+          <t>A 29987-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45945.45089120371</v>
+        <v>45826</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7175,7 +7180,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7212,14 +7217,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3571-2025</t>
+          <t>A 40227-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45680</v>
+        <v>45894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7232,7 +7237,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.2</v>
+        <v>5.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7269,14 +7274,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 51980-2025</t>
+          <t>A 40043-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45952.57109953704</v>
+        <v>45893</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7289,7 +7294,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7326,14 +7331,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49483-2025</t>
+          <t>A 16359-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45939</v>
+        <v>45751.38976851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7346,7 +7351,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7383,14 +7388,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49480-2025</t>
+          <t>A 335-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45939</v>
+        <v>45660.67505787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7403,7 +7408,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7440,14 +7445,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 52216-2025</t>
+          <t>A 48365-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45953.42795138889</v>
+        <v>45205</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7460,7 +7465,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.1</v>
+        <v>0.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7497,14 +7502,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 2027-2022</t>
+          <t>A 56210-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44575</v>
+        <v>44890.45704861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7517,7 +7522,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7554,14 +7559,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25751-2025</t>
+          <t>A 39840-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45800</v>
+        <v>44417</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7574,7 +7579,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7611,14 +7616,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43343-2025</t>
+          <t>A 41814-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45910.76835648148</v>
+        <v>45902</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,8 +7635,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7668,14 +7678,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53536-2025</t>
+          <t>A 70328-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45960.37158564815</v>
+        <v>44536.46303240741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7688,7 +7698,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7725,14 +7735,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42026-2025</t>
+          <t>A 5545-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45903</v>
+        <v>45693.46712962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7745,7 +7755,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7782,14 +7792,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 25748-2025</t>
+          <t>A 32918-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45800</v>
+        <v>45839.64229166666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7802,7 +7812,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7839,14 +7849,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43833-2025</t>
+          <t>A 42098-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45912.63038194444</v>
+        <v>45903.75858796296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,8 +7868,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7896,14 +7911,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25815-2025</t>
+          <t>A 57305-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45804.42990740741</v>
+        <v>45629.60421296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7916,7 +7931,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7953,14 +7968,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25818-2025</t>
+          <t>A 34211-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45804.43519675926</v>
+        <v>45845.6409375</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7973,7 +7988,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8010,14 +8025,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44046-2025</t>
+          <t>A 34218-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45915.49810185185</v>
+        <v>45845.6490162037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8030,7 +8045,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8067,14 +8082,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19127-2025</t>
+          <t>A 43343-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45768.92784722222</v>
+        <v>45910.76835648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8087,7 +8102,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8124,14 +8139,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28813-2025</t>
+          <t>A 2440-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45820</v>
+        <v>45674.41945601852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8144,7 +8159,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>9.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8181,14 +8196,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 25817-2025</t>
+          <t>A 30573-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45804.4325462963</v>
+        <v>45111.96506944444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8201,7 +8216,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8238,14 +8253,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 25822-2025</t>
+          <t>A 44046-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45804.43789351852</v>
+        <v>45915.49810185185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8258,7 +8273,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8295,14 +8310,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 33221-2024</t>
+          <t>A 55660-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45518.55730324074</v>
+        <v>44476</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8315,7 +8330,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8352,14 +8367,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 58225-2021</t>
+          <t>A 42026-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44487</v>
+        <v>45903</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8372,7 +8387,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.6</v>
+        <v>7.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8409,14 +8424,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55119-2025</t>
+          <t>A 43833-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45967</v>
+        <v>45912.63038194444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8429,7 +8444,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8466,14 +8481,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45019-2025</t>
+          <t>A 24424-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45918.67821759259</v>
+        <v>45082.480625</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8486,7 +8501,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8523,14 +8538,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 30616-2024</t>
+          <t>A 28880-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45495.38644675926</v>
+        <v>44749</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8543,7 +8558,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8580,14 +8595,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 3141-2022</t>
+          <t>A 28813-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44582.53597222222</v>
+        <v>45820</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8600,7 +8615,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8637,14 +8652,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 8092-2025</t>
+          <t>A 19127-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45707.67640046297</v>
+        <v>45768.92784722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8657,7 +8672,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8694,14 +8709,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4862-2024</t>
+          <t>A 45019-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45329</v>
+        <v>45918.67821759259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,13 +8728,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8756,14 +8766,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47026-2024</t>
+          <t>A 46518-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45586.41668981482</v>
+        <v>45582.62869212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8776,7 +8786,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8813,14 +8823,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 8089-2025</t>
+          <t>A 62705-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45707.67461805556</v>
+        <v>45271</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8833,7 +8843,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8870,14 +8880,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 70345-2021</t>
+          <t>A 21425-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44536</v>
+        <v>45782.50599537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8890,7 +8900,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8927,14 +8937,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 23186-2024</t>
+          <t>A 10811-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45450</v>
+        <v>45369.63376157408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8947,7 +8957,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8984,14 +8994,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 26911-2025</t>
+          <t>A 46312-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45811.35607638889</v>
+        <v>45925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9003,8 +9013,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9041,14 +9056,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26912-2025</t>
+          <t>A 28703-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45811.35936342592</v>
+        <v>44748.82637731481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9061,7 +9076,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9098,14 +9113,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 26914-2025</t>
+          <t>A 36671-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45811.36456018518</v>
+        <v>45873.38961805555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9118,7 +9133,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9155,14 +9170,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 46312-2025</t>
+          <t>A 20141-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45925</v>
+        <v>45055.43131944445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9174,13 +9189,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>9.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9217,14 +9227,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 34417-2024</t>
+          <t>A 48041-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45525.49019675926</v>
+        <v>45932</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9237,7 +9247,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9274,14 +9284,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28786-2025</t>
+          <t>A 57193-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45820.46232638889</v>
+        <v>45239</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9294,7 +9304,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9331,14 +9341,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28647-2025</t>
+          <t>A 48085-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45819</v>
+        <v>45932</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9351,7 +9361,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9388,14 +9398,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8176-2023</t>
+          <t>A 64859-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44974</v>
+        <v>45280</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9407,8 +9417,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9445,14 +9460,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 29428-2025</t>
+          <t>A 48084-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45824</v>
+        <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9465,7 +9480,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9502,14 +9517,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 40261-2024</t>
+          <t>A 48086-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45554.63262731482</v>
+        <v>45932</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9522,7 +9537,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9559,14 +9574,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10837-2024</t>
+          <t>A 49373-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45369.79299768519</v>
+        <v>45938.63424768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9579,7 +9594,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9616,14 +9631,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 29979-2025</t>
+          <t>A 50428-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45826</v>
+        <v>44866</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9636,7 +9651,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.9</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9673,14 +9688,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 30054-2025</t>
+          <t>A 32719-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45826.60033564815</v>
+        <v>45514</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9693,7 +9708,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9730,14 +9745,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 29987-2025</t>
+          <t>A 35779-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45826</v>
+        <v>45532.60379629629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9750,7 +9765,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9787,14 +9802,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 29509-2025</t>
+          <t>A 28862-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45825.30631944445</v>
+        <v>44749.50611111111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9807,7 +9822,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9844,14 +9859,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 57088-2025</t>
+          <t>A 32887-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45979.42400462963</v>
+        <v>45112</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9864,7 +9879,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9901,14 +9916,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 57096-2025</t>
+          <t>A 32889-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45979.43319444444</v>
+        <v>45112</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9921,7 +9936,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9958,14 +9973,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 47699-2024</t>
+          <t>A 49500-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45588.46224537037</v>
+        <v>45939</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9978,7 +9993,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10015,14 +10030,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 54877-2023</t>
+          <t>A 30990-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45229</v>
+        <v>45113</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10050,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10072,14 +10087,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47697-2024</t>
+          <t>A 50515-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45588.45899305555</v>
+        <v>45945.45089120371</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10092,7 +10107,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10129,14 +10144,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 17373-2025</t>
+          <t>A 27853-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45756.86658564815</v>
+        <v>45098.5687962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10149,7 +10164,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10186,14 +10201,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 55317-2024</t>
+          <t>A 9259-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45621.66334490741</v>
+        <v>45358.6052662037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10206,7 +10221,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10243,14 +10258,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 58707-2025</t>
+          <t>A 31001-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45986.60277777778</v>
+        <v>45499</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10268,7 +10283,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>11.2</v>
+        <v>6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10305,14 +10320,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 8535-2023</t>
+          <t>A 1282-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44977</v>
+        <v>45303.02372685185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10325,7 +10340,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10362,14 +10377,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 5545-2025</t>
+          <t>A 15463-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45693.46712962963</v>
+        <v>45019</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10382,7 +10397,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10419,14 +10434,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 32918-2025</t>
+          <t>A 11916-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45839.64229166666</v>
+        <v>45376</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10438,8 +10453,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10476,14 +10496,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58628-2025</t>
+          <t>A 49480-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45986.48127314815</v>
+        <v>45939</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10496,7 +10516,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10533,14 +10553,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 12322-2023</t>
+          <t>A 52216-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44999</v>
+        <v>45953.42795138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10553,7 +10573,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10590,14 +10610,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 59328-2025</t>
+          <t>A 51980-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45988</v>
+        <v>45952.57109953704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10610,7 +10630,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10647,14 +10667,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 12628-2021</t>
+          <t>A 49483-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44270</v>
+        <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10667,7 +10687,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10704,14 +10724,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 30980-2023</t>
+          <t>A 40251-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45113.50747685185</v>
+        <v>45554.61689814815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10724,7 +10744,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10761,14 +10781,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60382-2021</t>
+          <t>A 34525-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44496.36440972222</v>
+        <v>45140.41236111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10781,7 +10801,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10818,14 +10838,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 34211-2025</t>
+          <t>A 28866-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45845.6409375</v>
+        <v>44749.51043981482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10838,7 +10858,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10875,14 +10895,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 34218-2025</t>
+          <t>A 11402-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45845.6490162037</v>
+        <v>44993.4881712963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10895,7 +10915,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10932,14 +10952,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 24424-2023</t>
+          <t>A 53536-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45082.480625</v>
+        <v>45960.37158564815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10952,7 +10972,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10989,14 +11009,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1695-2026</t>
+          <t>A 47699-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46034.59358796296</v>
+        <v>45588.46224537037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11009,7 +11029,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11046,14 +11066,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1689-2026</t>
+          <t>A 40189-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46034.58842592593</v>
+        <v>45554.56659722222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11066,7 +11086,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11103,14 +11123,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56357-2024</t>
+          <t>A 41013-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45624.96618055556</v>
+        <v>45169</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11123,7 +11143,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11160,14 +11180,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 10811-2024</t>
+          <t>A 55119-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45369.63376157408</v>
+        <v>45967</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11180,7 +11200,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11217,14 +11237,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 21425-2025</t>
+          <t>A 46136-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45782.50599537037</v>
+        <v>44442.39613425926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11237,7 +11257,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11274,14 +11294,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62705-2023</t>
+          <t>A 54870-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45271</v>
+        <v>45229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11294,7 +11314,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11331,14 +11351,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 52384-2024</t>
+          <t>A 70345-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45609.41439814815</v>
+        <v>44536</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11351,7 +11371,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11388,14 +11408,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 18529-2023</t>
+          <t>A 57096-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45042.70158564814</v>
+        <v>45979.43319444444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11408,7 +11428,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11445,14 +11465,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15463-2023</t>
+          <t>A 17391-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45019</v>
+        <v>45414.68023148148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11465,7 +11485,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11502,14 +11522,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 15466-2023</t>
+          <t>A 57088-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45019</v>
+        <v>45979.42400462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11522,7 +11542,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11559,14 +11579,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 32037-2023</t>
+          <t>A 28688-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45119.54206018519</v>
+        <v>45478.48899305556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11579,7 +11599,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11616,14 +11636,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 2981-2026</t>
+          <t>A 58097-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46038</v>
+        <v>45248.84173611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11635,13 +11655,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11678,14 +11693,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 2457-2025</t>
+          <t>A 73273-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45674.45380787037</v>
+        <v>44550.92103009259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11698,7 +11713,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11735,14 +11750,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 36671-2025</t>
+          <t>A 37812-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45873.38961805555</v>
+        <v>44402</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11755,7 +11770,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11792,14 +11807,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 28862-2022</t>
+          <t>A 58707-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44749.50611111111</v>
+        <v>45986.60277777778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,8 +11826,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2.6</v>
+        <v>11.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11849,14 +11869,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 57193-2023</t>
+          <t>A 58628-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45239</v>
+        <v>45986.48127314815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11869,7 +11889,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11906,14 +11926,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 61122-2025</t>
+          <t>A 28622-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46000.46776620371</v>
+        <v>45478.44236111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11926,7 +11946,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11963,14 +11983,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 52321-2023</t>
+          <t>A 35154-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45224.64361111111</v>
+        <v>44797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11983,7 +12003,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12020,14 +12040,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 40161-2021</t>
+          <t>A 48447-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44418</v>
+        <v>44858.65266203704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,13 +12059,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12082,14 +12097,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 46753-2023</t>
+          <t>A 59328-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45198</v>
+        <v>45988</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12102,7 +12117,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12139,14 +12154,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 14660-2023</t>
+          <t>A 60382-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45013.91371527778</v>
+        <v>44496.36440972222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12159,7 +12174,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12196,14 +12211,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 28688-2024</t>
+          <t>A 57298-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45478.48899305556</v>
+        <v>45629.59912037037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12216,7 +12231,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12253,14 +12268,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 18528-2023</t>
+          <t>A 1689-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45042.69927083333</v>
+        <v>46034.58842592593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12273,7 +12288,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12310,14 +12325,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48426-2022</t>
+          <t>A 30981-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44858.6446412037</v>
+        <v>45113.51041666666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12330,7 +12345,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12367,14 +12382,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 20141-2023</t>
+          <t>A 1695-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45055.43131944445</v>
+        <v>46034.59358796296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12387,7 +12402,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12424,14 +12439,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 40493-2022</t>
+          <t>A 14470-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44819</v>
+        <v>45012.65436342593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12444,7 +12459,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12481,14 +12496,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 62339-2025</t>
+          <t>A 38526-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46006</v>
+        <v>44813.45697916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12500,13 +12515,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12543,14 +12553,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 51056-2022</t>
+          <t>A 18529-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44868</v>
+        <v>45042.70158564814</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12563,7 +12573,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12600,14 +12610,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 57957-2023</t>
+          <t>A 54181-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45247</v>
+        <v>45616.63821759259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12620,7 +12630,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12657,14 +12667,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 62481-2025</t>
+          <t>A 47690-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46007</v>
+        <v>45588.45356481482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12676,13 +12686,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12719,14 +12724,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 62440-2025</t>
+          <t>A 2981-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46007.47361111111</v>
+        <v>46038</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12736,6 +12741,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -12776,14 +12786,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 62483-2025</t>
+          <t>A 47697-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46007</v>
+        <v>45588.45899305555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12795,13 +12805,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12838,14 +12843,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 57720-2023</t>
+          <t>A 61122-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45246</v>
+        <v>46000.46776620371</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12858,7 +12863,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12895,14 +12900,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 62844-2025</t>
+          <t>A 3141-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46008.69332175926</v>
+        <v>44582.53597222222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12952,14 +12957,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 41013-2023</t>
+          <t>A 58225-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45169</v>
+        <v>44487</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12972,7 +12977,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13009,14 +13014,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 30981-2023</t>
+          <t>A 22168-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45113.51041666666</v>
+        <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13029,7 +13034,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13066,14 +13071,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62952-2025</t>
+          <t>A 62481-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46009.44938657407</v>
+        <v>46007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13085,8 +13090,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13123,14 +13133,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 14470-2023</t>
+          <t>A 62339-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45012.65436342593</v>
+        <v>46006</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13142,8 +13152,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13180,14 +13195,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 69487-2021</t>
+          <t>A 62440-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44531</v>
+        <v>46007.47361111111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13200,7 +13215,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13237,14 +13252,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 31333-2024</t>
+          <t>A 18939-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45504</v>
+        <v>45427.46386574074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13257,7 +13272,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13294,14 +13309,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 27836-2023</t>
+          <t>A 7764-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45098.5433912037</v>
+        <v>45706.54957175926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13314,7 +13329,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13351,14 +13366,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 50428-2022</t>
+          <t>A 62483-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44866</v>
+        <v>46007</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13370,8 +13385,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13408,14 +13428,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 55660-2021</t>
+          <t>A 19471-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44476</v>
+        <v>45050</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13428,7 +13448,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13465,14 +13485,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 53885-2022</t>
+          <t>A 62844-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44876</v>
+        <v>46008.69332175926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13485,7 +13505,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13522,14 +13542,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 19914-2025</t>
+          <t>A 54867-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45771.61266203703</v>
+        <v>45229</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13542,7 +13562,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13579,14 +13599,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7086-2022</t>
+          <t>A 62952-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44603</v>
+        <v>46009.44938657407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13599,7 +13619,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13636,14 +13656,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 57252-2023</t>
+          <t>A 30980-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45245.56895833334</v>
+        <v>45113.50747685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13656,7 +13676,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13693,14 +13713,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 14225-2022</t>
+          <t>A 5966-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44651.6403587963</v>
+        <v>45336.48494212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13713,7 +13733,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13750,14 +13770,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 29995-2023</t>
+          <t>A 57252-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45109.62675925926</v>
+        <v>45245.56895833334</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13770,7 +13790,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>7.4</v>
+        <v>2.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13807,14 +13827,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 37174-2024</t>
+          <t>A 45667-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45539.63673611111</v>
+        <v>44845.71525462963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13827,7 +13847,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>8.1</v>
+        <v>2.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13864,14 +13884,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 61092-2021</t>
+          <t>A 19914-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44498</v>
+        <v>45771.61266203703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13884,7 +13904,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13921,14 +13941,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58266-2022</t>
+          <t>A 40261-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44901</v>
+        <v>45554.63262731482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13941,7 +13961,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13978,14 +13998,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 8838-2026</t>
+          <t>A 14660-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46066</v>
+        <v>45013.91371527778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13998,7 +14018,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>21.4</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14035,14 +14055,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 45086-2024</t>
+          <t>A 8838-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45575.58041666666</v>
+        <v>46066</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14055,7 +14075,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>21.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14092,14 +14112,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 47690-2024</t>
+          <t>A 55317-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45588.45356481482</v>
+        <v>45621.66334490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14112,7 +14132,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14149,14 +14169,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 9821-2026</t>
+          <t>A 60148-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46072.64320601852</v>
+        <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14169,7 +14189,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14206,14 +14226,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 9810-2026</t>
+          <t>A 58266-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46072.63025462963</v>
+        <v>44901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14226,7 +14246,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14263,14 +14283,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 46518-2024</t>
+          <t>A 9810-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45582.62869212963</v>
+        <v>46072.63025462963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14283,7 +14303,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14327,7 +14347,7 @@
         <v>46072.63173611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14377,14 +14397,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 18970-2023</t>
+          <t>A 9821-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45044</v>
+        <v>46072.64320601852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14397,7 +14417,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14434,14 +14454,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 43113-2024</t>
+          <t>A 53617-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45567</v>
+        <v>44879</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14454,7 +14474,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>8.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14491,14 +14511,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 54176-2024</t>
+          <t>A 18528-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45616.63513888889</v>
+        <v>45042.69927083333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14511,7 +14531,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14548,14 +14568,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 11910-2023</t>
+          <t>A 1968-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44995</v>
+        <v>45671</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14567,8 +14587,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>9.4</v>
+        <v>3.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14605,14 +14630,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 45313-2023</t>
+          <t>A 18970-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45191.71241898148</v>
+        <v>45044</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14625,7 +14650,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14662,14 +14687,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 16830-2023</t>
+          <t>A 29996-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45029</v>
+        <v>45109.63346064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14681,13 +14706,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14724,14 +14744,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 73273-2021</t>
+          <t>A 37174-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44550.92103009259</v>
+        <v>45539.63673611111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14744,7 +14764,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.7</v>
+        <v>8.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14781,14 +14801,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 70328-2021</t>
+          <t>A 51257-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44536.46303240741</v>
+        <v>44866</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14801,7 +14821,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14838,14 +14858,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 54181-2024</t>
+          <t>A 53885-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45616.63821759259</v>
+        <v>44876</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14858,7 +14878,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14895,14 +14915,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 47692-2024</t>
+          <t>A 48142-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45588.45613425926</v>
+        <v>45589.66851851852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14915,7 +14935,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14952,14 +14972,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 47702-2024</t>
+          <t>A 34532-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45588.46540509259</v>
+        <v>45140.43631944444</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14972,7 +14992,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15009,14 +15029,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 57296-2024</t>
+          <t>A 34417-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45629.59741898148</v>
+        <v>45525.49019675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15029,7 +15049,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15066,14 +15086,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 49146-2024</t>
+          <t>A 48276-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45594.7358912037</v>
+        <v>44858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15086,7 +15106,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15123,14 +15143,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 1954-2025</t>
+          <t>A 23185-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45671</v>
+        <v>45450</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15142,13 +15162,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>8.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15185,14 +15200,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 57298-2024</t>
+          <t>A 15466-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45629.59912037037</v>
+        <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15205,7 +15220,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15242,14 +15257,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 54867-2023</t>
+          <t>A 45086-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45229</v>
+        <v>45575.58041666666</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15262,7 +15277,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15299,14 +15314,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 27831-2023</t>
+          <t>A 54877-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45098</v>
+        <v>45229</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15319,7 +15334,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15356,14 +15371,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 7764-2025</t>
+          <t>A 51056-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45706.54957175926</v>
+        <v>44868</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15376,7 +15391,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15413,14 +15428,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 58097-2023</t>
+          <t>A 30616-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45248.84173611111</v>
+        <v>45495.38644675926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15433,7 +15448,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15470,14 +15485,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 32745-2024</t>
+          <t>A 10951-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45516</v>
+        <v>45370</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15489,13 +15504,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15532,14 +15542,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 28703-2022</t>
+          <t>A 27836-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44748.82637731481</v>
+        <v>45098.5433912037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15552,7 +15562,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15589,14 +15599,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 1282-2024</t>
+          <t>A 2027-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45303.02372685185</v>
+        <v>44575</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15609,7 +15619,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15646,14 +15656,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 23185-2024</t>
+          <t>A 54943-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45450</v>
+        <v>45236</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15666,7 +15676,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15703,14 +15713,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 4976-2023</t>
+          <t>A 14225-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44958.45994212963</v>
+        <v>44651.6403587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15723,7 +15733,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15760,14 +15770,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 705-2024</t>
+          <t>A 52321-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45300</v>
+        <v>45224.64361111111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15779,13 +15789,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15822,14 +15827,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 31001-2024</t>
+          <t>A 34979-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45499</v>
+        <v>45527</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15841,13 +15846,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15884,14 +15884,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 34532-2023</t>
+          <t>A 32745-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45140.43631944444</v>
+        <v>45516</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15901,6 +15901,11 @@
       <c r="E261" t="inlineStr">
         <is>
           <t>ÅMÅL</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -15941,14 +15946,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 51257-2022</t>
+          <t>A 52384-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44866</v>
+        <v>45609.41439814815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15961,7 +15966,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15998,14 +16003,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 8307-2024</t>
+          <t>A 40493-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45350</v>
+        <v>44819</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16017,13 +16022,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16060,14 +16060,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 3570-2025</t>
+          <t>A 55256-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45680</v>
+        <v>45620</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16117,14 +16117,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 53617-2022</t>
+          <t>A 56218-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44879</v>
+        <v>44890.46577546297</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16174,14 +16174,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 11402-2023</t>
+          <t>A 47692-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44993.4881712963</v>
+        <v>45588.45613425926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16231,14 +16231,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 61814-2022</t>
+          <t>A 69487-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44917.57796296296</v>
+        <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16288,14 +16288,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 55256-2024</t>
+          <t>A 27831-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45620</v>
+        <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16345,14 +16345,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 37812-2021</t>
+          <t>A 54176-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44402</v>
+        <v>45616.63513888889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16402,14 +16402,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 48276-2022</t>
+          <t>A 11910-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44858</v>
+        <v>44995</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.8</v>
+        <v>9.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16459,14 +16459,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 40251-2024</t>
+          <t>A 3570-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45554.61689814815</v>
+        <v>45680</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16516,14 +16516,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 46136-2021</t>
+          <t>A 46753-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44442.39613425926</v>
+        <v>45198</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16573,14 +16573,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 11916-2023</t>
+          <t>A 48426-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44995.46620370371</v>
+        <v>44858.6446412037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16630,14 +16630,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 39840-2021</t>
+          <t>A 21024-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44417</v>
+        <v>45777.51334490741</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16687,14 +16687,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 29996-2023</t>
+          <t>A 21028-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45109.63346064815</v>
+        <v>45777.52100694444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16744,14 +16744,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 2440-2025</t>
+          <t>A 21032-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45674.41945601852</v>
+        <v>45777.52616898148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16801,14 +16801,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 22168-2023</t>
+          <t>A 21137-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45065</v>
+        <v>45778.63582175926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16858,14 +16858,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 41726-2024</t>
+          <t>A 40278-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45560.87462962963</v>
+        <v>45554.65760416666</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16915,14 +16915,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 28866-2022</t>
+          <t>A 10800-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44749.51043981482</v>
+        <v>45369.62201388889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16972,14 +16972,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 30573-2023</t>
+          <t>A 22157-2021</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45111.96506944444</v>
+        <v>44325</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17029,14 +17029,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 28622-2024</t>
+          <t>A 23226-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45478.44236111111</v>
+        <v>45791.48756944444</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17086,14 +17086,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 10951-2024</t>
+          <t>A 23240-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45370</v>
+        <v>45791.49888888889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17143,14 +17143,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 64859-2023</t>
+          <t>A 23133-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45280</v>
+        <v>45791.38806712963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17162,13 +17162,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17205,14 +17200,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 28143-2023</t>
+          <t>A 23215-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45099.48545138889</v>
+        <v>45791.47444444444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17225,7 +17220,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17262,14 +17257,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 9259-2024</t>
+          <t>A 14904-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45358.6052662037</v>
+        <v>45743.49012731481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17282,7 +17277,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17319,14 +17314,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 60148-2022</t>
+          <t>A 23125-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44909</v>
+        <v>45791.38410879629</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17339,7 +17334,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17376,14 +17371,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 34112-2023</t>
+          <t>A 9123-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45126</v>
+        <v>45713.87643518519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,8 +17390,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G287" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17433,14 +17433,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 21324-2022</t>
+          <t>A 8470-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44705.59672453703</v>
+        <v>45709</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,8 +17452,13 @@
           <t>ÅMÅL</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G288" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17490,14 +17495,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 34525-2023</t>
+          <t>A 23780-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45140.41236111111</v>
+        <v>45793.50979166666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17510,7 +17515,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17547,14 +17552,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 54870-2023</t>
+          <t>A 15691-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45229</v>
+        <v>45404.45090277777</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17567,7 +17572,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17604,14 +17609,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 54943-2023</t>
+          <t>A 3571-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45236</v>
+        <v>45680</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17624,7 +17629,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.4</v>
+        <v>11.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17661,14 +17666,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 2199-2024</t>
+          <t>A 23670-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45309</v>
+        <v>45792.94814814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17681,7 +17686,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17718,14 +17723,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 16359-2025</t>
+          <t>A 25751-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45751.38976851852</v>
+        <v>45800</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17738,7 +17743,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17775,14 +17780,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 40189-2024</t>
+          <t>A 25748-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45554.56659722222</v>
+        <v>45800</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17795,7 +17800,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17832,14 +17837,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 48142-2024</t>
+          <t>A 25815-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45589.66851851852</v>
+        <v>45804.42990740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17852,7 +17857,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17889,14 +17894,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 48365-2023</t>
+          <t>A 25818-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45205</v>
+        <v>45804.43519675926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17909,7 +17914,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17946,14 +17951,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 57710-2022</t>
+          <t>A 25822-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44897.5384375</v>
+        <v>45804.43789351852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17966,7 +17971,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18003,14 +18008,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 36289-2024</t>
+          <t>A 25817-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45534</v>
+        <v>45804.4325462963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,13 +18027,8 @@
           <t>ÅMÅL</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>11.2</v>
+        <v>1.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18065,14 +18065,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 34979-2024</t>
+          <t>A 8092-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45527</v>
+        <v>45707.67640046297</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18122,14 +18122,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 4696-2024</t>
+          <t>A 8089-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45328</v>
+        <v>45707.67461805556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18179,14 +18179,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 48447-2022</t>
+          <t>A 47026-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44858.65266203704</v>
+        <v>45586.41668981482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18236,14 +18236,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 27853-2023</t>
+          <t>A 26911-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45098.5687962963</v>
+        <v>45811.35607638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18293,14 +18293,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 31337-2024</t>
+          <t>A 26912-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45504</v>
+        <v>45811.35936342592</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18350,14 +18350,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 35779-2024</t>
+          <t>A 26914-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45532.60379629629</v>
+        <v>45811.36456018518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18407,14 +18407,14 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 39534-2024</t>
+          <t>A 23186-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45551</v>
+        <v>45450</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>

--- a/Översikt ÅMÅL.xlsx
+++ b/Översikt ÅMÅL.xlsx
@@ -575,7 +575,7 @@
         <v>45414.6765625</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>45278</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45415.61755787037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>44450</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>44270</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45812</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>45635.57728009259</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45601.58664351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>45967</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44999.52065972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>45637</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45159</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>44832.50142361111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>44368</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44489.65511574074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44571</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>44376</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44514</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44535</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44733</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44470.45872685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>44404.55339120371</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44846.46372685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44417.63443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44600</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>44402</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>44402</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44401</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44839.31863425926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>44526.51045138889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>44374.78251157407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44407.70712962963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>44532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44475.84278935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>44498</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>44505</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>44494.53561342593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44325</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44407.70063657407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44858.64818287037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>45534</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>45504</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44705.59672453703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45588.46540509259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>45560.87462962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44974</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44868.36377314815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44958.45994212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>45191.71241898148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
         <v>45642.40743055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>44977</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45119.54206018519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45204</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45246</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45518.55730324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44995.46620370371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>45369.79299768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>45247</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45350</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45309</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45629.59741898148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45126</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44498</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>45109.62675925926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>45716</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>45659</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45551</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44897.5384375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45300</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45624.96618055556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44917.57796296296</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44999</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45674.45380787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45329</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>45029</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>45819</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>45099.48545138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>45820.46232638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44270</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>45594.7358912037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>45777.67112268518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>45803.6643287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>45045</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>45825.30631944445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>45756.86658564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>45825.40863425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>45884</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45824</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45793.51618055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>45889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45671</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44603</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>45826</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45826.60033564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>45895.386875</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45826</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>45894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>45893</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>45751.38976851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>45660.67505787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>45205</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44890.45704861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44417</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>45902</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44536.46303240741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>45693.46712962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>45839.64229166666</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>45903.75858796296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>45629.60421296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>45845.6409375</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>45845.6490162037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>45910.76835648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>45674.41945601852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>45111.96506944444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45915.49810185185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44476</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>45903</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45912.63038194444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>45082.480625</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44749</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>45820</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>45768.92784722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>45918.67821759259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>45582.62869212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>45271</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>45782.50599537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>45369.63376157408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>45925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44748.82637731481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45873.38961805555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45055.43131944445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45932</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45239</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45932</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45280</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45932</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45938.63424768519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44866</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45514</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45532.60379629629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>44749.50611111111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45112</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45112</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45939</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>45113</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>45945.45089120371</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45098.5687962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45358.6052662037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45499</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45303.02372685185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>45019</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>45376</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45939</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45953.42795138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>45952.57109953704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45939</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45554.61689814815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45140.41236111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44749.51043981482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>44993.4881712963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45960.37158564815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45588.46224537037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45554.56659722222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>45169</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>45967</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44442.39613425926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>45229</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44536</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45979.43319444444</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>45414.68023148148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45979.42400462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>45478.48899305556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45248.84173611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44550.92103009259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44402</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45986.60277777778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45986.48127314815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>45478.44236111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44858.65266203704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>45988</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44496.36440972222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45629.59912037037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>46034.58842592593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>45113.51041666666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>46034.59358796296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12446,7 +12446,7 @@
         <v>45012.65436342593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44813.45697916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>45042.70158564814</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>45616.63821759259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>45588.45356481482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>46038</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45588.45899305555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>46000.46776620371</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44582.53597222222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44487</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>45065</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>46007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>46006</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>46007.47361111111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45427.46386574074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45706.54957175926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>46007</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>45050</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>46008.69332175926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45229</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>46009.44938657407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>45113.50747685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>45336.48494212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>45245.56895833334</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44845.71525462963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45771.61266203703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>45554.63262731482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>45013.91371527778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>46066</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>45621.66334490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44901</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>46072.63025462963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>46072.63173611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>46072.64320601852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44879</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45042.69927083333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45671</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45044</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45109.63346064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45539.63673611111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>44866</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>44876</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45589.66851851852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45140.43631944444</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15036,7 +15036,7 @@
         <v>45525.49019675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         <v>44858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>45450</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45575.58041666666</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45229</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44868</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>45495.38644675926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45370</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45098.5433912037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44575</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45236</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44651.6403587963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45224.64361111111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45527</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45516</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>45609.41439814815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44819</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>45620</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44890.46577546297</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45588.45613425926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44531</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45098</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45616.63513888889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44995</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45680</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>45198</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44858.6446412037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45777.51334490741</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45777.52100694444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45777.52616898148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45778.63582175926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45554.65760416666</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45369.62201388889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44325</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45791.48756944444</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45791.49888888889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45791.38806712963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45791.47444444444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>45743.49012731481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45791.38410879629</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45713.87643518519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45709</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45793.50979166666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45404.45090277777</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45680</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>45792.94814814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>45800</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>45800</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>45804.42990740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>45804.43519675926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>45804.43789351852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45804.4325462963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45707.67640046297</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45707.67461805556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45586.41668981482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>45811.35607638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45811.35936342592</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>45811.36456018518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>45450</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
